--- a/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F81F5C-E467-44F3-8860-4B4EE1CDEBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB1696-0081-43FF-849C-F434B8462C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="461">
   <si>
     <t>REPORTE HORAS HOMBRE : TAREO - PERSONAL OPERARIOS</t>
   </si>
@@ -1540,7 +1540,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,6 +1622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC5C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,7 +2018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2215,31 +2221,22 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2302,29 +2299,58 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC5C5"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3615,8 +3641,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I167" sqref="I167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3625,12 +3651,12 @@
     <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="13.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="10.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
     <col min="18" max="21" width="6" style="1" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="1" customWidth="1"/>
     <col min="23" max="26" width="6" style="1" customWidth="1"/>
@@ -3695,25 +3721,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -3898,36 +3924,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="105" t="s">
+      <c r="X3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="106"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4096,11 +4122,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="106"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="77"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4246,25 +4272,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4603,702 +4629,702 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="92" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="78" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="78" t="s">
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="100"/>
+      <c r="BA8" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="BB8" s="79"/>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
-      <c r="BF8" s="79"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="79"/>
-      <c r="BI8" s="79"/>
-      <c r="BJ8" s="79"/>
-      <c r="BK8" s="79"/>
-      <c r="BL8" s="79"/>
-      <c r="BM8" s="79"/>
-      <c r="BN8" s="79"/>
-      <c r="BO8" s="79"/>
-      <c r="BP8" s="79"/>
-      <c r="BQ8" s="79"/>
-      <c r="BR8" s="79"/>
-      <c r="BS8" s="79"/>
-      <c r="BT8" s="79"/>
-      <c r="BU8" s="79"/>
-      <c r="BV8" s="79"/>
-      <c r="BW8" s="79"/>
-      <c r="BX8" s="79"/>
-      <c r="BY8" s="79"/>
-      <c r="BZ8" s="79"/>
-      <c r="CA8" s="79"/>
-      <c r="CB8" s="79"/>
-      <c r="CC8" s="79"/>
-      <c r="CD8" s="79"/>
-      <c r="CE8" s="79"/>
-      <c r="CF8" s="79"/>
-      <c r="CG8" s="79"/>
-      <c r="CH8" s="79"/>
-      <c r="CI8" s="79"/>
-      <c r="CJ8" s="79"/>
-      <c r="CK8" s="79"/>
-      <c r="CL8" s="79"/>
-      <c r="CM8" s="79"/>
-      <c r="CN8" s="79"/>
-      <c r="CO8" s="79"/>
-      <c r="CP8" s="79"/>
-      <c r="CQ8" s="79"/>
-      <c r="CR8" s="79"/>
-      <c r="CS8" s="79"/>
-      <c r="CT8" s="79"/>
-      <c r="CU8" s="79"/>
-      <c r="CV8" s="79"/>
-      <c r="CW8" s="79"/>
-      <c r="CX8" s="79"/>
-      <c r="CY8" s="79"/>
-      <c r="CZ8" s="79"/>
-      <c r="DA8" s="79"/>
-      <c r="DB8" s="79"/>
-      <c r="DC8" s="79"/>
-      <c r="DD8" s="79"/>
-      <c r="DE8" s="79"/>
-      <c r="DF8" s="79"/>
-      <c r="DG8" s="79"/>
-      <c r="DH8" s="79"/>
-      <c r="DI8" s="79"/>
-      <c r="DJ8" s="79"/>
-      <c r="DK8" s="79"/>
-      <c r="DL8" s="79"/>
-      <c r="DM8" s="79"/>
-      <c r="DN8" s="79"/>
-      <c r="DO8" s="79"/>
-      <c r="DP8" s="79"/>
-      <c r="DQ8" s="79"/>
-      <c r="DR8" s="79"/>
-      <c r="DS8" s="79"/>
-      <c r="DT8" s="79"/>
-      <c r="DU8" s="79"/>
-      <c r="DV8" s="79"/>
-      <c r="DW8" s="79"/>
-      <c r="DX8" s="79"/>
-      <c r="DY8" s="79"/>
-      <c r="DZ8" s="79"/>
-      <c r="EA8" s="79"/>
-      <c r="EB8" s="79"/>
-      <c r="EC8" s="79"/>
-      <c r="ED8" s="79"/>
-      <c r="EE8" s="79"/>
-      <c r="EF8" s="79"/>
-      <c r="EG8" s="79"/>
-      <c r="EH8" s="79"/>
-      <c r="EI8" s="79"/>
-      <c r="EJ8" s="79"/>
-      <c r="EK8" s="79"/>
-      <c r="EL8" s="79"/>
-      <c r="EM8" s="79"/>
-      <c r="EN8" s="79"/>
-      <c r="EO8" s="79"/>
-      <c r="EP8" s="79"/>
-      <c r="EQ8" s="79"/>
-      <c r="ER8" s="79"/>
-      <c r="ES8" s="79"/>
-      <c r="ET8" s="79"/>
-      <c r="EU8" s="79"/>
-      <c r="EV8" s="79"/>
-      <c r="EW8" s="79"/>
-      <c r="EX8" s="79"/>
-      <c r="EY8" s="79"/>
-      <c r="EZ8" s="79"/>
-      <c r="FA8" s="79"/>
-      <c r="FB8" s="79"/>
-      <c r="FC8" s="79"/>
-      <c r="FD8" s="79"/>
-      <c r="FE8" s="79"/>
-      <c r="FF8" s="79"/>
-      <c r="FG8" s="79"/>
-      <c r="FH8" s="79"/>
-      <c r="FI8" s="79"/>
-      <c r="FJ8" s="79"/>
-      <c r="FK8" s="80"/>
+      <c r="BB8" s="99"/>
+      <c r="BC8" s="99"/>
+      <c r="BD8" s="99"/>
+      <c r="BE8" s="99"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="99"/>
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="99"/>
+      <c r="BL8" s="99"/>
+      <c r="BM8" s="99"/>
+      <c r="BN8" s="99"/>
+      <c r="BO8" s="99"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="99"/>
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="99"/>
+      <c r="BV8" s="99"/>
+      <c r="BW8" s="99"/>
+      <c r="BX8" s="99"/>
+      <c r="BY8" s="99"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="99"/>
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="99"/>
+      <c r="CF8" s="99"/>
+      <c r="CG8" s="99"/>
+      <c r="CH8" s="99"/>
+      <c r="CI8" s="99"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="99"/>
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="99"/>
+      <c r="CP8" s="99"/>
+      <c r="CQ8" s="99"/>
+      <c r="CR8" s="99"/>
+      <c r="CS8" s="99"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="99"/>
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="99"/>
+      <c r="CZ8" s="99"/>
+      <c r="DA8" s="99"/>
+      <c r="DB8" s="99"/>
+      <c r="DC8" s="99"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="99"/>
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="99"/>
+      <c r="DJ8" s="99"/>
+      <c r="DK8" s="99"/>
+      <c r="DL8" s="99"/>
+      <c r="DM8" s="99"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="99"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="99"/>
+      <c r="DT8" s="99"/>
+      <c r="DU8" s="99"/>
+      <c r="DV8" s="99"/>
+      <c r="DW8" s="99"/>
+      <c r="DX8" s="99"/>
+      <c r="DY8" s="99"/>
+      <c r="DZ8" s="99"/>
+      <c r="EA8" s="99"/>
+      <c r="EB8" s="99"/>
+      <c r="EC8" s="99"/>
+      <c r="ED8" s="99"/>
+      <c r="EE8" s="99"/>
+      <c r="EF8" s="99"/>
+      <c r="EG8" s="99"/>
+      <c r="EH8" s="99"/>
+      <c r="EI8" s="99"/>
+      <c r="EJ8" s="99"/>
+      <c r="EK8" s="99"/>
+      <c r="EL8" s="99"/>
+      <c r="EM8" s="99"/>
+      <c r="EN8" s="99"/>
+      <c r="EO8" s="99"/>
+      <c r="EP8" s="99"/>
+      <c r="EQ8" s="99"/>
+      <c r="ER8" s="99"/>
+      <c r="ES8" s="99"/>
+      <c r="ET8" s="99"/>
+      <c r="EU8" s="99"/>
+      <c r="EV8" s="99"/>
+      <c r="EW8" s="99"/>
+      <c r="EX8" s="99"/>
+      <c r="EY8" s="99"/>
+      <c r="EZ8" s="99"/>
+      <c r="FA8" s="99"/>
+      <c r="FB8" s="99"/>
+      <c r="FC8" s="99"/>
+      <c r="FD8" s="99"/>
+      <c r="FE8" s="99"/>
+      <c r="FF8" s="99"/>
+      <c r="FG8" s="99"/>
+      <c r="FH8" s="99"/>
+      <c r="FI8" s="99"/>
+      <c r="FJ8" s="99"/>
+      <c r="FK8" s="100"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="75" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="75" t="str">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="104" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="75" t="str">
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="104" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="75" t="str">
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="104" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="75" t="str">
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="104" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="75" t="str">
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="104" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="75" t="str">
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="104" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="75" t="str">
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="104" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="75" t="str">
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="104" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BG9" s="76"/>
-      <c r="BH9" s="76"/>
-      <c r="BI9" s="76"/>
-      <c r="BJ9" s="77"/>
-      <c r="BK9" s="75" t="str">
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="106"/>
+      <c r="BK9" s="104" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BL9" s="76"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="76"/>
-      <c r="BO9" s="77"/>
-      <c r="BP9" s="75" t="str">
+      <c r="BL9" s="105"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="106"/>
+      <c r="BP9" s="104" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="BQ9" s="76"/>
-      <c r="BR9" s="76"/>
-      <c r="BS9" s="76"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="75" t="str">
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="106"/>
+      <c r="BU9" s="104" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="BV9" s="76"/>
-      <c r="BW9" s="76"/>
-      <c r="BX9" s="76"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="75" t="str">
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="105"/>
+      <c r="BY9" s="106"/>
+      <c r="BZ9" s="104" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CA9" s="76"/>
-      <c r="CB9" s="76"/>
-      <c r="CC9" s="76"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="75" t="str">
+      <c r="CA9" s="105"/>
+      <c r="CB9" s="105"/>
+      <c r="CC9" s="105"/>
+      <c r="CD9" s="106"/>
+      <c r="CE9" s="104" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CF9" s="76"/>
-      <c r="CG9" s="76"/>
-      <c r="CH9" s="76"/>
-      <c r="CI9" s="77"/>
-      <c r="CJ9" s="75" t="str">
+      <c r="CF9" s="105"/>
+      <c r="CG9" s="105"/>
+      <c r="CH9" s="105"/>
+      <c r="CI9" s="106"/>
+      <c r="CJ9" s="104" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CK9" s="76"/>
-      <c r="CL9" s="76"/>
-      <c r="CM9" s="76"/>
-      <c r="CN9" s="77"/>
-      <c r="CO9" s="75" t="str">
+      <c r="CK9" s="105"/>
+      <c r="CL9" s="105"/>
+      <c r="CM9" s="105"/>
+      <c r="CN9" s="106"/>
+      <c r="CO9" s="104" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CP9" s="76"/>
-      <c r="CQ9" s="76"/>
-      <c r="CR9" s="76"/>
-      <c r="CS9" s="77"/>
-      <c r="CT9" s="75" t="str">
+      <c r="CP9" s="105"/>
+      <c r="CQ9" s="105"/>
+      <c r="CR9" s="105"/>
+      <c r="CS9" s="106"/>
+      <c r="CT9" s="104" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="CU9" s="76"/>
-      <c r="CV9" s="76"/>
-      <c r="CW9" s="76"/>
-      <c r="CX9" s="77"/>
-      <c r="CY9" s="75" t="str">
+      <c r="CU9" s="105"/>
+      <c r="CV9" s="105"/>
+      <c r="CW9" s="105"/>
+      <c r="CX9" s="106"/>
+      <c r="CY9" s="104" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CZ9" s="76"/>
-      <c r="DA9" s="76"/>
-      <c r="DB9" s="76"/>
-      <c r="DC9" s="77"/>
-      <c r="DD9" s="75" t="str">
+      <c r="CZ9" s="105"/>
+      <c r="DA9" s="105"/>
+      <c r="DB9" s="105"/>
+      <c r="DC9" s="106"/>
+      <c r="DD9" s="104" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DE9" s="76"/>
-      <c r="DF9" s="76"/>
-      <c r="DG9" s="76"/>
-      <c r="DH9" s="77"/>
-      <c r="DI9" s="75" t="str">
+      <c r="DE9" s="105"/>
+      <c r="DF9" s="105"/>
+      <c r="DG9" s="105"/>
+      <c r="DH9" s="106"/>
+      <c r="DI9" s="104" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DJ9" s="76"/>
-      <c r="DK9" s="76"/>
-      <c r="DL9" s="76"/>
-      <c r="DM9" s="77"/>
-      <c r="DN9" s="75" t="str">
+      <c r="DJ9" s="105"/>
+      <c r="DK9" s="105"/>
+      <c r="DL9" s="105"/>
+      <c r="DM9" s="106"/>
+      <c r="DN9" s="104" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DO9" s="76"/>
-      <c r="DP9" s="76"/>
-      <c r="DQ9" s="76"/>
-      <c r="DR9" s="77"/>
-      <c r="DS9" s="75" t="str">
+      <c r="DO9" s="105"/>
+      <c r="DP9" s="105"/>
+      <c r="DQ9" s="105"/>
+      <c r="DR9" s="106"/>
+      <c r="DS9" s="104" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="DT9" s="76"/>
-      <c r="DU9" s="76"/>
-      <c r="DV9" s="76"/>
-      <c r="DW9" s="77"/>
-      <c r="DX9" s="75" t="str">
+      <c r="DT9" s="105"/>
+      <c r="DU9" s="105"/>
+      <c r="DV9" s="105"/>
+      <c r="DW9" s="106"/>
+      <c r="DX9" s="104" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="DY9" s="76"/>
-      <c r="DZ9" s="76"/>
-      <c r="EA9" s="76"/>
-      <c r="EB9" s="77"/>
-      <c r="EC9" s="75" t="str">
+      <c r="DY9" s="105"/>
+      <c r="DZ9" s="105"/>
+      <c r="EA9" s="105"/>
+      <c r="EB9" s="106"/>
+      <c r="EC9" s="104" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="ED9" s="76"/>
-      <c r="EE9" s="76"/>
-      <c r="EF9" s="76"/>
-      <c r="EG9" s="77"/>
-      <c r="EH9" s="75" t="str">
+      <c r="ED9" s="105"/>
+      <c r="EE9" s="105"/>
+      <c r="EF9" s="105"/>
+      <c r="EG9" s="106"/>
+      <c r="EH9" s="104" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="EI9" s="76"/>
-      <c r="EJ9" s="76"/>
-      <c r="EK9" s="76"/>
-      <c r="EL9" s="77"/>
-      <c r="EM9" s="75" t="str">
+      <c r="EI9" s="105"/>
+      <c r="EJ9" s="105"/>
+      <c r="EK9" s="105"/>
+      <c r="EL9" s="106"/>
+      <c r="EM9" s="104" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EN9" s="76"/>
-      <c r="EO9" s="76"/>
-      <c r="EP9" s="76"/>
-      <c r="EQ9" s="77"/>
-      <c r="ER9" s="75" t="str">
+      <c r="EN9" s="105"/>
+      <c r="EO9" s="105"/>
+      <c r="EP9" s="105"/>
+      <c r="EQ9" s="106"/>
+      <c r="ER9" s="104" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="ES9" s="76"/>
-      <c r="ET9" s="76"/>
-      <c r="EU9" s="76"/>
-      <c r="EV9" s="77"/>
-      <c r="EW9" s="75" t="str">
+      <c r="ES9" s="105"/>
+      <c r="ET9" s="105"/>
+      <c r="EU9" s="105"/>
+      <c r="EV9" s="106"/>
+      <c r="EW9" s="104" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="EX9" s="76"/>
-      <c r="EY9" s="76"/>
-      <c r="EZ9" s="76"/>
-      <c r="FA9" s="77"/>
-      <c r="FB9" s="75" t="str">
+      <c r="EX9" s="105"/>
+      <c r="EY9" s="105"/>
+      <c r="EZ9" s="105"/>
+      <c r="FA9" s="106"/>
+      <c r="FB9" s="104" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="FC9" s="76"/>
-      <c r="FD9" s="76"/>
-      <c r="FE9" s="76"/>
-      <c r="FF9" s="77"/>
-      <c r="FG9" s="75" t="str">
+      <c r="FC9" s="105"/>
+      <c r="FD9" s="105"/>
+      <c r="FE9" s="105"/>
+      <c r="FF9" s="106"/>
+      <c r="FG9" s="104" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="FH9" s="76"/>
-      <c r="FI9" s="76"/>
-      <c r="FJ9" s="76"/>
-      <c r="FK9" s="77"/>
+      <c r="FH9" s="105"/>
+      <c r="FI9" s="105"/>
+      <c r="FJ9" s="105"/>
+      <c r="FK9" s="106"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="72">
+      <c r="A10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="101">
         <v>44736</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="72">
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="101">
         <f>+R10+1</f>
         <v>44737</v>
       </c>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72">
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="101">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44738</v>
       </c>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="72">
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="101">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44739</v>
       </c>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="72">
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="101">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44740</v>
       </c>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="72">
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="101">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44741</v>
       </c>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="72">
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="101">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44742</v>
       </c>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="72">
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="101">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44743</v>
       </c>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="72">
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="101">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44744</v>
       </c>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="72">
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="101">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44745</v>
       </c>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="73"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="72">
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="101">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44746</v>
       </c>
-      <c r="BQ10" s="73"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="73"/>
-      <c r="BT10" s="74"/>
-      <c r="BU10" s="72">
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="102"/>
+      <c r="BS10" s="102"/>
+      <c r="BT10" s="103"/>
+      <c r="BU10" s="101">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44747</v>
       </c>
-      <c r="BV10" s="73"/>
-      <c r="BW10" s="73"/>
-      <c r="BX10" s="73"/>
-      <c r="BY10" s="74"/>
-      <c r="BZ10" s="72">
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="102"/>
+      <c r="BX10" s="102"/>
+      <c r="BY10" s="103"/>
+      <c r="BZ10" s="101">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44748</v>
       </c>
-      <c r="CA10" s="73"/>
-      <c r="CB10" s="73"/>
-      <c r="CC10" s="73"/>
-      <c r="CD10" s="74"/>
-      <c r="CE10" s="72">
+      <c r="CA10" s="102"/>
+      <c r="CB10" s="102"/>
+      <c r="CC10" s="102"/>
+      <c r="CD10" s="103"/>
+      <c r="CE10" s="101">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44749</v>
       </c>
-      <c r="CF10" s="73"/>
-      <c r="CG10" s="73"/>
-      <c r="CH10" s="73"/>
-      <c r="CI10" s="74"/>
-      <c r="CJ10" s="72">
+      <c r="CF10" s="102"/>
+      <c r="CG10" s="102"/>
+      <c r="CH10" s="102"/>
+      <c r="CI10" s="103"/>
+      <c r="CJ10" s="101">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44750</v>
       </c>
-      <c r="CK10" s="73"/>
-      <c r="CL10" s="73"/>
-      <c r="CM10" s="73"/>
-      <c r="CN10" s="74"/>
-      <c r="CO10" s="72">
+      <c r="CK10" s="102"/>
+      <c r="CL10" s="102"/>
+      <c r="CM10" s="102"/>
+      <c r="CN10" s="103"/>
+      <c r="CO10" s="101">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44751</v>
       </c>
-      <c r="CP10" s="73"/>
-      <c r="CQ10" s="73"/>
-      <c r="CR10" s="73"/>
-      <c r="CS10" s="74"/>
-      <c r="CT10" s="72">
+      <c r="CP10" s="102"/>
+      <c r="CQ10" s="102"/>
+      <c r="CR10" s="102"/>
+      <c r="CS10" s="103"/>
+      <c r="CT10" s="101">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44752</v>
       </c>
-      <c r="CU10" s="73"/>
-      <c r="CV10" s="73"/>
-      <c r="CW10" s="73"/>
-      <c r="CX10" s="74"/>
-      <c r="CY10" s="72">
+      <c r="CU10" s="102"/>
+      <c r="CV10" s="102"/>
+      <c r="CW10" s="102"/>
+      <c r="CX10" s="103"/>
+      <c r="CY10" s="101">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44753</v>
       </c>
-      <c r="CZ10" s="73"/>
-      <c r="DA10" s="73"/>
-      <c r="DB10" s="73"/>
-      <c r="DC10" s="74"/>
-      <c r="DD10" s="72">
+      <c r="CZ10" s="102"/>
+      <c r="DA10" s="102"/>
+      <c r="DB10" s="102"/>
+      <c r="DC10" s="103"/>
+      <c r="DD10" s="101">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44754</v>
       </c>
-      <c r="DE10" s="73"/>
-      <c r="DF10" s="73"/>
-      <c r="DG10" s="73"/>
-      <c r="DH10" s="74"/>
-      <c r="DI10" s="72">
+      <c r="DE10" s="102"/>
+      <c r="DF10" s="102"/>
+      <c r="DG10" s="102"/>
+      <c r="DH10" s="103"/>
+      <c r="DI10" s="101">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44755</v>
       </c>
-      <c r="DJ10" s="73"/>
-      <c r="DK10" s="73"/>
-      <c r="DL10" s="73"/>
-      <c r="DM10" s="74"/>
-      <c r="DN10" s="72">
+      <c r="DJ10" s="102"/>
+      <c r="DK10" s="102"/>
+      <c r="DL10" s="102"/>
+      <c r="DM10" s="103"/>
+      <c r="DN10" s="101">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44756</v>
       </c>
-      <c r="DO10" s="73"/>
-      <c r="DP10" s="73"/>
-      <c r="DQ10" s="73"/>
-      <c r="DR10" s="74"/>
-      <c r="DS10" s="72">
+      <c r="DO10" s="102"/>
+      <c r="DP10" s="102"/>
+      <c r="DQ10" s="102"/>
+      <c r="DR10" s="103"/>
+      <c r="DS10" s="101">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44757</v>
       </c>
-      <c r="DT10" s="73"/>
-      <c r="DU10" s="73"/>
-      <c r="DV10" s="73"/>
-      <c r="DW10" s="74"/>
-      <c r="DX10" s="72">
+      <c r="DT10" s="102"/>
+      <c r="DU10" s="102"/>
+      <c r="DV10" s="102"/>
+      <c r="DW10" s="103"/>
+      <c r="DX10" s="101">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44758</v>
       </c>
-      <c r="DY10" s="73"/>
-      <c r="DZ10" s="73"/>
-      <c r="EA10" s="73"/>
-      <c r="EB10" s="74"/>
-      <c r="EC10" s="72">
+      <c r="DY10" s="102"/>
+      <c r="DZ10" s="102"/>
+      <c r="EA10" s="102"/>
+      <c r="EB10" s="103"/>
+      <c r="EC10" s="101">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44759</v>
       </c>
-      <c r="ED10" s="73"/>
-      <c r="EE10" s="73"/>
-      <c r="EF10" s="73"/>
-      <c r="EG10" s="74"/>
-      <c r="EH10" s="72">
+      <c r="ED10" s="102"/>
+      <c r="EE10" s="102"/>
+      <c r="EF10" s="102"/>
+      <c r="EG10" s="103"/>
+      <c r="EH10" s="101">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44760</v>
       </c>
-      <c r="EI10" s="73"/>
-      <c r="EJ10" s="73"/>
-      <c r="EK10" s="73"/>
-      <c r="EL10" s="74"/>
-      <c r="EM10" s="72">
+      <c r="EI10" s="102"/>
+      <c r="EJ10" s="102"/>
+      <c r="EK10" s="102"/>
+      <c r="EL10" s="103"/>
+      <c r="EM10" s="101">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44761</v>
       </c>
-      <c r="EN10" s="73"/>
-      <c r="EO10" s="73"/>
-      <c r="EP10" s="73"/>
-      <c r="EQ10" s="74"/>
-      <c r="ER10" s="72">
+      <c r="EN10" s="102"/>
+      <c r="EO10" s="102"/>
+      <c r="EP10" s="102"/>
+      <c r="EQ10" s="103"/>
+      <c r="ER10" s="101">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44762</v>
       </c>
-      <c r="ES10" s="73"/>
-      <c r="ET10" s="73"/>
-      <c r="EU10" s="73"/>
-      <c r="EV10" s="74"/>
-      <c r="EW10" s="72">
+      <c r="ES10" s="102"/>
+      <c r="ET10" s="102"/>
+      <c r="EU10" s="102"/>
+      <c r="EV10" s="103"/>
+      <c r="EW10" s="101">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44763</v>
       </c>
-      <c r="EX10" s="73"/>
-      <c r="EY10" s="73"/>
-      <c r="EZ10" s="73"/>
-      <c r="FA10" s="74"/>
-      <c r="FB10" s="72">
+      <c r="EX10" s="102"/>
+      <c r="EY10" s="102"/>
+      <c r="EZ10" s="102"/>
+      <c r="FA10" s="103"/>
+      <c r="FB10" s="101">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44764</v>
       </c>
-      <c r="FC10" s="73"/>
-      <c r="FD10" s="73"/>
-      <c r="FE10" s="73"/>
-      <c r="FF10" s="74"/>
-      <c r="FG10" s="72">
+      <c r="FC10" s="102"/>
+      <c r="FD10" s="102"/>
+      <c r="FE10" s="102"/>
+      <c r="FF10" s="103"/>
+      <c r="FG10" s="101">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44765</v>
       </c>
-      <c r="FH10" s="73"/>
-      <c r="FI10" s="73"/>
-      <c r="FJ10" s="73"/>
-      <c r="FK10" s="74"/>
+      <c r="FH10" s="102"/>
+      <c r="FI10" s="102"/>
+      <c r="FJ10" s="102"/>
+      <c r="FK10" s="103"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="42" t="s">
         <v>173</v>
       </c>
@@ -5798,7 +5824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -6014,7 +6040,7 @@
       <c r="FJ12" s="32"/>
       <c r="FK12" s="33"/>
     </row>
-    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
@@ -6230,7 +6256,7 @@
       <c r="FJ13" s="32"/>
       <c r="FK13" s="33"/>
     </row>
-    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
@@ -6446,7 +6472,7 @@
       <c r="FJ14" s="32"/>
       <c r="FK14" s="33"/>
     </row>
-    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -6662,7 +6688,7 @@
       <c r="FJ15" s="32"/>
       <c r="FK15" s="33"/>
     </row>
-    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
@@ -6898,7 +6924,7 @@
       <c r="FJ16" s="32"/>
       <c r="FK16" s="33"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
@@ -7114,7 +7140,7 @@
       <c r="FJ17" s="32"/>
       <c r="FK17" s="33"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
@@ -7330,7 +7356,7 @@
       <c r="FJ18" s="32"/>
       <c r="FK18" s="33"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -7546,7 +7572,7 @@
       <c r="FJ19" s="32"/>
       <c r="FK19" s="33"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
@@ -7762,7 +7788,7 @@
       <c r="FJ20" s="32"/>
       <c r="FK20" s="33"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -7978,7 +8004,7 @@
       <c r="FJ21" s="32"/>
       <c r="FK21" s="33"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
@@ -8194,7 +8220,7 @@
       <c r="FJ22" s="32"/>
       <c r="FK22" s="33"/>
     </row>
-    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>27</v>
       </c>
@@ -8209,7 +8235,7 @@
       </c>
       <c r="E23" s="36">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F23" s="36">
         <f t="shared" si="58"/>
@@ -8237,7 +8263,7 @@
       </c>
       <c r="L23" s="37">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M23" s="23">
         <f t="shared" si="65"/>
@@ -8249,15 +8275,15 @@
       </c>
       <c r="O23" s="23">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="68"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="34">
         <f t="shared" si="69"/>
-        <v>10.25</v>
+        <v>50.25</v>
       </c>
       <c r="R23" s="30">
         <v>1</v>
@@ -8286,26 +8312,44 @@
       <c r="AF23" s="71">
         <v>8</v>
       </c>
-      <c r="AG23" s="30"/>
+      <c r="AG23" s="30">
+        <v>1</v>
+      </c>
       <c r="AH23" s="31"/>
       <c r="AI23" s="31"/>
       <c r="AJ23" s="32"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="30"/>
+      <c r="AK23" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL23" s="30">
+        <v>1</v>
+      </c>
       <c r="AM23" s="31"/>
       <c r="AN23" s="31"/>
       <c r="AO23" s="32"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="68"/>
+      <c r="AP23" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ23" s="68">
+        <v>1</v>
+      </c>
       <c r="AR23" s="69"/>
       <c r="AS23" s="69"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="71"/>
-      <c r="AV23" s="30"/>
+      <c r="AT23" s="70">
+        <v>8</v>
+      </c>
+      <c r="AU23" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV23" s="30">
+        <v>1</v>
+      </c>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
       <c r="AY23" s="32"/>
-      <c r="AZ23" s="33"/>
+      <c r="AZ23" s="33">
+        <v>8</v>
+      </c>
       <c r="BA23" s="30"/>
       <c r="BB23" s="31"/>
       <c r="BC23" s="31"/>
@@ -8422,7 +8466,7 @@
       <c r="FJ23" s="32"/>
       <c r="FK23" s="33"/>
     </row>
-    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -8660,18 +8704,18 @@
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="107" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="108" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="109" t="s">
         <v>398</v>
       </c>
       <c r="E25" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F25" s="36">
         <f t="shared" si="58"/>
@@ -8699,11 +8743,11 @@
       </c>
       <c r="L25" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M25" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="23">
         <f t="shared" si="66"/>
@@ -8719,39 +8763,61 @@
       </c>
       <c r="Q25" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="R25" s="30">
+        <v>1</v>
+      </c>
+      <c r="S25" s="31">
+        <v>0.25</v>
+      </c>
       <c r="T25" s="31"/>
       <c r="U25" s="32"/>
       <c r="V25" s="33"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="31"/>
+      <c r="W25" s="30">
+        <v>1</v>
+      </c>
+      <c r="X25" s="31">
+        <v>1.75</v>
+      </c>
       <c r="Y25" s="31"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="33"/>
-      <c r="AB25" s="68"/>
+      <c r="AB25" s="68">
+        <v>1</v>
+      </c>
       <c r="AC25" s="69"/>
       <c r="AD25" s="69"/>
       <c r="AE25" s="70"/>
       <c r="AF25" s="71"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="31"/>
+      <c r="AG25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="31">
+        <v>1</v>
+      </c>
       <c r="AI25" s="31"/>
       <c r="AJ25" s="32"/>
       <c r="AK25" s="33"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="31"/>
+      <c r="AL25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="31">
+        <v>1</v>
+      </c>
       <c r="AN25" s="31"/>
       <c r="AO25" s="32"/>
       <c r="AP25" s="33"/>
-      <c r="AQ25" s="68"/>
+      <c r="AQ25" s="68">
+        <v>1</v>
+      </c>
       <c r="AR25" s="69"/>
       <c r="AS25" s="69"/>
       <c r="AT25" s="70"/>
       <c r="AU25" s="71"/>
-      <c r="AV25" s="30"/>
+      <c r="AV25" s="30">
+        <v>1</v>
+      </c>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
       <c r="AY25" s="32"/>
@@ -8872,7 +8938,7 @@
       <c r="FJ25" s="32"/>
       <c r="FK25" s="33"/>
     </row>
-    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>30</v>
       </c>
@@ -8887,7 +8953,7 @@
       </c>
       <c r="E26" s="36">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F26" s="36">
         <f t="shared" si="58"/>
@@ -8915,27 +8981,27 @@
       </c>
       <c r="L26" s="37">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M26" s="23">
         <f t="shared" si="65"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="23">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" si="68"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="34">
         <f t="shared" si="69"/>
-        <v>20</v>
+        <v>74.5</v>
       </c>
       <c r="R26" s="30">
         <v>1</v>
@@ -8966,26 +9032,56 @@
       <c r="AF26" s="71">
         <v>8</v>
       </c>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
+      <c r="AG26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="31">
+        <v>2</v>
+      </c>
       <c r="AJ26" s="32"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
+      <c r="AK26" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="31">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="31">
+        <v>2</v>
+      </c>
       <c r="AO26" s="32"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="68"/>
+      <c r="AP26" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ26" s="68">
+        <v>1</v>
+      </c>
       <c r="AR26" s="69"/>
       <c r="AS26" s="69"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="71"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
+      <c r="AT26" s="70">
+        <v>11.5</v>
+      </c>
+      <c r="AU26" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV26" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="31">
+        <v>1</v>
+      </c>
       <c r="AY26" s="32"/>
-      <c r="AZ26" s="33"/>
+      <c r="AZ26" s="33">
+        <v>8</v>
+      </c>
       <c r="BA26" s="30"/>
       <c r="BB26" s="31"/>
       <c r="BC26" s="31"/>
@@ -9102,7 +9198,7 @@
       <c r="FJ26" s="32"/>
       <c r="FK26" s="33"/>
     </row>
-    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>31</v>
       </c>
@@ -9117,7 +9213,7 @@
       </c>
       <c r="E27" s="36">
         <f t="shared" si="57"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" s="36">
         <f t="shared" si="58"/>
@@ -9145,11 +9241,11 @@
       </c>
       <c r="L27" s="37">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M27" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="66"/>
@@ -9157,15 +9253,15 @@
       </c>
       <c r="O27" s="23">
         <f t="shared" si="67"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" si="68"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="34">
         <f t="shared" si="69"/>
-        <v>16</v>
+        <v>56.75</v>
       </c>
       <c r="R27" s="30" t="s">
         <v>459</v>
@@ -9192,26 +9288,50 @@
       <c r="AF27" s="71">
         <v>8</v>
       </c>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="31"/>
+      <c r="AG27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="31">
+        <v>0.25</v>
+      </c>
       <c r="AI27" s="31"/>
       <c r="AJ27" s="32"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="31"/>
+      <c r="AK27" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="31">
+        <v>0.25</v>
+      </c>
       <c r="AN27" s="31"/>
       <c r="AO27" s="32"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="68"/>
+      <c r="AP27" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ27" s="68">
+        <v>1</v>
+      </c>
       <c r="AR27" s="69"/>
       <c r="AS27" s="69"/>
-      <c r="AT27" s="70"/>
-      <c r="AU27" s="71"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="31"/>
+      <c r="AT27" s="70">
+        <v>8</v>
+      </c>
+      <c r="AU27" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV27" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="31">
+        <v>0.25</v>
+      </c>
       <c r="AX27" s="31"/>
       <c r="AY27" s="32"/>
-      <c r="AZ27" s="33"/>
+      <c r="AZ27" s="33">
+        <v>8</v>
+      </c>
       <c r="BA27" s="30"/>
       <c r="BB27" s="31"/>
       <c r="BC27" s="31"/>
@@ -9328,7 +9448,7 @@
       <c r="FJ27" s="32"/>
       <c r="FK27" s="33"/>
     </row>
-    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>32</v>
       </c>
@@ -9566,7 +9686,7 @@
       <c r="FJ28" s="32"/>
       <c r="FK28" s="33"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -9782,7 +9902,7 @@
       <c r="FJ29" s="32"/>
       <c r="FK29" s="33"/>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -9998,7 +10118,7 @@
       <c r="FJ30" s="32"/>
       <c r="FK30" s="33"/>
     </row>
-    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
@@ -10013,7 +10133,7 @@
       </c>
       <c r="E31" s="36">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F31" s="36">
         <f t="shared" si="58"/>
@@ -10041,27 +10161,27 @@
       </c>
       <c r="L31" s="37">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M31" s="23">
         <f t="shared" si="65"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="23">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="68"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="34">
         <f t="shared" si="69"/>
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="R31" s="30">
         <v>1</v>
@@ -10090,26 +10210,52 @@
       <c r="AF31" s="71">
         <v>8</v>
       </c>
-      <c r="AG31" s="30"/>
-      <c r="AH31" s="31"/>
+      <c r="AG31" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="31">
+        <v>1</v>
+      </c>
       <c r="AI31" s="31"/>
       <c r="AJ31" s="32"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="31"/>
+      <c r="AK31" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL31" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="31">
+        <v>1</v>
+      </c>
       <c r="AN31" s="31"/>
       <c r="AO31" s="32"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="68"/>
+      <c r="AP31" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ31" s="68">
+        <v>1</v>
+      </c>
       <c r="AR31" s="69"/>
       <c r="AS31" s="69"/>
-      <c r="AT31" s="70"/>
-      <c r="AU31" s="71"/>
-      <c r="AV31" s="30"/>
-      <c r="AW31" s="31"/>
-      <c r="AX31" s="31"/>
+      <c r="AT31" s="70">
+        <v>10</v>
+      </c>
+      <c r="AU31" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV31" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="31">
+        <v>2</v>
+      </c>
+      <c r="AX31" s="31">
+        <v>1</v>
+      </c>
       <c r="AY31" s="32"/>
-      <c r="AZ31" s="33"/>
+      <c r="AZ31" s="33">
+        <v>8</v>
+      </c>
       <c r="BA31" s="30"/>
       <c r="BB31" s="31"/>
       <c r="BC31" s="31"/>
@@ -10226,7 +10372,7 @@
       <c r="FJ31" s="32"/>
       <c r="FK31" s="33"/>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
@@ -10442,7 +10588,7 @@
       <c r="FJ32" s="32"/>
       <c r="FK32" s="33"/>
     </row>
-    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>37</v>
       </c>
@@ -10672,7 +10818,7 @@
       <c r="FJ33" s="32"/>
       <c r="FK33" s="33"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -10888,7 +11034,7 @@
       <c r="FJ34" s="32"/>
       <c r="FK34" s="33"/>
     </row>
-    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
@@ -11118,7 +11264,7 @@
       <c r="FJ35" s="32"/>
       <c r="FK35" s="33"/>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>40</v>
       </c>
@@ -11334,7 +11480,7 @@
       <c r="FJ36" s="32"/>
       <c r="FK36" s="33"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -11550,7 +11696,7 @@
       <c r="FJ37" s="32"/>
       <c r="FK37" s="33"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -11766,7 +11912,7 @@
       <c r="FJ38" s="32"/>
       <c r="FK38" s="33"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -11982,7 +12128,7 @@
       <c r="FJ39" s="32"/>
       <c r="FK39" s="33"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>44</v>
       </c>
@@ -12222,7 +12368,7 @@
       <c r="FJ40" s="32"/>
       <c r="FK40" s="33"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
@@ -12438,7 +12584,7 @@
       <c r="FJ41" s="32"/>
       <c r="FK41" s="33"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>46</v>
       </c>
@@ -12654,7 +12800,7 @@
       <c r="FJ42" s="32"/>
       <c r="FK42" s="33"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
@@ -12874,26 +13020,26 @@
       <c r="A44" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="110">
         <v>76438151</v>
       </c>
       <c r="E44" s="36">
         <f t="shared" ref="E44:E75" si="70">SUMIF($R$11:$FK$11,"T",R44:FK44)</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F44" s="36">
         <f t="shared" ref="F44:F75" si="71">COUNTIF(R44:FK44,"F")+(COUNT(R44,W44,AB44,AG44,AL44,AQ44,AV44,BA44,BF44,BK44,BP44,BU44,BZ44,CE44,CJ44,CO44,CT44,CY44,DD44,DI44,DN44,DS44,DX44,EC44,EH44,EM44,ER44,EW44,FB44,FG44)-E44)</f>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G44" s="36">
         <f t="shared" ref="G44:G75" si="72">+COUNTIF(R44:FK44,"F")*0.166666666666667</f>
-        <v>0</v>
+        <v>0.33333333333333398</v>
       </c>
       <c r="H44" s="23">
         <f t="shared" ref="H44:H75" si="73">COUNTIF(R44:FK44,"DM")</f>
@@ -12905,7 +13051,7 @@
       </c>
       <c r="J44" s="23">
         <f t="shared" ref="J44:J75" si="75">COUNTIF(R44:FK44,"LSG")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="23">
         <f t="shared" ref="K44:K75" si="76">COUNTIF(R44:FK44,"V")</f>
@@ -12913,7 +13059,7 @@
       </c>
       <c r="L44" s="37">
         <f t="shared" ref="L44:L75" si="77">+E44+F44+H44+I44+J44+K44</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M44" s="23">
         <f t="shared" ref="M44:M75" si="78">SUMIF($R$11:$FK$11,$M$11,R44:FK44)</f>
@@ -12935,37 +13081,51 @@
         <f t="shared" ref="Q44:Q75" si="82">SUM(M44:P44)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="30"/>
+      <c r="R44" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="S44" s="31"/>
       <c r="T44" s="31"/>
       <c r="U44" s="32"/>
       <c r="V44" s="33"/>
-      <c r="W44" s="30"/>
+      <c r="W44" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
       <c r="Z44" s="32"/>
       <c r="AA44" s="33"/>
-      <c r="AB44" s="68"/>
+      <c r="AB44" s="68">
+        <v>1</v>
+      </c>
       <c r="AC44" s="69"/>
       <c r="AD44" s="69"/>
       <c r="AE44" s="70"/>
       <c r="AF44" s="71"/>
-      <c r="AG44" s="30"/>
+      <c r="AG44" s="30">
+        <v>0.3</v>
+      </c>
       <c r="AH44" s="31"/>
       <c r="AI44" s="31"/>
       <c r="AJ44" s="32"/>
       <c r="AK44" s="33"/>
-      <c r="AL44" s="30"/>
+      <c r="AL44" s="30">
+        <v>1</v>
+      </c>
       <c r="AM44" s="31"/>
       <c r="AN44" s="31"/>
       <c r="AO44" s="32"/>
       <c r="AP44" s="33"/>
-      <c r="AQ44" s="68"/>
+      <c r="AQ44" s="68">
+        <v>1</v>
+      </c>
       <c r="AR44" s="69"/>
       <c r="AS44" s="69"/>
       <c r="AT44" s="70"/>
       <c r="AU44" s="71"/>
-      <c r="AV44" s="30"/>
+      <c r="AV44" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="AW44" s="31"/>
       <c r="AX44" s="31"/>
       <c r="AY44" s="32"/>
@@ -13086,7 +13246,7 @@
       <c r="FJ44" s="32"/>
       <c r="FK44" s="33"/>
     </row>
-    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>49</v>
       </c>
@@ -13316,7 +13476,7 @@
       <c r="FJ45" s="32"/>
       <c r="FK45" s="33"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>50</v>
       </c>
@@ -13532,7 +13692,7 @@
       <c r="FJ46" s="32"/>
       <c r="FK46" s="33"/>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
@@ -13748,7 +13908,7 @@
       <c r="FJ47" s="32"/>
       <c r="FK47" s="33"/>
     </row>
-    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>52</v>
       </c>
@@ -13763,15 +13923,15 @@
       </c>
       <c r="E48" s="36">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="36">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H48" s="23">
         <f t="shared" si="73"/>
@@ -13791,7 +13951,7 @@
       </c>
       <c r="L48" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M48" s="23">
         <f t="shared" si="78"/>
@@ -13803,15 +13963,15 @@
       </c>
       <c r="O48" s="23">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" si="81"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q48" s="34">
         <f t="shared" si="82"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="R48" s="30">
         <v>1</v>
@@ -13836,26 +13996,42 @@
       <c r="AF48" s="71">
         <v>8</v>
       </c>
-      <c r="AG48" s="30"/>
+      <c r="AG48" s="30">
+        <v>1</v>
+      </c>
       <c r="AH48" s="31"/>
       <c r="AI48" s="31"/>
       <c r="AJ48" s="32"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="30"/>
+      <c r="AK48" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL48" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="AM48" s="31"/>
       <c r="AN48" s="31"/>
       <c r="AO48" s="32"/>
       <c r="AP48" s="33"/>
-      <c r="AQ48" s="68"/>
+      <c r="AQ48" s="68">
+        <v>1</v>
+      </c>
       <c r="AR48" s="69"/>
       <c r="AS48" s="69"/>
-      <c r="AT48" s="70"/>
-      <c r="AU48" s="71"/>
-      <c r="AV48" s="30"/>
+      <c r="AT48" s="70">
+        <v>8</v>
+      </c>
+      <c r="AU48" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV48" s="30">
+        <v>1</v>
+      </c>
       <c r="AW48" s="31"/>
       <c r="AX48" s="31"/>
       <c r="AY48" s="32"/>
-      <c r="AZ48" s="33"/>
+      <c r="AZ48" s="33">
+        <v>8</v>
+      </c>
       <c r="BA48" s="30"/>
       <c r="BB48" s="31"/>
       <c r="BC48" s="31"/>
@@ -13972,7 +14148,7 @@
       <c r="FJ48" s="32"/>
       <c r="FK48" s="33"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>53</v>
       </c>
@@ -14196,7 +14372,7 @@
       <c r="FJ49" s="32"/>
       <c r="FK49" s="33"/>
     </row>
-    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>54</v>
       </c>
@@ -14426,7 +14602,7 @@
       <c r="FJ50" s="32"/>
       <c r="FK50" s="33"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>55</v>
       </c>
@@ -14642,7 +14818,7 @@
       <c r="FJ51" s="32"/>
       <c r="FK51" s="33"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>56</v>
       </c>
@@ -14866,7 +15042,7 @@
       <c r="FJ52" s="32"/>
       <c r="FK52" s="33"/>
     </row>
-    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>57</v>
       </c>
@@ -15096,7 +15272,7 @@
       <c r="FJ53" s="32"/>
       <c r="FK53" s="33"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -15312,7 +15488,7 @@
       <c r="FJ54" s="32"/>
       <c r="FK54" s="33"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>59</v>
       </c>
@@ -15528,7 +15704,7 @@
       <c r="FJ55" s="32"/>
       <c r="FK55" s="33"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>60</v>
       </c>
@@ -15744,7 +15920,7 @@
       <c r="FJ56" s="32"/>
       <c r="FK56" s="33"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>61</v>
       </c>
@@ -15960,7 +16136,7 @@
       <c r="FJ57" s="32"/>
       <c r="FK57" s="33"/>
     </row>
-    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>62</v>
       </c>
@@ -16190,7 +16366,7 @@
       <c r="FJ58" s="32"/>
       <c r="FK58" s="33"/>
     </row>
-    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>63</v>
       </c>
@@ -16420,7 +16596,7 @@
       <c r="FJ59" s="32"/>
       <c r="FK59" s="33"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
@@ -16636,7 +16812,7 @@
       <c r="FJ60" s="32"/>
       <c r="FK60" s="33"/>
     </row>
-    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>65</v>
       </c>
@@ -16870,7 +17046,7 @@
       <c r="FJ61" s="32"/>
       <c r="FK61" s="33"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
@@ -17086,7 +17262,7 @@
       <c r="FJ62" s="32"/>
       <c r="FK62" s="33"/>
     </row>
-    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>67</v>
       </c>
@@ -17101,15 +17277,15 @@
       </c>
       <c r="E63" s="36">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63" s="36">
         <f t="shared" si="71"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="36">
         <f t="shared" si="72"/>
-        <v>0.16666666666666699</v>
+        <v>0.33333333333333398</v>
       </c>
       <c r="H63" s="23">
         <f t="shared" si="73"/>
@@ -17129,15 +17305,15 @@
       </c>
       <c r="L63" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M63" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" s="23">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O63" s="23">
         <f t="shared" si="80"/>
@@ -17145,11 +17321,11 @@
       </c>
       <c r="P63" s="23">
         <f t="shared" si="81"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="34">
         <f t="shared" si="82"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="R63" s="30">
         <v>1</v>
@@ -17174,26 +17350,44 @@
       <c r="AF63" s="71">
         <v>8</v>
       </c>
-      <c r="AG63" s="30"/>
+      <c r="AG63" s="30">
+        <v>1</v>
+      </c>
       <c r="AH63" s="31"/>
       <c r="AI63" s="31"/>
       <c r="AJ63" s="32"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="30"/>
-      <c r="AM63" s="31"/>
-      <c r="AN63" s="31"/>
+      <c r="AK63" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL63" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="31">
+        <v>2</v>
+      </c>
+      <c r="AN63" s="31">
+        <v>4</v>
+      </c>
       <c r="AO63" s="32"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="68"/>
+      <c r="AP63" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ63" s="68" t="s">
+        <v>458</v>
+      </c>
       <c r="AR63" s="69"/>
       <c r="AS63" s="69"/>
       <c r="AT63" s="70"/>
       <c r="AU63" s="71"/>
-      <c r="AV63" s="30"/>
+      <c r="AV63" s="30">
+        <v>1</v>
+      </c>
       <c r="AW63" s="31"/>
       <c r="AX63" s="31"/>
       <c r="AY63" s="32"/>
-      <c r="AZ63" s="33"/>
+      <c r="AZ63" s="33">
+        <v>8</v>
+      </c>
       <c r="BA63" s="30"/>
       <c r="BB63" s="31"/>
       <c r="BC63" s="31"/>
@@ -17310,7 +17504,7 @@
       <c r="FJ63" s="32"/>
       <c r="FK63" s="33"/>
     </row>
-    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>68</v>
       </c>
@@ -17758,7 +17952,7 @@
       <c r="FJ65" s="32"/>
       <c r="FK65" s="33"/>
     </row>
-    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>70</v>
       </c>
@@ -17988,7 +18182,7 @@
       <c r="FJ66" s="32"/>
       <c r="FK66" s="33"/>
     </row>
-    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>71</v>
       </c>
@@ -18003,7 +18197,7 @@
       </c>
       <c r="E67" s="36">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F67" s="36">
         <f t="shared" si="71"/>
@@ -18031,27 +18225,27 @@
       </c>
       <c r="L67" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M67" s="23">
         <f t="shared" si="78"/>
-        <v>2.25</v>
+        <v>6.25</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O67" s="23">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" si="81"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q67" s="34">
         <f t="shared" si="82"/>
-        <v>19.25</v>
+        <v>65.75</v>
       </c>
       <c r="R67" s="30">
         <v>1</v>
@@ -18084,26 +18278,50 @@
       <c r="AF67" s="71">
         <v>8</v>
       </c>
-      <c r="AG67" s="30"/>
-      <c r="AH67" s="31"/>
+      <c r="AG67" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="31">
+        <v>2</v>
+      </c>
       <c r="AI67" s="31"/>
       <c r="AJ67" s="32"/>
-      <c r="AK67" s="33"/>
-      <c r="AL67" s="30"/>
-      <c r="AM67" s="31"/>
-      <c r="AN67" s="31"/>
+      <c r="AK67" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL67" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM67" s="31">
+        <v>2</v>
+      </c>
+      <c r="AN67" s="31">
+        <v>0.5</v>
+      </c>
       <c r="AO67" s="32"/>
-      <c r="AP67" s="33"/>
-      <c r="AQ67" s="68"/>
+      <c r="AP67" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ67" s="68">
+        <v>1</v>
+      </c>
       <c r="AR67" s="69"/>
       <c r="AS67" s="69"/>
-      <c r="AT67" s="70"/>
-      <c r="AU67" s="71"/>
-      <c r="AV67" s="30"/>
+      <c r="AT67" s="70">
+        <v>10</v>
+      </c>
+      <c r="AU67" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV67" s="30">
+        <v>1</v>
+      </c>
       <c r="AW67" s="31"/>
       <c r="AX67" s="31"/>
       <c r="AY67" s="32"/>
-      <c r="AZ67" s="33"/>
+      <c r="AZ67" s="33">
+        <v>8</v>
+      </c>
       <c r="BA67" s="30"/>
       <c r="BB67" s="31"/>
       <c r="BC67" s="31"/>
@@ -18220,7 +18438,7 @@
       <c r="FJ67" s="32"/>
       <c r="FK67" s="33"/>
     </row>
-    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>72</v>
       </c>
@@ -18442,7 +18660,7 @@
       <c r="FJ68" s="32"/>
       <c r="FK68" s="33"/>
     </row>
-    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>73</v>
       </c>
@@ -18672,7 +18890,7 @@
       <c r="FJ69" s="32"/>
       <c r="FK69" s="33"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>74</v>
       </c>
@@ -18888,7 +19106,7 @@
       <c r="FJ70" s="32"/>
       <c r="FK70" s="33"/>
     </row>
-    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>75</v>
       </c>
@@ -19120,7 +19338,7 @@
       <c r="FJ71" s="32"/>
       <c r="FK71" s="33"/>
     </row>
-    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>76</v>
       </c>
@@ -19135,7 +19353,7 @@
       </c>
       <c r="E72" s="36">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F72" s="36">
         <f t="shared" si="71"/>
@@ -19155,7 +19373,7 @@
       </c>
       <c r="J72" s="23">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="23">
         <f t="shared" si="76"/>
@@ -19163,7 +19381,7 @@
       </c>
       <c r="L72" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M72" s="23">
         <f t="shared" si="78"/>
@@ -19175,15 +19393,15 @@
       </c>
       <c r="O72" s="23">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P72" s="23">
         <f t="shared" si="81"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q72" s="34">
         <f t="shared" si="82"/>
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="R72" s="30">
         <v>1</v>
@@ -19214,26 +19432,42 @@
       <c r="AF72" s="71">
         <v>8</v>
       </c>
-      <c r="AG72" s="30"/>
+      <c r="AG72" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="AH72" s="31"/>
       <c r="AI72" s="31"/>
       <c r="AJ72" s="32"/>
       <c r="AK72" s="33"/>
-      <c r="AL72" s="30"/>
+      <c r="AL72" s="30">
+        <v>1</v>
+      </c>
       <c r="AM72" s="31"/>
       <c r="AN72" s="31"/>
       <c r="AO72" s="32"/>
-      <c r="AP72" s="33"/>
-      <c r="AQ72" s="68"/>
+      <c r="AP72" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ72" s="68">
+        <v>1</v>
+      </c>
       <c r="AR72" s="69"/>
       <c r="AS72" s="69"/>
-      <c r="AT72" s="70"/>
-      <c r="AU72" s="71"/>
-      <c r="AV72" s="30"/>
+      <c r="AT72" s="70">
+        <v>8</v>
+      </c>
+      <c r="AU72" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV72" s="30">
+        <v>1</v>
+      </c>
       <c r="AW72" s="31"/>
       <c r="AX72" s="31"/>
       <c r="AY72" s="32"/>
-      <c r="AZ72" s="33"/>
+      <c r="AZ72" s="33">
+        <v>8</v>
+      </c>
       <c r="BA72" s="30"/>
       <c r="BB72" s="31"/>
       <c r="BC72" s="31"/>
@@ -19350,7 +19584,7 @@
       <c r="FJ72" s="32"/>
       <c r="FK72" s="33"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>77</v>
       </c>
@@ -19566,7 +19800,7 @@
       <c r="FJ73" s="32"/>
       <c r="FK73" s="33"/>
     </row>
-    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>78</v>
       </c>
@@ -19581,11 +19815,11 @@
       </c>
       <c r="E74" s="36">
         <f t="shared" si="70"/>
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="F74" s="36">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G74" s="36">
         <f t="shared" si="72"/>
@@ -19601,7 +19835,7 @@
       </c>
       <c r="J74" s="23">
         <f t="shared" si="75"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="23">
         <f t="shared" si="76"/>
@@ -19609,11 +19843,11 @@
       </c>
       <c r="L74" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M74" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" s="23">
         <f t="shared" si="79"/>
@@ -19621,15 +19855,15 @@
       </c>
       <c r="O74" s="23">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" s="23">
         <f t="shared" si="81"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="34">
         <f t="shared" si="82"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="R74" s="30" t="s">
         <v>459</v>
@@ -19654,26 +19888,42 @@
       <c r="AF74" s="71">
         <v>8</v>
       </c>
-      <c r="AG74" s="30"/>
+      <c r="AG74" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="AH74" s="31"/>
       <c r="AI74" s="31"/>
       <c r="AJ74" s="32"/>
       <c r="AK74" s="33"/>
-      <c r="AL74" s="30"/>
+      <c r="AL74" s="30">
+        <v>1</v>
+      </c>
       <c r="AM74" s="31"/>
       <c r="AN74" s="31"/>
       <c r="AO74" s="32"/>
-      <c r="AP74" s="33"/>
-      <c r="AQ74" s="68"/>
+      <c r="AP74" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ74" s="68">
+        <v>0.25</v>
+      </c>
       <c r="AR74" s="69"/>
       <c r="AS74" s="69"/>
-      <c r="AT74" s="70"/>
+      <c r="AT74" s="70">
+        <v>2</v>
+      </c>
       <c r="AU74" s="71"/>
-      <c r="AV74" s="30"/>
-      <c r="AW74" s="31"/>
+      <c r="AV74" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW74" s="31">
+        <v>1</v>
+      </c>
       <c r="AX74" s="31"/>
       <c r="AY74" s="32"/>
-      <c r="AZ74" s="33"/>
+      <c r="AZ74" s="33">
+        <v>8</v>
+      </c>
       <c r="BA74" s="30"/>
       <c r="BB74" s="31"/>
       <c r="BC74" s="31"/>
@@ -19790,7 +20040,7 @@
       <c r="FJ74" s="32"/>
       <c r="FK74" s="33"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>79</v>
       </c>
@@ -20006,7 +20256,7 @@
       <c r="FJ75" s="32"/>
       <c r="FK75" s="33"/>
     </row>
-    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>80</v>
       </c>
@@ -20021,7 +20271,7 @@
       </c>
       <c r="E76" s="36">
         <f t="shared" ref="E76:E107" si="83">SUMIF($R$11:$FK$11,"T",R76:FK76)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F76" s="36">
         <f t="shared" ref="F76:F107" si="84">COUNTIF(R76:FK76,"F")+(COUNT(R76,W76,AB76,AG76,AL76,AQ76,AV76,BA76,BF76,BK76,BP76,BU76,BZ76,CE76,CJ76,CO76,CT76,CY76,DD76,DI76,DN76,DS76,DX76,EC76,EH76,EM76,ER76,EW76,FB76,FG76)-E76)</f>
@@ -20049,27 +20299,27 @@
       </c>
       <c r="L76" s="37">
         <f t="shared" ref="L76:L107" si="90">+E76+F76+H76+I76+J76+K76</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M76" s="23">
         <f t="shared" ref="M76:M107" si="91">SUMIF($R$11:$FK$11,$M$11,R76:FK76)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N76" s="23">
         <f t="shared" ref="N76:N107" si="92">SUMIF($R$11:$FK$11,$N$11,R76:FK76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" s="23">
         <f t="shared" ref="O76:O107" si="93">SUMIF($R$11:$FK$11,$O$11,R76:FK76)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P76" s="23">
         <f t="shared" ref="P76:P107" si="94">SUMIF($R$11:$FK$11,$P$11,R76:FK76)</f>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q76" s="34">
         <f t="shared" ref="Q76:Q107" si="95">SUM(M76:P76)</f>
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="R76" s="30">
         <v>1</v>
@@ -20100,26 +20350,52 @@
       <c r="AF76" s="71">
         <v>8</v>
       </c>
-      <c r="AG76" s="30"/>
-      <c r="AH76" s="31"/>
-      <c r="AI76" s="31"/>
+      <c r="AG76" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI76" s="31">
+        <v>1</v>
+      </c>
       <c r="AJ76" s="32"/>
-      <c r="AK76" s="33"/>
-      <c r="AL76" s="30"/>
-      <c r="AM76" s="31"/>
+      <c r="AK76" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL76" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM76" s="31">
+        <v>1</v>
+      </c>
       <c r="AN76" s="31"/>
       <c r="AO76" s="32"/>
-      <c r="AP76" s="33"/>
-      <c r="AQ76" s="68"/>
+      <c r="AP76" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ76" s="68">
+        <v>1</v>
+      </c>
       <c r="AR76" s="69"/>
       <c r="AS76" s="69"/>
-      <c r="AT76" s="70"/>
-      <c r="AU76" s="71"/>
-      <c r="AV76" s="30"/>
-      <c r="AW76" s="31"/>
+      <c r="AT76" s="70">
+        <v>10</v>
+      </c>
+      <c r="AU76" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV76" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW76" s="31">
+        <v>2</v>
+      </c>
       <c r="AX76" s="31"/>
       <c r="AY76" s="32"/>
-      <c r="AZ76" s="33"/>
+      <c r="AZ76" s="33">
+        <v>8</v>
+      </c>
       <c r="BA76" s="30"/>
       <c r="BB76" s="31"/>
       <c r="BC76" s="31"/>
@@ -20236,7 +20512,7 @@
       <c r="FJ76" s="32"/>
       <c r="FK76" s="33"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>81</v>
       </c>
@@ -20452,7 +20728,7 @@
       <c r="FJ77" s="32"/>
       <c r="FK77" s="33"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>82</v>
       </c>
@@ -20668,7 +20944,7 @@
       <c r="FJ78" s="32"/>
       <c r="FK78" s="33"/>
     </row>
-    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>83</v>
       </c>
@@ -20683,7 +20959,7 @@
       </c>
       <c r="E79" s="36">
         <f t="shared" si="83"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F79" s="36">
         <f t="shared" si="84"/>
@@ -20711,27 +20987,27 @@
       </c>
       <c r="L79" s="37">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M79" s="23">
         <f t="shared" si="91"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N79" s="23">
         <f t="shared" si="92"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O79" s="23">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P79" s="23">
         <f t="shared" si="94"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q79" s="34">
         <f t="shared" si="95"/>
-        <v>20.5</v>
+        <v>68.5</v>
       </c>
       <c r="R79" s="30">
         <v>1</v>
@@ -20764,26 +21040,54 @@
       <c r="AF79" s="71">
         <v>8</v>
       </c>
-      <c r="AG79" s="30"/>
-      <c r="AH79" s="31"/>
-      <c r="AI79" s="31"/>
+      <c r="AG79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH79" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI79" s="31">
+        <v>1</v>
+      </c>
       <c r="AJ79" s="32"/>
-      <c r="AK79" s="33"/>
-      <c r="AL79" s="30"/>
-      <c r="AM79" s="31"/>
-      <c r="AN79" s="31"/>
+      <c r="AK79" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM79" s="31">
+        <v>2</v>
+      </c>
+      <c r="AN79" s="31">
+        <v>1</v>
+      </c>
       <c r="AO79" s="32"/>
-      <c r="AP79" s="33"/>
-      <c r="AQ79" s="68"/>
+      <c r="AP79" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ79" s="68">
+        <v>1</v>
+      </c>
       <c r="AR79" s="69"/>
       <c r="AS79" s="69"/>
-      <c r="AT79" s="70"/>
-      <c r="AU79" s="71"/>
-      <c r="AV79" s="30"/>
-      <c r="AW79" s="31"/>
+      <c r="AT79" s="70">
+        <v>9</v>
+      </c>
+      <c r="AU79" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV79" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW79" s="31">
+        <v>1</v>
+      </c>
       <c r="AX79" s="31"/>
       <c r="AY79" s="32"/>
-      <c r="AZ79" s="33"/>
+      <c r="AZ79" s="33">
+        <v>8</v>
+      </c>
       <c r="BA79" s="30"/>
       <c r="BB79" s="31"/>
       <c r="BC79" s="31"/>
@@ -20900,7 +21204,7 @@
       <c r="FJ79" s="32"/>
       <c r="FK79" s="33"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>84</v>
       </c>
@@ -21116,7 +21420,7 @@
       <c r="FJ80" s="32"/>
       <c r="FK80" s="33"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>85</v>
       </c>
@@ -21332,7 +21636,7 @@
       <c r="FJ81" s="32"/>
       <c r="FK81" s="33"/>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>91</v>
       </c>
@@ -21548,7 +21852,7 @@
       <c r="FJ82" s="32"/>
       <c r="FK82" s="33"/>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>92</v>
       </c>
@@ -21764,7 +22068,7 @@
       <c r="FJ83" s="32"/>
       <c r="FK83" s="33"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>93</v>
       </c>
@@ -21980,7 +22284,7 @@
       <c r="FJ84" s="32"/>
       <c r="FK84" s="33"/>
     </row>
-    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>94</v>
       </c>
@@ -22212,7 +22516,7 @@
       <c r="FJ85" s="32"/>
       <c r="FK85" s="33"/>
     </row>
-    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>95</v>
       </c>
@@ -22434,7 +22738,7 @@
       <c r="FJ86" s="32"/>
       <c r="FK86" s="33"/>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
@@ -22658,7 +22962,7 @@
       <c r="FJ87" s="32"/>
       <c r="FK87" s="33"/>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>97</v>
       </c>
@@ -22874,7 +23178,7 @@
       <c r="FJ88" s="32"/>
       <c r="FK88" s="33"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>98</v>
       </c>
@@ -23090,7 +23394,7 @@
       <c r="FJ89" s="32"/>
       <c r="FK89" s="33"/>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
@@ -23306,7 +23610,7 @@
       <c r="FJ90" s="32"/>
       <c r="FK90" s="33"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>100</v>
       </c>
@@ -23522,7 +23826,7 @@
       <c r="FJ91" s="32"/>
       <c r="FK91" s="33"/>
     </row>
-    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>101</v>
       </c>
@@ -23537,15 +23841,15 @@
       </c>
       <c r="E92" s="36">
         <f t="shared" si="83"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F92" s="36">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="36">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H92" s="23">
         <f t="shared" si="86"/>
@@ -23565,15 +23869,15 @@
       </c>
       <c r="L92" s="37">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M92" s="23">
         <f t="shared" si="91"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N92" s="23">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O92" s="23">
         <f t="shared" si="93"/>
@@ -23581,11 +23885,11 @@
       </c>
       <c r="P92" s="23">
         <f t="shared" si="94"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="Q92" s="34">
         <f t="shared" si="95"/>
-        <v>18</v>
+        <v>46.5</v>
       </c>
       <c r="R92" s="30">
         <v>1</v>
@@ -23616,26 +23920,48 @@
       <c r="AF92" s="71">
         <v>8</v>
       </c>
-      <c r="AG92" s="30"/>
-      <c r="AH92" s="31"/>
-      <c r="AI92" s="31"/>
+      <c r="AG92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI92" s="31">
+        <v>0.5</v>
+      </c>
       <c r="AJ92" s="32"/>
-      <c r="AK92" s="33"/>
-      <c r="AL92" s="30"/>
-      <c r="AM92" s="31"/>
+      <c r="AK92" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM92" s="31">
+        <v>1</v>
+      </c>
       <c r="AN92" s="31"/>
       <c r="AO92" s="32"/>
-      <c r="AP92" s="33"/>
-      <c r="AQ92" s="68"/>
+      <c r="AP92" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ92" s="68" t="s">
+        <v>458</v>
+      </c>
       <c r="AR92" s="69"/>
       <c r="AS92" s="69"/>
       <c r="AT92" s="70"/>
       <c r="AU92" s="71"/>
-      <c r="AV92" s="30"/>
-      <c r="AW92" s="31"/>
+      <c r="AV92" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW92" s="31">
+        <v>1</v>
+      </c>
       <c r="AX92" s="31"/>
       <c r="AY92" s="32"/>
-      <c r="AZ92" s="33"/>
+      <c r="AZ92" s="33">
+        <v>8</v>
+      </c>
       <c r="BA92" s="30"/>
       <c r="BB92" s="31"/>
       <c r="BC92" s="31"/>
@@ -23752,7 +24078,7 @@
       <c r="FJ92" s="32"/>
       <c r="FK92" s="33"/>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>102</v>
       </c>
@@ -23968,7 +24294,7 @@
       <c r="FJ93" s="32"/>
       <c r="FK93" s="33"/>
     </row>
-    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>103</v>
       </c>
@@ -23983,7 +24309,7 @@
       </c>
       <c r="E94" s="36">
         <f t="shared" si="83"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F94" s="36">
         <f t="shared" si="84"/>
@@ -24003,7 +24329,7 @@
       </c>
       <c r="J94" s="23">
         <f t="shared" si="88"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" s="23">
         <f t="shared" si="89"/>
@@ -24011,11 +24337,11 @@
       </c>
       <c r="L94" s="37">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M94" s="23">
         <f t="shared" si="91"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N94" s="23">
         <f t="shared" si="92"/>
@@ -24023,15 +24349,15 @@
       </c>
       <c r="O94" s="23">
         <f t="shared" si="93"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P94" s="23">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q94" s="34">
         <f t="shared" si="95"/>
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="R94" s="30" t="s">
         <v>459</v>
@@ -24060,26 +24386,46 @@
       <c r="AF94" s="71">
         <v>8</v>
       </c>
-      <c r="AG94" s="30"/>
+      <c r="AG94" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="AH94" s="31"/>
       <c r="AI94" s="31"/>
       <c r="AJ94" s="32"/>
       <c r="AK94" s="33"/>
-      <c r="AL94" s="30"/>
-      <c r="AM94" s="31"/>
+      <c r="AL94" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM94" s="31">
+        <v>2</v>
+      </c>
       <c r="AN94" s="31"/>
       <c r="AO94" s="32"/>
-      <c r="AP94" s="33"/>
-      <c r="AQ94" s="68"/>
+      <c r="AP94" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ94" s="68">
+        <v>1</v>
+      </c>
       <c r="AR94" s="69"/>
       <c r="AS94" s="69"/>
-      <c r="AT94" s="70"/>
-      <c r="AU94" s="71"/>
-      <c r="AV94" s="30"/>
-      <c r="AW94" s="31"/>
+      <c r="AT94" s="70">
+        <v>8</v>
+      </c>
+      <c r="AU94" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV94" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW94" s="31">
+        <v>1</v>
+      </c>
       <c r="AX94" s="31"/>
       <c r="AY94" s="32"/>
-      <c r="AZ94" s="33"/>
+      <c r="AZ94" s="33">
+        <v>8</v>
+      </c>
       <c r="BA94" s="30"/>
       <c r="BB94" s="31"/>
       <c r="BC94" s="31"/>
@@ -24196,7 +24542,7 @@
       <c r="FJ94" s="32"/>
       <c r="FK94" s="33"/>
     </row>
-    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>104</v>
       </c>
@@ -24426,7 +24772,7 @@
       <c r="FJ95" s="32"/>
       <c r="FK95" s="33"/>
     </row>
-    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>105</v>
       </c>
@@ -24660,7 +25006,7 @@
       <c r="FJ96" s="32"/>
       <c r="FK96" s="33"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>106</v>
       </c>
@@ -24876,7 +25222,7 @@
       <c r="FJ97" s="32"/>
       <c r="FK97" s="33"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>107</v>
       </c>
@@ -25092,7 +25438,7 @@
       <c r="FJ98" s="32"/>
       <c r="FK98" s="33"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>108</v>
       </c>
@@ -25308,7 +25654,7 @@
       <c r="FJ99" s="32"/>
       <c r="FK99" s="33"/>
     </row>
-    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>109</v>
       </c>
@@ -25758,7 +26104,7 @@
       <c r="FJ101" s="32"/>
       <c r="FK101" s="33"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -25982,7 +26328,7 @@
       <c r="FJ102" s="32"/>
       <c r="FK102" s="33"/>
     </row>
-    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>112</v>
       </c>
@@ -26206,7 +26552,7 @@
       <c r="FJ103" s="32"/>
       <c r="FK103" s="33"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>113</v>
       </c>
@@ -26422,7 +26768,7 @@
       <c r="FJ104" s="32"/>
       <c r="FK104" s="33"/>
     </row>
-    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>114</v>
       </c>
@@ -26652,7 +26998,7 @@
       <c r="FJ105" s="32"/>
       <c r="FK105" s="33"/>
     </row>
-    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>115</v>
       </c>
@@ -26667,15 +27013,15 @@
       </c>
       <c r="E106" s="36">
         <f t="shared" si="83"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F106" s="36">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="36">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H106" s="23">
         <f t="shared" si="86"/>
@@ -26695,7 +27041,7 @@
       </c>
       <c r="L106" s="37">
         <f t="shared" si="90"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M106" s="23">
         <f t="shared" si="91"/>
@@ -26711,11 +27057,11 @@
       </c>
       <c r="P106" s="23">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q106" s="34">
         <f t="shared" si="95"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="R106" s="30">
         <v>1</v>
@@ -26740,26 +27086,40 @@
       <c r="AF106" s="71">
         <v>8</v>
       </c>
-      <c r="AG106" s="30"/>
+      <c r="AG106" s="30">
+        <v>1</v>
+      </c>
       <c r="AH106" s="31"/>
       <c r="AI106" s="31"/>
       <c r="AJ106" s="32"/>
-      <c r="AK106" s="33"/>
-      <c r="AL106" s="30"/>
+      <c r="AK106" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL106" s="30">
+        <v>1</v>
+      </c>
       <c r="AM106" s="31"/>
       <c r="AN106" s="31"/>
       <c r="AO106" s="32"/>
-      <c r="AP106" s="33"/>
-      <c r="AQ106" s="68"/>
+      <c r="AP106" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ106" s="68" t="s">
+        <v>458</v>
+      </c>
       <c r="AR106" s="69"/>
       <c r="AS106" s="69"/>
       <c r="AT106" s="70"/>
       <c r="AU106" s="71"/>
-      <c r="AV106" s="30"/>
+      <c r="AV106" s="30">
+        <v>1</v>
+      </c>
       <c r="AW106" s="31"/>
       <c r="AX106" s="31"/>
       <c r="AY106" s="32"/>
-      <c r="AZ106" s="33"/>
+      <c r="AZ106" s="33">
+        <v>8</v>
+      </c>
       <c r="BA106" s="30"/>
       <c r="BB106" s="31"/>
       <c r="BC106" s="31"/>
@@ -26876,7 +27236,7 @@
       <c r="FJ106" s="32"/>
       <c r="FK106" s="33"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>116</v>
       </c>
@@ -27092,7 +27452,7 @@
       <c r="FJ107" s="32"/>
       <c r="FK107" s="33"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
@@ -27308,7 +27668,7 @@
       <c r="FJ108" s="32"/>
       <c r="FK108" s="33"/>
     </row>
-    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>118</v>
       </c>
@@ -27530,7 +27890,7 @@
       <c r="FJ109" s="32"/>
       <c r="FK109" s="33"/>
     </row>
-    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>119</v>
       </c>
@@ -27760,7 +28120,7 @@
       <c r="FJ110" s="32"/>
       <c r="FK110" s="33"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>120</v>
       </c>
@@ -27976,7 +28336,7 @@
       <c r="FJ111" s="32"/>
       <c r="FK111" s="33"/>
     </row>
-    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>121</v>
       </c>
@@ -28198,7 +28558,7 @@
       <c r="FJ112" s="32"/>
       <c r="FK112" s="33"/>
     </row>
-    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>122</v>
       </c>
@@ -28428,7 +28788,7 @@
       <c r="FJ113" s="32"/>
       <c r="FK113" s="33"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>123</v>
       </c>
@@ -28443,15 +28803,15 @@
       </c>
       <c r="E114" s="36">
         <f t="shared" si="96"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F114" s="36">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G114" s="36">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="H114" s="23">
         <f t="shared" si="99"/>
@@ -28471,7 +28831,7 @@
       </c>
       <c r="L114" s="37">
         <f t="shared" si="103"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M114" s="23">
         <f t="shared" si="104"/>
@@ -28487,11 +28847,11 @@
       </c>
       <c r="P114" s="23">
         <f t="shared" si="107"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q114" s="34">
         <f t="shared" si="108"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="R114" s="30"/>
       <c r="S114" s="31"/>
@@ -28514,22 +28874,32 @@
       <c r="AF114" s="71">
         <v>8</v>
       </c>
-      <c r="AG114" s="30"/>
+      <c r="AG114" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="AH114" s="31"/>
       <c r="AI114" s="31"/>
       <c r="AJ114" s="32"/>
       <c r="AK114" s="33"/>
-      <c r="AL114" s="30"/>
+      <c r="AL114" s="30">
+        <v>1</v>
+      </c>
       <c r="AM114" s="31"/>
       <c r="AN114" s="31"/>
       <c r="AO114" s="32"/>
-      <c r="AP114" s="33"/>
-      <c r="AQ114" s="68"/>
+      <c r="AP114" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ114" s="68" t="s">
+        <v>458</v>
+      </c>
       <c r="AR114" s="69"/>
       <c r="AS114" s="69"/>
       <c r="AT114" s="70"/>
       <c r="AU114" s="71"/>
-      <c r="AV114" s="30"/>
+      <c r="AV114" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="AW114" s="31"/>
       <c r="AX114" s="31"/>
       <c r="AY114" s="32"/>
@@ -28650,7 +29020,7 @@
       <c r="FJ114" s="32"/>
       <c r="FK114" s="33"/>
     </row>
-    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>124</v>
       </c>
@@ -28874,7 +29244,7 @@
       <c r="FJ115" s="32"/>
       <c r="FK115" s="33"/>
     </row>
-    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>125</v>
       </c>
@@ -29104,7 +29474,7 @@
       <c r="FJ116" s="32"/>
       <c r="FK116" s="33"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>126</v>
       </c>
@@ -29320,7 +29690,7 @@
       <c r="FJ117" s="32"/>
       <c r="FK117" s="33"/>
     </row>
-    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>127</v>
       </c>
@@ -29335,7 +29705,7 @@
       </c>
       <c r="E118" s="36">
         <f t="shared" si="96"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" si="97"/>
@@ -29363,27 +29733,27 @@
       </c>
       <c r="L118" s="37">
         <f t="shared" si="103"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M118" s="23">
         <f t="shared" si="104"/>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="N118" s="23">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O118" s="23">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P118" s="23">
         <f t="shared" si="107"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="Q118" s="34">
         <f t="shared" si="108"/>
-        <v>17.5</v>
+        <v>67.5</v>
       </c>
       <c r="R118" s="30">
         <v>1</v>
@@ -29414,26 +29784,54 @@
       <c r="AF118" s="71">
         <v>8</v>
       </c>
-      <c r="AG118" s="30"/>
-      <c r="AH118" s="31"/>
-      <c r="AI118" s="31"/>
+      <c r="AG118" s="30">
+        <v>1</v>
+      </c>
+      <c r="AH118" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI118" s="31">
+        <v>1</v>
+      </c>
       <c r="AJ118" s="32"/>
-      <c r="AK118" s="33"/>
-      <c r="AL118" s="30"/>
-      <c r="AM118" s="31"/>
-      <c r="AN118" s="31"/>
+      <c r="AK118" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL118" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM118" s="31">
+        <v>2</v>
+      </c>
+      <c r="AN118" s="31">
+        <v>1</v>
+      </c>
       <c r="AO118" s="32"/>
-      <c r="AP118" s="33"/>
-      <c r="AQ118" s="68"/>
+      <c r="AP118" s="33">
+        <v>8</v>
+      </c>
+      <c r="AQ118" s="68">
+        <v>1</v>
+      </c>
       <c r="AR118" s="69"/>
       <c r="AS118" s="69"/>
-      <c r="AT118" s="70"/>
-      <c r="AU118" s="71"/>
-      <c r="AV118" s="30"/>
-      <c r="AW118" s="31"/>
+      <c r="AT118" s="70">
+        <v>11</v>
+      </c>
+      <c r="AU118" s="71">
+        <v>8</v>
+      </c>
+      <c r="AV118" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW118" s="31">
+        <v>1</v>
+      </c>
       <c r="AX118" s="31"/>
       <c r="AY118" s="32"/>
-      <c r="AZ118" s="33"/>
+      <c r="AZ118" s="33">
+        <v>8</v>
+      </c>
       <c r="BA118" s="30"/>
       <c r="BB118" s="31"/>
       <c r="BC118" s="31"/>
@@ -29550,7 +29948,7 @@
       <c r="FJ118" s="32"/>
       <c r="FK118" s="33"/>
     </row>
-    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>128</v>
       </c>
@@ -29782,7 +30180,7 @@
       <c r="FJ119" s="32"/>
       <c r="FK119" s="33"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>129</v>
       </c>
@@ -29998,7 +30396,7 @@
       <c r="FJ120" s="32"/>
       <c r="FK120" s="33"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>130</v>
       </c>
@@ -30208,7 +30606,7 @@
       <c r="FJ121" s="32"/>
       <c r="FK121" s="33"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -30418,7 +30816,7 @@
       <c r="FJ122" s="32"/>
       <c r="FK122" s="33"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>132</v>
       </c>
@@ -30628,7 +31026,7 @@
       <c r="FJ123" s="32"/>
       <c r="FK123" s="33"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>133</v>
       </c>
@@ -30838,7 +31236,7 @@
       <c r="FJ124" s="32"/>
       <c r="FK124" s="33"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>134</v>
       </c>
@@ -31048,7 +31446,7 @@
       <c r="FJ125" s="32"/>
       <c r="FK125" s="33"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>135</v>
       </c>
@@ -31258,7 +31656,7 @@
       <c r="FJ126" s="32"/>
       <c r="FK126" s="33"/>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>136</v>
       </c>
@@ -31468,7 +31866,7 @@
       <c r="FJ127" s="32"/>
       <c r="FK127" s="33"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>137</v>
       </c>
@@ -31678,7 +32076,7 @@
       <c r="FJ128" s="32"/>
       <c r="FK128" s="33"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>138</v>
       </c>
@@ -31888,7 +32286,7 @@
       <c r="FJ129" s="32"/>
       <c r="FK129" s="33"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -32098,7 +32496,7 @@
       <c r="FJ130" s="32"/>
       <c r="FK130" s="33"/>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
@@ -32308,7 +32706,7 @@
       <c r="FJ131" s="32"/>
       <c r="FK131" s="33"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -32518,7 +32916,7 @@
       <c r="FJ132" s="32"/>
       <c r="FK132" s="33"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -32728,7 +33126,7 @@
       <c r="FJ133" s="32"/>
       <c r="FK133" s="33"/>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -32938,7 +33336,7 @@
       <c r="FJ134" s="32"/>
       <c r="FK134" s="33"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -33148,7 +33546,7 @@
       <c r="FJ135" s="32"/>
       <c r="FK135" s="33"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -33358,7 +33756,7 @@
       <c r="FJ136" s="32"/>
       <c r="FK136" s="33"/>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -33568,7 +33966,7 @@
       <c r="FJ137" s="32"/>
       <c r="FK137" s="33"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -33778,7 +34176,7 @@
       <c r="FJ138" s="32"/>
       <c r="FK138" s="33"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -33988,7 +34386,7 @@
       <c r="FJ139" s="32"/>
       <c r="FK139" s="33"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -34198,7 +34596,7 @@
       <c r="FJ140" s="32"/>
       <c r="FK140" s="33"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -34408,7 +34806,7 @@
       <c r="FJ141" s="32"/>
       <c r="FK141" s="33"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -34618,7 +35016,7 @@
       <c r="FJ142" s="32"/>
       <c r="FK142" s="33"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -34828,7 +35226,7 @@
       <c r="FJ143" s="32"/>
       <c r="FK143" s="33"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -35038,7 +35436,7 @@
       <c r="FJ144" s="32"/>
       <c r="FK144" s="33"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -35248,7 +35646,7 @@
       <c r="FJ145" s="32"/>
       <c r="FK145" s="33"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -35458,7 +35856,7 @@
       <c r="FJ146" s="32"/>
       <c r="FK146" s="33"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -35668,7 +36066,7 @@
       <c r="FJ147" s="32"/>
       <c r="FK147" s="33"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -35878,7 +36276,7 @@
       <c r="FJ148" s="32"/>
       <c r="FK148" s="33"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -36088,7 +36486,7 @@
       <c r="FJ149" s="32"/>
       <c r="FK149" s="33"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -36298,7 +36696,7 @@
       <c r="FJ150" s="32"/>
       <c r="FK150" s="33"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -36508,7 +36906,7 @@
       <c r="FJ151" s="32"/>
       <c r="FK151" s="33"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -36718,7 +37116,7 @@
       <c r="FJ152" s="32"/>
       <c r="FK152" s="33"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -36928,7 +37326,7 @@
       <c r="FJ153" s="32"/>
       <c r="FK153" s="33"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -37138,7 +37536,7 @@
       <c r="FJ154" s="32"/>
       <c r="FK154" s="33"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -37348,7 +37746,7 @@
       <c r="FJ155" s="32"/>
       <c r="FK155" s="33"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -37558,7 +37956,7 @@
       <c r="FJ156" s="32"/>
       <c r="FK156" s="33"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -37768,7 +38166,7 @@
       <c r="FJ157" s="32"/>
       <c r="FK157" s="33"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -37978,7 +38376,7 @@
       <c r="FJ158" s="32"/>
       <c r="FK158" s="33"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -38188,7 +38586,7 @@
       <c r="FJ159" s="32"/>
       <c r="FK159" s="33"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -38398,7 +38796,7 @@
       <c r="FJ160" s="32"/>
       <c r="FK160" s="33"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -38615,15 +39013,15 @@
       <c r="D162" s="49"/>
       <c r="E162" s="50">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>164</v>
+        <v>227.55</v>
       </c>
       <c r="F162" s="50">
         <f t="shared" si="122"/>
-        <v>10</v>
+        <v>20.45</v>
       </c>
       <c r="G162" s="50">
         <f t="shared" si="122"/>
-        <v>1.6666666666666698</v>
+        <v>3.1666666666666727</v>
       </c>
       <c r="H162" s="50">
         <f t="shared" si="122"/>
@@ -38635,7 +39033,7 @@
       </c>
       <c r="J162" s="50">
         <f t="shared" si="122"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K162" s="50">
         <f t="shared" si="122"/>
@@ -38643,35 +39041,35 @@
       </c>
       <c r="L162" s="50">
         <f t="shared" si="122"/>
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="M162" s="50">
         <f t="shared" si="122"/>
-        <v>54.5</v>
+        <v>98.25</v>
       </c>
       <c r="N162" s="50">
         <f t="shared" si="122"/>
-        <v>4.75</v>
+        <v>20.75</v>
       </c>
       <c r="O162" s="50">
         <f t="shared" si="122"/>
-        <v>176.25</v>
+        <v>279.75</v>
       </c>
       <c r="P162" s="50">
         <f t="shared" si="122"/>
-        <v>243</v>
+        <v>667</v>
       </c>
       <c r="Q162" s="50">
         <f t="shared" si="122"/>
-        <v>478.5</v>
+        <v>1065.75</v>
       </c>
       <c r="R162" s="39">
         <f t="shared" si="122"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S162" s="41">
         <f t="shared" si="122"/>
-        <v>15.25</v>
+        <v>15.5</v>
       </c>
       <c r="T162" s="41">
         <f t="shared" si="122"/>
@@ -38687,11 +39085,11 @@
       </c>
       <c r="W162" s="39">
         <f t="shared" si="122"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X162" s="41">
         <f t="shared" si="122"/>
-        <v>20.25</v>
+        <v>22</v>
       </c>
       <c r="Y162" s="41">
         <f t="shared" si="122"/>
@@ -38707,7 +39105,7 @@
       </c>
       <c r="AB162" s="39">
         <f t="shared" si="122"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC162" s="41">
         <f t="shared" si="122"/>
@@ -38727,15 +39125,15 @@
       </c>
       <c r="AG162" s="39">
         <f t="shared" si="122"/>
-        <v>20</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AH162" s="41">
         <f t="shared" si="122"/>
-        <v>3</v>
+        <v>17.25</v>
       </c>
       <c r="AI162" s="41">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AJ162" s="41">
         <f t="shared" si="122"/>
@@ -38743,19 +39141,19 @@
       </c>
       <c r="AK162" s="40">
         <f t="shared" ref="AK162:BP162" si="123">SUM(AK12:AK161)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AL162" s="39">
         <f t="shared" si="123"/>
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="AM162" s="41">
         <f t="shared" si="123"/>
-        <v>4</v>
+        <v>20.25</v>
       </c>
       <c r="AN162" s="41">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AO162" s="41">
         <f t="shared" si="123"/>
@@ -38763,11 +39161,11 @@
       </c>
       <c r="AP162" s="40">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AQ162" s="39">
         <f t="shared" si="123"/>
-        <v>19</v>
+        <v>32.25</v>
       </c>
       <c r="AR162" s="41">
         <f t="shared" si="123"/>
@@ -38779,23 +39177,23 @@
       </c>
       <c r="AT162" s="41">
         <f t="shared" si="123"/>
-        <v>152.25</v>
+        <v>255.75</v>
       </c>
       <c r="AU162" s="40">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AV162" s="39">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW162" s="41">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AX162" s="41">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY162" s="41">
         <f t="shared" si="123"/>
@@ -38803,7 +39201,7 @@
       </c>
       <c r="AZ162" s="40">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BA162" s="39">
         <f t="shared" si="123"/>
@@ -39577,28 +39975,48 @@
   </sheetData>
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
     <filterColumn colId="1">
-      <colorFilter dxfId="95"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="BA8:FK8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CT9:CX9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BU9:BY9"/>
     <mergeCell ref="BZ9:CD9"/>
     <mergeCell ref="ER10:EV10"/>
@@ -39615,386 +40033,366 @@
     <mergeCell ref="CT10:CX10"/>
     <mergeCell ref="CY10:DC10"/>
     <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="BA8:FK8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CT9:CX9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">
-    <cfRule type="containsText" dxfId="94" priority="288" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="95" priority="288" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="289" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="94" priority="289" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="290" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="93" priority="290" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="291" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="92" priority="291" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DS12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS152:EL161 FB152:FK161 ER152:EV161">
-    <cfRule type="containsText" dxfId="90" priority="284" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="91" priority="284" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="285" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="90" priority="285" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="286" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="89" priority="286" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="287" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="88" priority="287" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DS152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EW12:FA151">
-    <cfRule type="containsText" dxfId="86" priority="216" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="87" priority="216" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="217" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="86" priority="217" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="218" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="85" priority="218" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="219" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="84" priority="219" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EW12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EW152:FA161">
-    <cfRule type="containsText" dxfId="82" priority="212" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="83" priority="212" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="213" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="82" priority="213" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="214" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="81" priority="214" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="215" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="80" priority="215" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EW152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS12:EL161 ER12:FK161">
-    <cfRule type="containsText" dxfId="78" priority="195" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="79" priority="195" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",DS12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:DC151 DI12:DM151">
-    <cfRule type="containsText" dxfId="77" priority="102" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="78" priority="102" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="103" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="77" priority="103" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="104" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="76" priority="104" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="75" priority="105" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CJ12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ152:DC161 DI152:DM161">
-    <cfRule type="containsText" dxfId="73" priority="98" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="74" priority="98" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="99" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="73" priority="99" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="100" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="72" priority="100" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="101" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="71" priority="101" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CJ152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN12:DR151">
-    <cfRule type="containsText" dxfId="69" priority="94" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="70" priority="94" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="95" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="96" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="68" priority="96" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="97" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="67" priority="97" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DN12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN152:DR161">
-    <cfRule type="containsText" dxfId="65" priority="90" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="91" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="92" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="64" priority="92" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="93" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="63" priority="93" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DN152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:DC161 DI12:DR161">
-    <cfRule type="containsText" dxfId="61" priority="89" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="62" priority="89" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",CJ12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BT151 BZ12:CD151">
-    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="61" priority="85" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="86" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="87" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="59" priority="87" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="88" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="58" priority="88" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA152:BT161 BZ152:CD161">
-    <cfRule type="containsText" dxfId="56" priority="81" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="82" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="83" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="84" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="54" priority="84" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BA152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE12:CI151">
-    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="53" priority="77" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="78" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="79" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="80" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE152:CI161">
-    <cfRule type="containsText" dxfId="48" priority="73" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="74" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="48" priority="74" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="76" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="46" priority="76" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CE152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BT161 BZ12:CI161">
-    <cfRule type="containsText" dxfId="44" priority="72" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",BA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:AU151">
-    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="43" priority="69" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="70" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="42" priority="70" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="41" priority="71" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R152:AU161">
-    <cfRule type="containsText" dxfId="39" priority="64" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="66" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="38" priority="66" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",R152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12:AZ151">
-    <cfRule type="containsText" dxfId="35" priority="60" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="62" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="34" priority="62" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="63" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",AV12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV152:AZ161">
-    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="58" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="30" priority="58" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",AV152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:AZ161">
-    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="28" priority="55" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BY151">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BU12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU152:BY161">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BU152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BY161">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",BU12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD12:DH151">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DD12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD152:DH161">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DD152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD12:DH161">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",DD12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM12:EQ151">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EM12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM152:EQ161">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EM152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM12:EQ161">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",EM12)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB1696-0081-43FF-849C-F434B8462C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CC04D8-6C23-4C5E-9298-027EC765CC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="461">
   <si>
     <t>REPORTE HORAS HOMBRE : TAREO - PERSONAL OPERARIOS</t>
   </si>
@@ -2221,22 +2221,43 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2299,58 +2320,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC5C5"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="95">
     <dxf>
       <font>
         <b/>
@@ -3315,14 +3307,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD7EE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3641,8 +3625,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I167" sqref="I167"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3651,12 +3635,12 @@
     <col min="2" max="2" width="30.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="13.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="16" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="21" width="6" style="1" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="1" customWidth="1"/>
     <col min="23" max="26" width="6" style="1" customWidth="1"/>
@@ -3721,25 +3705,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -3924,36 +3908,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75"/>
+      <c r="A3" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="76" t="s">
+      <c r="X3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="77"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4122,11 +4106,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="76" t="s">
+      <c r="X4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="77"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="110"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4272,25 +4256,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4629,702 +4613,702 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="89" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="98" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="99"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="99"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="99"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="99"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="100"/>
-      <c r="BA8" s="98" t="s">
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83"/>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="99"/>
-      <c r="BL8" s="99"/>
-      <c r="BM8" s="99"/>
-      <c r="BN8" s="99"/>
-      <c r="BO8" s="99"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="99"/>
-      <c r="BR8" s="99"/>
-      <c r="BS8" s="99"/>
-      <c r="BT8" s="99"/>
-      <c r="BU8" s="99"/>
-      <c r="BV8" s="99"/>
-      <c r="BW8" s="99"/>
-      <c r="BX8" s="99"/>
-      <c r="BY8" s="99"/>
-      <c r="BZ8" s="99"/>
-      <c r="CA8" s="99"/>
-      <c r="CB8" s="99"/>
-      <c r="CC8" s="99"/>
-      <c r="CD8" s="99"/>
-      <c r="CE8" s="99"/>
-      <c r="CF8" s="99"/>
-      <c r="CG8" s="99"/>
-      <c r="CH8" s="99"/>
-      <c r="CI8" s="99"/>
-      <c r="CJ8" s="99"/>
-      <c r="CK8" s="99"/>
-      <c r="CL8" s="99"/>
-      <c r="CM8" s="99"/>
-      <c r="CN8" s="99"/>
-      <c r="CO8" s="99"/>
-      <c r="CP8" s="99"/>
-      <c r="CQ8" s="99"/>
-      <c r="CR8" s="99"/>
-      <c r="CS8" s="99"/>
-      <c r="CT8" s="99"/>
-      <c r="CU8" s="99"/>
-      <c r="CV8" s="99"/>
-      <c r="CW8" s="99"/>
-      <c r="CX8" s="99"/>
-      <c r="CY8" s="99"/>
-      <c r="CZ8" s="99"/>
-      <c r="DA8" s="99"/>
-      <c r="DB8" s="99"/>
-      <c r="DC8" s="99"/>
-      <c r="DD8" s="99"/>
-      <c r="DE8" s="99"/>
-      <c r="DF8" s="99"/>
-      <c r="DG8" s="99"/>
-      <c r="DH8" s="99"/>
-      <c r="DI8" s="99"/>
-      <c r="DJ8" s="99"/>
-      <c r="DK8" s="99"/>
-      <c r="DL8" s="99"/>
-      <c r="DM8" s="99"/>
-      <c r="DN8" s="99"/>
-      <c r="DO8" s="99"/>
-      <c r="DP8" s="99"/>
-      <c r="DQ8" s="99"/>
-      <c r="DR8" s="99"/>
-      <c r="DS8" s="99"/>
-      <c r="DT8" s="99"/>
-      <c r="DU8" s="99"/>
-      <c r="DV8" s="99"/>
-      <c r="DW8" s="99"/>
-      <c r="DX8" s="99"/>
-      <c r="DY8" s="99"/>
-      <c r="DZ8" s="99"/>
-      <c r="EA8" s="99"/>
-      <c r="EB8" s="99"/>
-      <c r="EC8" s="99"/>
-      <c r="ED8" s="99"/>
-      <c r="EE8" s="99"/>
-      <c r="EF8" s="99"/>
-      <c r="EG8" s="99"/>
-      <c r="EH8" s="99"/>
-      <c r="EI8" s="99"/>
-      <c r="EJ8" s="99"/>
-      <c r="EK8" s="99"/>
-      <c r="EL8" s="99"/>
-      <c r="EM8" s="99"/>
-      <c r="EN8" s="99"/>
-      <c r="EO8" s="99"/>
-      <c r="EP8" s="99"/>
-      <c r="EQ8" s="99"/>
-      <c r="ER8" s="99"/>
-      <c r="ES8" s="99"/>
-      <c r="ET8" s="99"/>
-      <c r="EU8" s="99"/>
-      <c r="EV8" s="99"/>
-      <c r="EW8" s="99"/>
-      <c r="EX8" s="99"/>
-      <c r="EY8" s="99"/>
-      <c r="EZ8" s="99"/>
-      <c r="FA8" s="99"/>
-      <c r="FB8" s="99"/>
-      <c r="FC8" s="99"/>
-      <c r="FD8" s="99"/>
-      <c r="FE8" s="99"/>
-      <c r="FF8" s="99"/>
-      <c r="FG8" s="99"/>
-      <c r="FH8" s="99"/>
-      <c r="FI8" s="99"/>
-      <c r="FJ8" s="99"/>
-      <c r="FK8" s="100"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="83"/>
+      <c r="BD8" s="83"/>
+      <c r="BE8" s="83"/>
+      <c r="BF8" s="83"/>
+      <c r="BG8" s="83"/>
+      <c r="BH8" s="83"/>
+      <c r="BI8" s="83"/>
+      <c r="BJ8" s="83"/>
+      <c r="BK8" s="83"/>
+      <c r="BL8" s="83"/>
+      <c r="BM8" s="83"/>
+      <c r="BN8" s="83"/>
+      <c r="BO8" s="83"/>
+      <c r="BP8" s="83"/>
+      <c r="BQ8" s="83"/>
+      <c r="BR8" s="83"/>
+      <c r="BS8" s="83"/>
+      <c r="BT8" s="83"/>
+      <c r="BU8" s="83"/>
+      <c r="BV8" s="83"/>
+      <c r="BW8" s="83"/>
+      <c r="BX8" s="83"/>
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CB8" s="83"/>
+      <c r="CC8" s="83"/>
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
+      <c r="CG8" s="83"/>
+      <c r="CH8" s="83"/>
+      <c r="CI8" s="83"/>
+      <c r="CJ8" s="83"/>
+      <c r="CK8" s="83"/>
+      <c r="CL8" s="83"/>
+      <c r="CM8" s="83"/>
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
+      <c r="CQ8" s="83"/>
+      <c r="CR8" s="83"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="83"/>
+      <c r="CV8" s="83"/>
+      <c r="CW8" s="83"/>
+      <c r="CX8" s="83"/>
+      <c r="CY8" s="83"/>
+      <c r="CZ8" s="83"/>
+      <c r="DA8" s="83"/>
+      <c r="DB8" s="83"/>
+      <c r="DC8" s="83"/>
+      <c r="DD8" s="83"/>
+      <c r="DE8" s="83"/>
+      <c r="DF8" s="83"/>
+      <c r="DG8" s="83"/>
+      <c r="DH8" s="83"/>
+      <c r="DI8" s="83"/>
+      <c r="DJ8" s="83"/>
+      <c r="DK8" s="83"/>
+      <c r="DL8" s="83"/>
+      <c r="DM8" s="83"/>
+      <c r="DN8" s="83"/>
+      <c r="DO8" s="83"/>
+      <c r="DP8" s="83"/>
+      <c r="DQ8" s="83"/>
+      <c r="DR8" s="83"/>
+      <c r="DS8" s="83"/>
+      <c r="DT8" s="83"/>
+      <c r="DU8" s="83"/>
+      <c r="DV8" s="83"/>
+      <c r="DW8" s="83"/>
+      <c r="DX8" s="83"/>
+      <c r="DY8" s="83"/>
+      <c r="DZ8" s="83"/>
+      <c r="EA8" s="83"/>
+      <c r="EB8" s="83"/>
+      <c r="EC8" s="83"/>
+      <c r="ED8" s="83"/>
+      <c r="EE8" s="83"/>
+      <c r="EF8" s="83"/>
+      <c r="EG8" s="83"/>
+      <c r="EH8" s="83"/>
+      <c r="EI8" s="83"/>
+      <c r="EJ8" s="83"/>
+      <c r="EK8" s="83"/>
+      <c r="EL8" s="83"/>
+      <c r="EM8" s="83"/>
+      <c r="EN8" s="83"/>
+      <c r="EO8" s="83"/>
+      <c r="EP8" s="83"/>
+      <c r="EQ8" s="83"/>
+      <c r="ER8" s="83"/>
+      <c r="ES8" s="83"/>
+      <c r="ET8" s="83"/>
+      <c r="EU8" s="83"/>
+      <c r="EV8" s="83"/>
+      <c r="EW8" s="83"/>
+      <c r="EX8" s="83"/>
+      <c r="EY8" s="83"/>
+      <c r="EZ8" s="83"/>
+      <c r="FA8" s="83"/>
+      <c r="FB8" s="83"/>
+      <c r="FC8" s="83"/>
+      <c r="FD8" s="83"/>
+      <c r="FE8" s="83"/>
+      <c r="FF8" s="83"/>
+      <c r="FG8" s="83"/>
+      <c r="FH8" s="83"/>
+      <c r="FI8" s="83"/>
+      <c r="FJ8" s="83"/>
+      <c r="FK8" s="84"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="104" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="104" t="str">
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="79" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="104" t="str">
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="79" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="104" t="str">
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="81"/>
+      <c r="AG9" s="79" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AH9" s="105"/>
-      <c r="AI9" s="105"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="104" t="str">
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="79" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="105"/>
-      <c r="AO9" s="105"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="104" t="str">
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="79" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="AR9" s="105"/>
-      <c r="AS9" s="105"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="104" t="str">
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="81"/>
+      <c r="AV9" s="79" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="105"/>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="104" t="str">
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="80"/>
+      <c r="AY9" s="80"/>
+      <c r="AZ9" s="81"/>
+      <c r="BA9" s="79" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BB9" s="105"/>
-      <c r="BC9" s="105"/>
-      <c r="BD9" s="105"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="104" t="str">
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="81"/>
+      <c r="BF9" s="79" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BG9" s="105"/>
-      <c r="BH9" s="105"/>
-      <c r="BI9" s="105"/>
-      <c r="BJ9" s="106"/>
-      <c r="BK9" s="104" t="str">
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="80"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="79" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BL9" s="105"/>
-      <c r="BM9" s="105"/>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="106"/>
-      <c r="BP9" s="104" t="str">
+      <c r="BL9" s="80"/>
+      <c r="BM9" s="80"/>
+      <c r="BN9" s="80"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="79" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="BQ9" s="105"/>
-      <c r="BR9" s="105"/>
-      <c r="BS9" s="105"/>
-      <c r="BT9" s="106"/>
-      <c r="BU9" s="104" t="str">
+      <c r="BQ9" s="80"/>
+      <c r="BR9" s="80"/>
+      <c r="BS9" s="80"/>
+      <c r="BT9" s="81"/>
+      <c r="BU9" s="79" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="BV9" s="105"/>
-      <c r="BW9" s="105"/>
-      <c r="BX9" s="105"/>
-      <c r="BY9" s="106"/>
-      <c r="BZ9" s="104" t="str">
+      <c r="BV9" s="80"/>
+      <c r="BW9" s="80"/>
+      <c r="BX9" s="80"/>
+      <c r="BY9" s="81"/>
+      <c r="BZ9" s="79" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CA9" s="105"/>
-      <c r="CB9" s="105"/>
-      <c r="CC9" s="105"/>
-      <c r="CD9" s="106"/>
-      <c r="CE9" s="104" t="str">
+      <c r="CA9" s="80"/>
+      <c r="CB9" s="80"/>
+      <c r="CC9" s="80"/>
+      <c r="CD9" s="81"/>
+      <c r="CE9" s="79" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CF9" s="105"/>
-      <c r="CG9" s="105"/>
-      <c r="CH9" s="105"/>
-      <c r="CI9" s="106"/>
-      <c r="CJ9" s="104" t="str">
+      <c r="CF9" s="80"/>
+      <c r="CG9" s="80"/>
+      <c r="CH9" s="80"/>
+      <c r="CI9" s="81"/>
+      <c r="CJ9" s="79" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CK9" s="105"/>
-      <c r="CL9" s="105"/>
-      <c r="CM9" s="105"/>
-      <c r="CN9" s="106"/>
-      <c r="CO9" s="104" t="str">
+      <c r="CK9" s="80"/>
+      <c r="CL9" s="80"/>
+      <c r="CM9" s="80"/>
+      <c r="CN9" s="81"/>
+      <c r="CO9" s="79" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CP9" s="105"/>
-      <c r="CQ9" s="105"/>
-      <c r="CR9" s="105"/>
-      <c r="CS9" s="106"/>
-      <c r="CT9" s="104" t="str">
+      <c r="CP9" s="80"/>
+      <c r="CQ9" s="80"/>
+      <c r="CR9" s="80"/>
+      <c r="CS9" s="81"/>
+      <c r="CT9" s="79" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="CU9" s="105"/>
-      <c r="CV9" s="105"/>
-      <c r="CW9" s="105"/>
-      <c r="CX9" s="106"/>
-      <c r="CY9" s="104" t="str">
+      <c r="CU9" s="80"/>
+      <c r="CV9" s="80"/>
+      <c r="CW9" s="80"/>
+      <c r="CX9" s="81"/>
+      <c r="CY9" s="79" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CZ9" s="105"/>
-      <c r="DA9" s="105"/>
-      <c r="DB9" s="105"/>
-      <c r="DC9" s="106"/>
-      <c r="DD9" s="104" t="str">
+      <c r="CZ9" s="80"/>
+      <c r="DA9" s="80"/>
+      <c r="DB9" s="80"/>
+      <c r="DC9" s="81"/>
+      <c r="DD9" s="79" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DE9" s="105"/>
-      <c r="DF9" s="105"/>
-      <c r="DG9" s="105"/>
-      <c r="DH9" s="106"/>
-      <c r="DI9" s="104" t="str">
+      <c r="DE9" s="80"/>
+      <c r="DF9" s="80"/>
+      <c r="DG9" s="80"/>
+      <c r="DH9" s="81"/>
+      <c r="DI9" s="79" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DJ9" s="105"/>
-      <c r="DK9" s="105"/>
-      <c r="DL9" s="105"/>
-      <c r="DM9" s="106"/>
-      <c r="DN9" s="104" t="str">
+      <c r="DJ9" s="80"/>
+      <c r="DK9" s="80"/>
+      <c r="DL9" s="80"/>
+      <c r="DM9" s="81"/>
+      <c r="DN9" s="79" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DO9" s="105"/>
-      <c r="DP9" s="105"/>
-      <c r="DQ9" s="105"/>
-      <c r="DR9" s="106"/>
-      <c r="DS9" s="104" t="str">
+      <c r="DO9" s="80"/>
+      <c r="DP9" s="80"/>
+      <c r="DQ9" s="80"/>
+      <c r="DR9" s="81"/>
+      <c r="DS9" s="79" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="DT9" s="105"/>
-      <c r="DU9" s="105"/>
-      <c r="DV9" s="105"/>
-      <c r="DW9" s="106"/>
-      <c r="DX9" s="104" t="str">
+      <c r="DT9" s="80"/>
+      <c r="DU9" s="80"/>
+      <c r="DV9" s="80"/>
+      <c r="DW9" s="81"/>
+      <c r="DX9" s="79" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="DY9" s="105"/>
-      <c r="DZ9" s="105"/>
-      <c r="EA9" s="105"/>
-      <c r="EB9" s="106"/>
-      <c r="EC9" s="104" t="str">
+      <c r="DY9" s="80"/>
+      <c r="DZ9" s="80"/>
+      <c r="EA9" s="80"/>
+      <c r="EB9" s="81"/>
+      <c r="EC9" s="79" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="ED9" s="105"/>
-      <c r="EE9" s="105"/>
-      <c r="EF9" s="105"/>
-      <c r="EG9" s="106"/>
-      <c r="EH9" s="104" t="str">
+      <c r="ED9" s="80"/>
+      <c r="EE9" s="80"/>
+      <c r="EF9" s="80"/>
+      <c r="EG9" s="81"/>
+      <c r="EH9" s="79" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="EI9" s="105"/>
-      <c r="EJ9" s="105"/>
-      <c r="EK9" s="105"/>
-      <c r="EL9" s="106"/>
-      <c r="EM9" s="104" t="str">
+      <c r="EI9" s="80"/>
+      <c r="EJ9" s="80"/>
+      <c r="EK9" s="80"/>
+      <c r="EL9" s="81"/>
+      <c r="EM9" s="79" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EN9" s="105"/>
-      <c r="EO9" s="105"/>
-      <c r="EP9" s="105"/>
-      <c r="EQ9" s="106"/>
-      <c r="ER9" s="104" t="str">
+      <c r="EN9" s="80"/>
+      <c r="EO9" s="80"/>
+      <c r="EP9" s="80"/>
+      <c r="EQ9" s="81"/>
+      <c r="ER9" s="79" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="ES9" s="105"/>
-      <c r="ET9" s="105"/>
-      <c r="EU9" s="105"/>
-      <c r="EV9" s="106"/>
-      <c r="EW9" s="104" t="str">
+      <c r="ES9" s="80"/>
+      <c r="ET9" s="80"/>
+      <c r="EU9" s="80"/>
+      <c r="EV9" s="81"/>
+      <c r="EW9" s="79" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="EX9" s="105"/>
-      <c r="EY9" s="105"/>
-      <c r="EZ9" s="105"/>
-      <c r="FA9" s="106"/>
-      <c r="FB9" s="104" t="str">
+      <c r="EX9" s="80"/>
+      <c r="EY9" s="80"/>
+      <c r="EZ9" s="80"/>
+      <c r="FA9" s="81"/>
+      <c r="FB9" s="79" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="FC9" s="105"/>
-      <c r="FD9" s="105"/>
-      <c r="FE9" s="105"/>
-      <c r="FF9" s="106"/>
-      <c r="FG9" s="104" t="str">
+      <c r="FC9" s="80"/>
+      <c r="FD9" s="80"/>
+      <c r="FE9" s="80"/>
+      <c r="FF9" s="81"/>
+      <c r="FG9" s="79" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="FH9" s="105"/>
-      <c r="FI9" s="105"/>
-      <c r="FJ9" s="105"/>
-      <c r="FK9" s="106"/>
+      <c r="FH9" s="80"/>
+      <c r="FI9" s="80"/>
+      <c r="FJ9" s="80"/>
+      <c r="FK9" s="81"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="101">
+      <c r="A10" s="89"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="76">
         <v>44736</v>
       </c>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="103"/>
-      <c r="W10" s="101">
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="76">
         <f>+R10+1</f>
         <v>44737</v>
       </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="101">
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="76">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44738</v>
       </c>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="103"/>
-      <c r="AG10" s="101">
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="76">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44739</v>
       </c>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="101">
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="76">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44740</v>
       </c>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="101">
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="76">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44741</v>
       </c>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="101">
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="76">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44742</v>
       </c>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="103"/>
-      <c r="BA10" s="101">
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="76">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44743</v>
       </c>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="103"/>
-      <c r="BF10" s="101">
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="78"/>
+      <c r="BF10" s="76">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44744</v>
       </c>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
-      <c r="BJ10" s="103"/>
-      <c r="BK10" s="101">
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="78"/>
+      <c r="BK10" s="76">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44745</v>
       </c>
-      <c r="BL10" s="102"/>
-      <c r="BM10" s="102"/>
-      <c r="BN10" s="102"/>
-      <c r="BO10" s="103"/>
-      <c r="BP10" s="101">
+      <c r="BL10" s="77"/>
+      <c r="BM10" s="77"/>
+      <c r="BN10" s="77"/>
+      <c r="BO10" s="78"/>
+      <c r="BP10" s="76">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44746</v>
       </c>
-      <c r="BQ10" s="102"/>
-      <c r="BR10" s="102"/>
-      <c r="BS10" s="102"/>
-      <c r="BT10" s="103"/>
-      <c r="BU10" s="101">
+      <c r="BQ10" s="77"/>
+      <c r="BR10" s="77"/>
+      <c r="BS10" s="77"/>
+      <c r="BT10" s="78"/>
+      <c r="BU10" s="76">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44747</v>
       </c>
-      <c r="BV10" s="102"/>
-      <c r="BW10" s="102"/>
-      <c r="BX10" s="102"/>
-      <c r="BY10" s="103"/>
-      <c r="BZ10" s="101">
+      <c r="BV10" s="77"/>
+      <c r="BW10" s="77"/>
+      <c r="BX10" s="77"/>
+      <c r="BY10" s="78"/>
+      <c r="BZ10" s="76">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44748</v>
       </c>
-      <c r="CA10" s="102"/>
-      <c r="CB10" s="102"/>
-      <c r="CC10" s="102"/>
-      <c r="CD10" s="103"/>
-      <c r="CE10" s="101">
+      <c r="CA10" s="77"/>
+      <c r="CB10" s="77"/>
+      <c r="CC10" s="77"/>
+      <c r="CD10" s="78"/>
+      <c r="CE10" s="76">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44749</v>
       </c>
-      <c r="CF10" s="102"/>
-      <c r="CG10" s="102"/>
-      <c r="CH10" s="102"/>
-      <c r="CI10" s="103"/>
-      <c r="CJ10" s="101">
+      <c r="CF10" s="77"/>
+      <c r="CG10" s="77"/>
+      <c r="CH10" s="77"/>
+      <c r="CI10" s="78"/>
+      <c r="CJ10" s="76">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44750</v>
       </c>
-      <c r="CK10" s="102"/>
-      <c r="CL10" s="102"/>
-      <c r="CM10" s="102"/>
-      <c r="CN10" s="103"/>
-      <c r="CO10" s="101">
+      <c r="CK10" s="77"/>
+      <c r="CL10" s="77"/>
+      <c r="CM10" s="77"/>
+      <c r="CN10" s="78"/>
+      <c r="CO10" s="76">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44751</v>
       </c>
-      <c r="CP10" s="102"/>
-      <c r="CQ10" s="102"/>
-      <c r="CR10" s="102"/>
-      <c r="CS10" s="103"/>
-      <c r="CT10" s="101">
+      <c r="CP10" s="77"/>
+      <c r="CQ10" s="77"/>
+      <c r="CR10" s="77"/>
+      <c r="CS10" s="78"/>
+      <c r="CT10" s="76">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44752</v>
       </c>
-      <c r="CU10" s="102"/>
-      <c r="CV10" s="102"/>
-      <c r="CW10" s="102"/>
-      <c r="CX10" s="103"/>
-      <c r="CY10" s="101">
+      <c r="CU10" s="77"/>
+      <c r="CV10" s="77"/>
+      <c r="CW10" s="77"/>
+      <c r="CX10" s="78"/>
+      <c r="CY10" s="76">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44753</v>
       </c>
-      <c r="CZ10" s="102"/>
-      <c r="DA10" s="102"/>
-      <c r="DB10" s="102"/>
-      <c r="DC10" s="103"/>
-      <c r="DD10" s="101">
+      <c r="CZ10" s="77"/>
+      <c r="DA10" s="77"/>
+      <c r="DB10" s="77"/>
+      <c r="DC10" s="78"/>
+      <c r="DD10" s="76">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44754</v>
       </c>
-      <c r="DE10" s="102"/>
-      <c r="DF10" s="102"/>
-      <c r="DG10" s="102"/>
-      <c r="DH10" s="103"/>
-      <c r="DI10" s="101">
+      <c r="DE10" s="77"/>
+      <c r="DF10" s="77"/>
+      <c r="DG10" s="77"/>
+      <c r="DH10" s="78"/>
+      <c r="DI10" s="76">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44755</v>
       </c>
-      <c r="DJ10" s="102"/>
-      <c r="DK10" s="102"/>
-      <c r="DL10" s="102"/>
-      <c r="DM10" s="103"/>
-      <c r="DN10" s="101">
+      <c r="DJ10" s="77"/>
+      <c r="DK10" s="77"/>
+      <c r="DL10" s="77"/>
+      <c r="DM10" s="78"/>
+      <c r="DN10" s="76">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44756</v>
       </c>
-      <c r="DO10" s="102"/>
-      <c r="DP10" s="102"/>
-      <c r="DQ10" s="102"/>
-      <c r="DR10" s="103"/>
-      <c r="DS10" s="101">
+      <c r="DO10" s="77"/>
+      <c r="DP10" s="77"/>
+      <c r="DQ10" s="77"/>
+      <c r="DR10" s="78"/>
+      <c r="DS10" s="76">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44757</v>
       </c>
-      <c r="DT10" s="102"/>
-      <c r="DU10" s="102"/>
-      <c r="DV10" s="102"/>
-      <c r="DW10" s="103"/>
-      <c r="DX10" s="101">
+      <c r="DT10" s="77"/>
+      <c r="DU10" s="77"/>
+      <c r="DV10" s="77"/>
+      <c r="DW10" s="78"/>
+      <c r="DX10" s="76">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44758</v>
       </c>
-      <c r="DY10" s="102"/>
-      <c r="DZ10" s="102"/>
-      <c r="EA10" s="102"/>
-      <c r="EB10" s="103"/>
-      <c r="EC10" s="101">
+      <c r="DY10" s="77"/>
+      <c r="DZ10" s="77"/>
+      <c r="EA10" s="77"/>
+      <c r="EB10" s="78"/>
+      <c r="EC10" s="76">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44759</v>
       </c>
-      <c r="ED10" s="102"/>
-      <c r="EE10" s="102"/>
-      <c r="EF10" s="102"/>
-      <c r="EG10" s="103"/>
-      <c r="EH10" s="101">
+      <c r="ED10" s="77"/>
+      <c r="EE10" s="77"/>
+      <c r="EF10" s="77"/>
+      <c r="EG10" s="78"/>
+      <c r="EH10" s="76">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44760</v>
       </c>
-      <c r="EI10" s="102"/>
-      <c r="EJ10" s="102"/>
-      <c r="EK10" s="102"/>
-      <c r="EL10" s="103"/>
-      <c r="EM10" s="101">
+      <c r="EI10" s="77"/>
+      <c r="EJ10" s="77"/>
+      <c r="EK10" s="77"/>
+      <c r="EL10" s="78"/>
+      <c r="EM10" s="76">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44761</v>
       </c>
-      <c r="EN10" s="102"/>
-      <c r="EO10" s="102"/>
-      <c r="EP10" s="102"/>
-      <c r="EQ10" s="103"/>
-      <c r="ER10" s="101">
+      <c r="EN10" s="77"/>
+      <c r="EO10" s="77"/>
+      <c r="EP10" s="77"/>
+      <c r="EQ10" s="78"/>
+      <c r="ER10" s="76">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44762</v>
       </c>
-      <c r="ES10" s="102"/>
-      <c r="ET10" s="102"/>
-      <c r="EU10" s="102"/>
-      <c r="EV10" s="103"/>
-      <c r="EW10" s="101">
+      <c r="ES10" s="77"/>
+      <c r="ET10" s="77"/>
+      <c r="EU10" s="77"/>
+      <c r="EV10" s="78"/>
+      <c r="EW10" s="76">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44763</v>
       </c>
-      <c r="EX10" s="102"/>
-      <c r="EY10" s="102"/>
-      <c r="EZ10" s="102"/>
-      <c r="FA10" s="103"/>
-      <c r="FB10" s="101">
+      <c r="EX10" s="77"/>
+      <c r="EY10" s="77"/>
+      <c r="EZ10" s="77"/>
+      <c r="FA10" s="78"/>
+      <c r="FB10" s="76">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44764</v>
       </c>
-      <c r="FC10" s="102"/>
-      <c r="FD10" s="102"/>
-      <c r="FE10" s="102"/>
-      <c r="FF10" s="103"/>
-      <c r="FG10" s="101">
+      <c r="FC10" s="77"/>
+      <c r="FD10" s="77"/>
+      <c r="FE10" s="77"/>
+      <c r="FF10" s="78"/>
+      <c r="FG10" s="76">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44765</v>
       </c>
-      <c r="FH10" s="102"/>
-      <c r="FI10" s="102"/>
-      <c r="FJ10" s="102"/>
-      <c r="FK10" s="103"/>
+      <c r="FH10" s="77"/>
+      <c r="FI10" s="77"/>
+      <c r="FJ10" s="77"/>
+      <c r="FK10" s="78"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="42" t="s">
         <v>173</v>
       </c>
@@ -5839,7 +5823,7 @@
       </c>
       <c r="E12" s="36">
         <f t="shared" ref="E12:E43" si="57">SUMIF($R$11:$FK$11,"T",R12:FK12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" ref="F12:F43" si="58">COUNTIF(R12:FK12,"F")+(COUNT(R12,W12,AB12,AG12,AL12,AQ12,AV12,BA12,BF12,BK12,BP12,BU12,BZ12,CE12,CJ12,CO12,CT12,CY12,DD12,DI12,DN12,DS12,DX12,EC12,EH12,EM12,ER12,EW12,FB12,FG12)-E12)</f>
@@ -5867,7 +5851,7 @@
       </c>
       <c r="L12" s="37">
         <f t="shared" ref="L12:L43" si="64">+E12+F12+H12+I12+J12+K12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="23">
         <f t="shared" ref="M12:M43" si="65">SUMIF($R$11:$FK$11,$M$11,R12:FK12)</f>
@@ -5889,7 +5873,9 @@
         <f t="shared" ref="Q12:Q43" si="69">SUM(M12:P12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="30"/>
+      <c r="R12" s="30">
+        <v>1</v>
+      </c>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
       <c r="U12" s="32"/>
@@ -6055,7 +6041,7 @@
       </c>
       <c r="E13" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="58"/>
@@ -6083,7 +6069,7 @@
       </c>
       <c r="L13" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="23">
         <f t="shared" si="65"/>
@@ -6105,7 +6091,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R13" s="30"/>
+      <c r="R13" s="30">
+        <v>1</v>
+      </c>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
       <c r="U13" s="32"/>
@@ -6271,7 +6259,7 @@
       </c>
       <c r="E14" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" si="58"/>
@@ -6299,11 +6287,11 @@
       </c>
       <c r="L14" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="66"/>
@@ -6319,10 +6307,14 @@
       </c>
       <c r="Q14" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="30">
+        <v>1</v>
+      </c>
+      <c r="S14" s="31">
+        <v>1</v>
+      </c>
       <c r="T14" s="31"/>
       <c r="U14" s="32"/>
       <c r="V14" s="33"/>
@@ -6487,7 +6479,7 @@
       </c>
       <c r="E15" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" si="58"/>
@@ -6515,7 +6507,7 @@
       </c>
       <c r="L15" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="23">
         <f t="shared" si="65"/>
@@ -6537,7 +6529,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R15" s="30"/>
+      <c r="R15" s="30">
+        <v>1</v>
+      </c>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="32"/>
@@ -6924,7 +6918,7 @@
       <c r="FJ16" s="32"/>
       <c r="FK16" s="33"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>21</v>
       </c>
@@ -6939,7 +6933,7 @@
       </c>
       <c r="E17" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="58"/>
@@ -6967,7 +6961,7 @@
       </c>
       <c r="L17" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="23">
         <f t="shared" si="65"/>
@@ -6989,7 +6983,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R17" s="30"/>
+      <c r="R17" s="30">
+        <v>1</v>
+      </c>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
       <c r="U17" s="32"/>
@@ -7140,7 +7136,7 @@
       <c r="FJ17" s="32"/>
       <c r="FK17" s="33"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>22</v>
       </c>
@@ -7155,7 +7151,7 @@
       </c>
       <c r="E18" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="58"/>
@@ -7183,7 +7179,7 @@
       </c>
       <c r="L18" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="23">
         <f t="shared" si="65"/>
@@ -7205,7 +7201,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R18" s="30"/>
+      <c r="R18" s="30">
+        <v>1</v>
+      </c>
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
       <c r="U18" s="32"/>
@@ -7356,7 +7354,7 @@
       <c r="FJ18" s="32"/>
       <c r="FK18" s="33"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -7371,7 +7369,7 @@
       </c>
       <c r="E19" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="36">
         <f t="shared" si="58"/>
@@ -7399,7 +7397,7 @@
       </c>
       <c r="L19" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="65"/>
@@ -7421,7 +7419,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R19" s="30"/>
+      <c r="R19" s="30">
+        <v>1</v>
+      </c>
       <c r="S19" s="31"/>
       <c r="T19" s="31"/>
       <c r="U19" s="32"/>
@@ -7572,7 +7572,7 @@
       <c r="FJ19" s="32"/>
       <c r="FK19" s="33"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
@@ -7591,11 +7591,11 @@
       </c>
       <c r="F20" s="36">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="36">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="H20" s="23">
         <f t="shared" si="60"/>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="L20" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="23">
         <f t="shared" si="65"/>
@@ -7637,7 +7637,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R20" s="30"/>
+      <c r="R20" s="30" t="s">
+        <v>458</v>
+      </c>
       <c r="S20" s="31"/>
       <c r="T20" s="31"/>
       <c r="U20" s="32"/>
@@ -7788,7 +7790,7 @@
       <c r="FJ20" s="32"/>
       <c r="FK20" s="33"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -7803,7 +7805,7 @@
       </c>
       <c r="E21" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="36">
         <f t="shared" si="58"/>
@@ -7831,7 +7833,7 @@
       </c>
       <c r="L21" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="23">
         <f t="shared" si="65"/>
@@ -7853,7 +7855,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R21" s="30"/>
+      <c r="R21" s="30">
+        <v>1</v>
+      </c>
       <c r="S21" s="31"/>
       <c r="T21" s="31"/>
       <c r="U21" s="32"/>
@@ -8004,7 +8008,7 @@
       <c r="FJ21" s="32"/>
       <c r="FK21" s="33"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>26</v>
       </c>
@@ -8019,7 +8023,7 @@
       </c>
       <c r="E22" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="36">
         <f t="shared" si="58"/>
@@ -8047,7 +8051,7 @@
       </c>
       <c r="L22" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="23">
         <f t="shared" si="65"/>
@@ -8069,7 +8073,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R22" s="30"/>
+      <c r="R22" s="30">
+        <v>1</v>
+      </c>
       <c r="S22" s="31"/>
       <c r="T22" s="31"/>
       <c r="U22" s="32"/>
@@ -8700,17 +8706,17 @@
       <c r="FJ24" s="32"/>
       <c r="FK24" s="33"/>
     </row>
-    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="74" t="s">
         <v>398</v>
       </c>
       <c r="E25" s="36">
@@ -9686,7 +9692,7 @@
       <c r="FJ28" s="32"/>
       <c r="FK28" s="33"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -9701,7 +9707,7 @@
       </c>
       <c r="E29" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="36">
         <f t="shared" si="58"/>
@@ -9729,11 +9735,11 @@
       </c>
       <c r="L29" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="66"/>
@@ -9749,10 +9755,14 @@
       </c>
       <c r="Q29" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="30">
+        <v>1</v>
+      </c>
+      <c r="S29" s="31">
+        <v>0.5</v>
+      </c>
       <c r="T29" s="31"/>
       <c r="U29" s="32"/>
       <c r="V29" s="33"/>
@@ -9902,7 +9912,7 @@
       <c r="FJ29" s="32"/>
       <c r="FK29" s="33"/>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
@@ -9917,7 +9927,7 @@
       </c>
       <c r="E30" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="36">
         <f t="shared" si="58"/>
@@ -9945,7 +9955,7 @@
       </c>
       <c r="L30" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="23">
         <f t="shared" si="65"/>
@@ -9967,7 +9977,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R30" s="30"/>
+      <c r="R30" s="30">
+        <v>1</v>
+      </c>
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
       <c r="U30" s="32"/>
@@ -10372,7 +10384,7 @@
       <c r="FJ31" s="32"/>
       <c r="FK31" s="33"/>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>36</v>
       </c>
@@ -10387,7 +10399,7 @@
       </c>
       <c r="E32" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" si="58"/>
@@ -10415,7 +10427,7 @@
       </c>
       <c r="L32" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="23">
         <f t="shared" si="65"/>
@@ -10437,7 +10449,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R32" s="30"/>
+      <c r="R32" s="30">
+        <v>1</v>
+      </c>
       <c r="S32" s="31"/>
       <c r="T32" s="31"/>
       <c r="U32" s="32"/>
@@ -10818,7 +10832,7 @@
       <c r="FJ33" s="32"/>
       <c r="FK33" s="33"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>38</v>
       </c>
@@ -10833,7 +10847,7 @@
       </c>
       <c r="E34" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="36">
         <f t="shared" si="58"/>
@@ -10861,11 +10875,11 @@
       </c>
       <c r="L34" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N34" s="23">
         <f t="shared" si="66"/>
@@ -10881,10 +10895,14 @@
       </c>
       <c r="Q34" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="R34" s="30">
+        <v>1</v>
+      </c>
+      <c r="S34" s="31">
+        <v>0.5</v>
+      </c>
       <c r="T34" s="31"/>
       <c r="U34" s="32"/>
       <c r="V34" s="33"/>
@@ -11264,7 +11282,7 @@
       <c r="FJ35" s="32"/>
       <c r="FK35" s="33"/>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>40</v>
       </c>
@@ -11279,7 +11297,7 @@
       </c>
       <c r="E36" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="36">
         <f t="shared" si="58"/>
@@ -11307,11 +11325,11 @@
       </c>
       <c r="L36" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="66"/>
@@ -11327,10 +11345,14 @@
       </c>
       <c r="Q36" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="R36" s="30">
+        <v>1</v>
+      </c>
+      <c r="S36" s="31">
+        <v>1</v>
+      </c>
       <c r="T36" s="31"/>
       <c r="U36" s="32"/>
       <c r="V36" s="33"/>
@@ -11480,7 +11502,7 @@
       <c r="FJ36" s="32"/>
       <c r="FK36" s="33"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>41</v>
       </c>
@@ -11495,7 +11517,7 @@
       </c>
       <c r="E37" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="36">
         <f t="shared" si="58"/>
@@ -11523,11 +11545,11 @@
       </c>
       <c r="L37" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="66"/>
@@ -11543,10 +11565,14 @@
       </c>
       <c r="Q37" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="30">
+        <v>1</v>
+      </c>
+      <c r="S37" s="31">
+        <v>1</v>
+      </c>
       <c r="T37" s="31"/>
       <c r="U37" s="32"/>
       <c r="V37" s="33"/>
@@ -11696,7 +11722,7 @@
       <c r="FJ37" s="32"/>
       <c r="FK37" s="33"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>42</v>
       </c>
@@ -11711,7 +11737,7 @@
       </c>
       <c r="E38" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="36">
         <f t="shared" si="58"/>
@@ -11739,7 +11765,7 @@
       </c>
       <c r="L38" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="65"/>
@@ -11761,7 +11787,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R38" s="30"/>
+      <c r="R38" s="30">
+        <v>1</v>
+      </c>
       <c r="S38" s="31"/>
       <c r="T38" s="31"/>
       <c r="U38" s="32"/>
@@ -11912,7 +11940,7 @@
       <c r="FJ38" s="32"/>
       <c r="FK38" s="33"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>43</v>
       </c>
@@ -11927,7 +11955,7 @@
       </c>
       <c r="E39" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="36">
         <f t="shared" si="58"/>
@@ -11955,7 +11983,7 @@
       </c>
       <c r="L39" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="65"/>
@@ -11977,7 +12005,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R39" s="30"/>
+      <c r="R39" s="30">
+        <v>1</v>
+      </c>
       <c r="S39" s="31"/>
       <c r="T39" s="31"/>
       <c r="U39" s="32"/>
@@ -12128,7 +12158,7 @@
       <c r="FJ39" s="32"/>
       <c r="FK39" s="33"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>44</v>
       </c>
@@ -12368,7 +12398,7 @@
       <c r="FJ40" s="32"/>
       <c r="FK40" s="33"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>45</v>
       </c>
@@ -12383,7 +12413,7 @@
       </c>
       <c r="E41" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="36">
         <f t="shared" si="58"/>
@@ -12411,15 +12441,15 @@
       </c>
       <c r="L41" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="23">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="23">
         <f t="shared" si="67"/>
@@ -12431,11 +12461,17 @@
       </c>
       <c r="Q41" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="30"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="R41" s="30">
+        <v>1</v>
+      </c>
+      <c r="S41" s="31">
+        <v>2</v>
+      </c>
+      <c r="T41" s="31">
+        <v>1</v>
+      </c>
       <c r="U41" s="32"/>
       <c r="V41" s="33"/>
       <c r="W41" s="30"/>
@@ -12584,7 +12620,7 @@
       <c r="FJ41" s="32"/>
       <c r="FK41" s="33"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>46</v>
       </c>
@@ -12619,7 +12655,7 @@
       </c>
       <c r="J42" s="23">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="23">
         <f t="shared" si="63"/>
@@ -12627,7 +12663,7 @@
       </c>
       <c r="L42" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="23">
         <f t="shared" si="65"/>
@@ -12649,7 +12685,9 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="R42" s="30"/>
+      <c r="R42" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="S42" s="31"/>
       <c r="T42" s="31"/>
       <c r="U42" s="32"/>
@@ -12800,7 +12838,7 @@
       <c r="FJ42" s="32"/>
       <c r="FK42" s="33"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>47</v>
       </c>
@@ -12815,7 +12853,7 @@
       </c>
       <c r="E43" s="36">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="36">
         <f t="shared" si="58"/>
@@ -12843,15 +12881,15 @@
       </c>
       <c r="L43" s="37">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="23">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="23">
         <f t="shared" si="67"/>
@@ -12863,11 +12901,17 @@
       </c>
       <c r="Q43" s="34">
         <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="30"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="R43" s="30">
+        <v>1</v>
+      </c>
+      <c r="S43" s="31">
+        <v>2</v>
+      </c>
+      <c r="T43" s="31">
+        <v>1</v>
+      </c>
       <c r="U43" s="32"/>
       <c r="V43" s="33"/>
       <c r="W43" s="30"/>
@@ -13016,17 +13060,17 @@
       <c r="FJ43" s="32"/>
       <c r="FK43" s="33"/>
     </row>
-    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="72" t="s">
         <v>242</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="D44" s="110">
+      <c r="D44" s="75">
         <v>76438151</v>
       </c>
       <c r="E44" s="36">
@@ -13476,7 +13520,7 @@
       <c r="FJ45" s="32"/>
       <c r="FK45" s="33"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>50</v>
       </c>
@@ -13491,7 +13535,7 @@
       </c>
       <c r="E46" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="36">
         <f t="shared" si="71"/>
@@ -13519,7 +13563,7 @@
       </c>
       <c r="L46" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="23">
         <f t="shared" si="78"/>
@@ -13541,7 +13585,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R46" s="30"/>
+      <c r="R46" s="30">
+        <v>1</v>
+      </c>
       <c r="S46" s="31"/>
       <c r="T46" s="31"/>
       <c r="U46" s="32"/>
@@ -13692,7 +13738,7 @@
       <c r="FJ46" s="32"/>
       <c r="FK46" s="33"/>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>51</v>
       </c>
@@ -13707,7 +13753,7 @@
       </c>
       <c r="E47" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="36">
         <f t="shared" si="71"/>
@@ -13735,7 +13781,7 @@
       </c>
       <c r="L47" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="23">
         <f t="shared" si="78"/>
@@ -13757,7 +13803,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R47" s="30"/>
+      <c r="R47" s="30">
+        <v>1</v>
+      </c>
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="32"/>
@@ -14148,7 +14196,7 @@
       <c r="FJ48" s="32"/>
       <c r="FK48" s="33"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>53</v>
       </c>
@@ -14163,7 +14211,7 @@
       </c>
       <c r="E49" s="36">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="36">
         <f t="shared" si="71"/>
@@ -14191,7 +14239,7 @@
       </c>
       <c r="L49" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" s="23">
         <f t="shared" si="78"/>
@@ -14213,7 +14261,9 @@
         <f t="shared" si="82"/>
         <v>8</v>
       </c>
-      <c r="R49" s="30"/>
+      <c r="R49" s="30">
+        <v>1</v>
+      </c>
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
       <c r="U49" s="32"/>
@@ -14602,7 +14652,7 @@
       <c r="FJ50" s="32"/>
       <c r="FK50" s="33"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>55</v>
       </c>
@@ -14617,7 +14667,7 @@
       </c>
       <c r="E51" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="36">
         <f t="shared" si="71"/>
@@ -14645,7 +14695,7 @@
       </c>
       <c r="L51" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="23">
         <f t="shared" si="78"/>
@@ -14667,7 +14717,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R51" s="30"/>
+      <c r="R51" s="30">
+        <v>1</v>
+      </c>
       <c r="S51" s="31"/>
       <c r="T51" s="31"/>
       <c r="U51" s="32"/>
@@ -14818,7 +14870,7 @@
       <c r="FJ51" s="32"/>
       <c r="FK51" s="33"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>56</v>
       </c>
@@ -14833,7 +14885,7 @@
       </c>
       <c r="E52" s="36">
         <f t="shared" si="70"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="36">
         <f t="shared" si="71"/>
@@ -14861,7 +14913,7 @@
       </c>
       <c r="L52" s="37">
         <f t="shared" si="77"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M52" s="23">
         <f t="shared" si="78"/>
@@ -14883,7 +14935,9 @@
         <f t="shared" si="82"/>
         <v>8</v>
       </c>
-      <c r="R52" s="30"/>
+      <c r="R52" s="30">
+        <v>1</v>
+      </c>
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
       <c r="U52" s="32"/>
@@ -15272,7 +15326,7 @@
       <c r="FJ53" s="32"/>
       <c r="FK53" s="33"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>58</v>
       </c>
@@ -15287,7 +15341,7 @@
       </c>
       <c r="E54" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="36">
         <f t="shared" si="71"/>
@@ -15315,7 +15369,7 @@
       </c>
       <c r="L54" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="78"/>
@@ -15337,7 +15391,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R54" s="30"/>
+      <c r="R54" s="30">
+        <v>1</v>
+      </c>
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
       <c r="U54" s="32"/>
@@ -15488,7 +15544,7 @@
       <c r="FJ54" s="32"/>
       <c r="FK54" s="33"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>59</v>
       </c>
@@ -15523,7 +15579,7 @@
       </c>
       <c r="J55" s="23">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="23">
         <f t="shared" si="76"/>
@@ -15531,7 +15587,7 @@
       </c>
       <c r="L55" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="23">
         <f t="shared" si="78"/>
@@ -15553,7 +15609,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R55" s="30"/>
+      <c r="R55" s="30" t="s">
+        <v>459</v>
+      </c>
       <c r="S55" s="31"/>
       <c r="T55" s="31"/>
       <c r="U55" s="32"/>
@@ -15704,7 +15762,7 @@
       <c r="FJ55" s="32"/>
       <c r="FK55" s="33"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>60</v>
       </c>
@@ -15719,7 +15777,7 @@
       </c>
       <c r="E56" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="36">
         <f t="shared" si="71"/>
@@ -15747,11 +15805,11 @@
       </c>
       <c r="L56" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N56" s="23">
         <f t="shared" si="79"/>
@@ -15767,10 +15825,14 @@
       </c>
       <c r="Q56" s="34">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="30"/>
-      <c r="S56" s="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="R56" s="30">
+        <v>1</v>
+      </c>
+      <c r="S56" s="31">
+        <v>0.25</v>
+      </c>
       <c r="T56" s="31"/>
       <c r="U56" s="32"/>
       <c r="V56" s="33"/>
@@ -15920,7 +15982,7 @@
       <c r="FJ56" s="32"/>
       <c r="FK56" s="33"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>61</v>
       </c>
@@ -15935,7 +15997,7 @@
       </c>
       <c r="E57" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="36">
         <f t="shared" si="71"/>
@@ -15963,7 +16025,7 @@
       </c>
       <c r="L57" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="78"/>
@@ -15985,7 +16047,9 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="R57" s="30"/>
+      <c r="R57" s="30">
+        <v>1</v>
+      </c>
       <c r="S57" s="31"/>
       <c r="T57" s="31"/>
       <c r="U57" s="32"/>
@@ -16596,7 +16660,7 @@
       <c r="FJ59" s="32"/>
       <c r="FK59" s="33"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
@@ -16611,7 +16675,7 @@
       </c>
       <c r="E60" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="36">
         <f t="shared" si="71"/>
@@ -16639,15 +16703,15 @@
       </c>
       <c r="L60" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" s="23">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="23">
         <f t="shared" si="80"/>
@@ -16659,11 +16723,17 @@
       </c>
       <c r="Q60" s="34">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="R60" s="30"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
+        <v>3</v>
+      </c>
+      <c r="R60" s="30">
+        <v>1</v>
+      </c>
+      <c r="S60" s="31">
+        <v>2</v>
+      </c>
+      <c r="T60" s="31">
+        <v>1</v>
+      </c>
       <c r="U60" s="32"/>
       <c r="V60" s="33"/>
       <c r="W60" s="30"/>
@@ -17046,7 +17116,7 @@
       <c r="FJ61" s="32"/>
       <c r="FK61" s="33"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>66</v>
       </c>
@@ -17061,7 +17131,7 @@
       </c>
       <c r="E62" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="36">
         <f t="shared" si="71"/>
@@ -17089,11 +17159,11 @@
       </c>
       <c r="L62" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="23">
         <f t="shared" si="79"/>
@@ -17109,10 +17179,14 @@
       </c>
       <c r="Q62" s="34">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="30"/>
-      <c r="S62" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="R62" s="30">
+        <v>1</v>
+      </c>
+      <c r="S62" s="31">
+        <v>1</v>
+      </c>
       <c r="T62" s="31"/>
       <c r="U62" s="32"/>
       <c r="V62" s="33"/>
@@ -17736,7 +17810,7 @@
       <c r="FJ64" s="32"/>
       <c r="FK64" s="33"/>
     </row>
-    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>69</v>
       </c>
@@ -18890,7 +18964,7 @@
       <c r="FJ69" s="32"/>
       <c r="FK69" s="33"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>74</v>
       </c>
@@ -18905,7 +18979,7 @@
       </c>
       <c r="E70" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="36">
         <f t="shared" si="71"/>
@@ -18933,11 +19007,11 @@
       </c>
       <c r="L70" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N70" s="23">
         <f t="shared" si="79"/>
@@ -18953,10 +19027,14 @@
       </c>
       <c r="Q70" s="34">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="R70" s="30"/>
-      <c r="S70" s="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="R70" s="30">
+        <v>1</v>
+      </c>
+      <c r="S70" s="31">
+        <v>0.5</v>
+      </c>
       <c r="T70" s="31"/>
       <c r="U70" s="32"/>
       <c r="V70" s="33"/>
@@ -19584,7 +19662,7 @@
       <c r="FJ72" s="32"/>
       <c r="FK72" s="33"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>77</v>
       </c>
@@ -19599,7 +19677,7 @@
       </c>
       <c r="E73" s="36">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="36">
         <f t="shared" si="71"/>
@@ -19627,11 +19705,11 @@
       </c>
       <c r="L73" s="37">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" s="23">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N73" s="23">
         <f t="shared" si="79"/>
@@ -19647,10 +19725,14 @@
       </c>
       <c r="Q73" s="34">
         <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="30"/>
-      <c r="S73" s="31"/>
+        <v>1.75</v>
+      </c>
+      <c r="R73" s="30">
+        <v>1</v>
+      </c>
+      <c r="S73" s="31">
+        <v>1.75</v>
+      </c>
       <c r="T73" s="31"/>
       <c r="U73" s="32"/>
       <c r="V73" s="33"/>
@@ -20040,7 +20122,7 @@
       <c r="FJ74" s="32"/>
       <c r="FK74" s="33"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>79</v>
       </c>
@@ -20512,7 +20594,7 @@
       <c r="FJ76" s="32"/>
       <c r="FK76" s="33"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>81</v>
       </c>
@@ -20728,7 +20810,7 @@
       <c r="FJ77" s="32"/>
       <c r="FK77" s="33"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>82</v>
       </c>
@@ -21204,7 +21286,7 @@
       <c r="FJ79" s="32"/>
       <c r="FK79" s="33"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>84</v>
       </c>
@@ -21420,7 +21502,7 @@
       <c r="FJ80" s="32"/>
       <c r="FK80" s="33"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>85</v>
       </c>
@@ -21636,7 +21718,7 @@
       <c r="FJ81" s="32"/>
       <c r="FK81" s="33"/>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>91</v>
       </c>
@@ -21852,7 +21934,7 @@
       <c r="FJ82" s="32"/>
       <c r="FK82" s="33"/>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>92</v>
       </c>
@@ -22068,7 +22150,7 @@
       <c r="FJ83" s="32"/>
       <c r="FK83" s="33"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>93</v>
       </c>
@@ -22738,7 +22820,7 @@
       <c r="FJ86" s="32"/>
       <c r="FK86" s="33"/>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>96</v>
       </c>
@@ -22962,7 +23044,7 @@
       <c r="FJ87" s="32"/>
       <c r="FK87" s="33"/>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>97</v>
       </c>
@@ -23178,7 +23260,7 @@
       <c r="FJ88" s="32"/>
       <c r="FK88" s="33"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>98</v>
       </c>
@@ -23394,7 +23476,7 @@
       <c r="FJ89" s="32"/>
       <c r="FK89" s="33"/>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>99</v>
       </c>
@@ -23610,7 +23692,7 @@
       <c r="FJ90" s="32"/>
       <c r="FK90" s="33"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>100</v>
       </c>
@@ -24078,7 +24160,7 @@
       <c r="FJ92" s="32"/>
       <c r="FK92" s="33"/>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>102</v>
       </c>
@@ -25006,7 +25088,7 @@
       <c r="FJ96" s="32"/>
       <c r="FK96" s="33"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>106</v>
       </c>
@@ -25222,7 +25304,7 @@
       <c r="FJ97" s="32"/>
       <c r="FK97" s="33"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>107</v>
       </c>
@@ -25438,7 +25520,7 @@
       <c r="FJ98" s="32"/>
       <c r="FK98" s="33"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>108</v>
       </c>
@@ -26104,7 +26186,7 @@
       <c r="FJ101" s="32"/>
       <c r="FK101" s="33"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>111</v>
       </c>
@@ -26552,7 +26634,7 @@
       <c r="FJ103" s="32"/>
       <c r="FK103" s="33"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>113</v>
       </c>
@@ -27236,7 +27318,7 @@
       <c r="FJ106" s="32"/>
       <c r="FK106" s="33"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>116</v>
       </c>
@@ -27452,7 +27534,7 @@
       <c r="FJ107" s="32"/>
       <c r="FK107" s="33"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>117</v>
       </c>
@@ -28120,7 +28202,7 @@
       <c r="FJ110" s="32"/>
       <c r="FK110" s="33"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>120</v>
       </c>
@@ -28788,7 +28870,7 @@
       <c r="FJ113" s="32"/>
       <c r="FK113" s="33"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>123</v>
       </c>
@@ -29474,7 +29556,7 @@
       <c r="FJ116" s="32"/>
       <c r="FK116" s="33"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>126</v>
       </c>
@@ -30180,7 +30262,7 @@
       <c r="FJ119" s="32"/>
       <c r="FK119" s="33"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>129</v>
       </c>
@@ -30396,7 +30478,7 @@
       <c r="FJ120" s="32"/>
       <c r="FK120" s="33"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>130</v>
       </c>
@@ -30606,7 +30688,7 @@
       <c r="FJ121" s="32"/>
       <c r="FK121" s="33"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>131</v>
       </c>
@@ -30816,7 +30898,7 @@
       <c r="FJ122" s="32"/>
       <c r="FK122" s="33"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>132</v>
       </c>
@@ -31026,7 +31108,7 @@
       <c r="FJ123" s="32"/>
       <c r="FK123" s="33"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>133</v>
       </c>
@@ -31236,7 +31318,7 @@
       <c r="FJ124" s="32"/>
       <c r="FK124" s="33"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>134</v>
       </c>
@@ -31446,7 +31528,7 @@
       <c r="FJ125" s="32"/>
       <c r="FK125" s="33"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>135</v>
       </c>
@@ -31656,7 +31738,7 @@
       <c r="FJ126" s="32"/>
       <c r="FK126" s="33"/>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>136</v>
       </c>
@@ -31866,7 +31948,7 @@
       <c r="FJ127" s="32"/>
       <c r="FK127" s="33"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>137</v>
       </c>
@@ -32076,7 +32158,7 @@
       <c r="FJ128" s="32"/>
       <c r="FK128" s="33"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>138</v>
       </c>
@@ -32286,7 +32368,7 @@
       <c r="FJ129" s="32"/>
       <c r="FK129" s="33"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -32496,7 +32578,7 @@
       <c r="FJ130" s="32"/>
       <c r="FK130" s="33"/>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>140</v>
       </c>
@@ -32706,7 +32788,7 @@
       <c r="FJ131" s="32"/>
       <c r="FK131" s="33"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -32916,7 +32998,7 @@
       <c r="FJ132" s="32"/>
       <c r="FK132" s="33"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -33126,7 +33208,7 @@
       <c r="FJ133" s="32"/>
       <c r="FK133" s="33"/>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -33336,7 +33418,7 @@
       <c r="FJ134" s="32"/>
       <c r="FK134" s="33"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -33546,7 +33628,7 @@
       <c r="FJ135" s="32"/>
       <c r="FK135" s="33"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -33756,7 +33838,7 @@
       <c r="FJ136" s="32"/>
       <c r="FK136" s="33"/>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -33966,7 +34048,7 @@
       <c r="FJ137" s="32"/>
       <c r="FK137" s="33"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -34176,7 +34258,7 @@
       <c r="FJ138" s="32"/>
       <c r="FK138" s="33"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -34386,7 +34468,7 @@
       <c r="FJ139" s="32"/>
       <c r="FK139" s="33"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -34596,7 +34678,7 @@
       <c r="FJ140" s="32"/>
       <c r="FK140" s="33"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -34806,7 +34888,7 @@
       <c r="FJ141" s="32"/>
       <c r="FK141" s="33"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -35016,7 +35098,7 @@
       <c r="FJ142" s="32"/>
       <c r="FK142" s="33"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -35226,7 +35308,7 @@
       <c r="FJ143" s="32"/>
       <c r="FK143" s="33"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -35436,7 +35518,7 @@
       <c r="FJ144" s="32"/>
       <c r="FK144" s="33"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -35646,7 +35728,7 @@
       <c r="FJ145" s="32"/>
       <c r="FK145" s="33"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -35856,7 +35938,7 @@
       <c r="FJ146" s="32"/>
       <c r="FK146" s="33"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -36066,7 +36148,7 @@
       <c r="FJ147" s="32"/>
       <c r="FK147" s="33"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -36276,7 +36358,7 @@
       <c r="FJ148" s="32"/>
       <c r="FK148" s="33"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -36486,7 +36568,7 @@
       <c r="FJ149" s="32"/>
       <c r="FK149" s="33"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -36696,7 +36778,7 @@
       <c r="FJ150" s="32"/>
       <c r="FK150" s="33"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -36906,7 +36988,7 @@
       <c r="FJ151" s="32"/>
       <c r="FK151" s="33"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -37116,7 +37198,7 @@
       <c r="FJ152" s="32"/>
       <c r="FK152" s="33"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -37326,7 +37408,7 @@
       <c r="FJ153" s="32"/>
       <c r="FK153" s="33"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -37536,7 +37618,7 @@
       <c r="FJ154" s="32"/>
       <c r="FK154" s="33"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -37746,7 +37828,7 @@
       <c r="FJ155" s="32"/>
       <c r="FK155" s="33"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -37956,7 +38038,7 @@
       <c r="FJ156" s="32"/>
       <c r="FK156" s="33"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -38166,7 +38248,7 @@
       <c r="FJ157" s="32"/>
       <c r="FK157" s="33"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -38376,7 +38458,7 @@
       <c r="FJ158" s="32"/>
       <c r="FK158" s="33"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -38586,7 +38668,7 @@
       <c r="FJ159" s="32"/>
       <c r="FK159" s="33"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -38796,7 +38878,7 @@
       <c r="FJ160" s="32"/>
       <c r="FK160" s="33"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -39013,15 +39095,15 @@
       <c r="D162" s="49"/>
       <c r="E162" s="50">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>227.55</v>
+        <v>258.55</v>
       </c>
       <c r="F162" s="50">
         <f t="shared" si="122"/>
-        <v>20.45</v>
+        <v>21.45</v>
       </c>
       <c r="G162" s="50">
         <f t="shared" si="122"/>
-        <v>3.1666666666666727</v>
+        <v>3.3333333333333397</v>
       </c>
       <c r="H162" s="50">
         <f t="shared" si="122"/>
@@ -39033,7 +39115,7 @@
       </c>
       <c r="J162" s="50">
         <f t="shared" si="122"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K162" s="50">
         <f t="shared" si="122"/>
@@ -39041,15 +39123,15 @@
       </c>
       <c r="L162" s="50">
         <f t="shared" si="122"/>
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="M162" s="50">
         <f t="shared" si="122"/>
-        <v>98.25</v>
+        <v>111.75</v>
       </c>
       <c r="N162" s="50">
         <f t="shared" si="122"/>
-        <v>20.75</v>
+        <v>23.75</v>
       </c>
       <c r="O162" s="50">
         <f t="shared" si="122"/>
@@ -39061,19 +39143,19 @@
       </c>
       <c r="Q162" s="50">
         <f t="shared" si="122"/>
-        <v>1065.75</v>
+        <v>1082.25</v>
       </c>
       <c r="R162" s="39">
         <f t="shared" si="122"/>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="S162" s="41">
         <f t="shared" si="122"/>
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="T162" s="41">
         <f t="shared" si="122"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="U162" s="41">
         <f t="shared" si="122"/>
@@ -39974,33 +40056,45 @@
     </row>
   </sheetData>
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
-    <filterColumn colId="1">
-      <colorFilter dxfId="0"/>
+    <filterColumn colId="17">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BU9:BY9"/>
+    <mergeCell ref="BZ9:CD9"/>
+    <mergeCell ref="ER10:EV10"/>
+    <mergeCell ref="EW10:FA10"/>
+    <mergeCell ref="FB10:FF10"/>
+    <mergeCell ref="CY9:DC9"/>
+    <mergeCell ref="DD9:DH9"/>
+    <mergeCell ref="DI9:DM9"/>
+    <mergeCell ref="DN9:DR9"/>
+    <mergeCell ref="DS9:DW9"/>
+    <mergeCell ref="DX9:EB9"/>
+    <mergeCell ref="CJ10:CN10"/>
+    <mergeCell ref="CO10:CS10"/>
+    <mergeCell ref="CT10:CX10"/>
+    <mergeCell ref="CY10:DC10"/>
+    <mergeCell ref="DD10:DH10"/>
     <mergeCell ref="BA8:FK8"/>
     <mergeCell ref="R9:V9"/>
     <mergeCell ref="W9:AA9"/>
@@ -40017,382 +40111,370 @@
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BU9:BY9"/>
-    <mergeCell ref="BZ9:CD9"/>
-    <mergeCell ref="ER10:EV10"/>
-    <mergeCell ref="EW10:FA10"/>
-    <mergeCell ref="FB10:FF10"/>
-    <mergeCell ref="CY9:DC9"/>
-    <mergeCell ref="DD9:DH9"/>
-    <mergeCell ref="DI9:DM9"/>
-    <mergeCell ref="DN9:DR9"/>
-    <mergeCell ref="DS9:DW9"/>
-    <mergeCell ref="DX9:EB9"/>
-    <mergeCell ref="CJ10:CN10"/>
-    <mergeCell ref="CO10:CS10"/>
-    <mergeCell ref="CT10:CX10"/>
-    <mergeCell ref="CY10:DC10"/>
-    <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">
-    <cfRule type="containsText" dxfId="95" priority="288" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="94" priority="288" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="289" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="93" priority="289" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="290" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="92" priority="290" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DS12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="291" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="91" priority="291" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DS12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS152:EL161 FB152:FK161 ER152:EV161">
-    <cfRule type="containsText" dxfId="91" priority="284" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="90" priority="284" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="285" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="89" priority="285" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="286" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="88" priority="286" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DS152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="287" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="87" priority="287" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DS152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EW12:FA151">
-    <cfRule type="containsText" dxfId="87" priority="216" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="86" priority="216" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="217" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="85" priority="217" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="218" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="84" priority="218" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EW12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="219" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="83" priority="219" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EW12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EW152:FA161">
-    <cfRule type="containsText" dxfId="83" priority="212" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="82" priority="212" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="213" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="81" priority="213" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="214" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="80" priority="214" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EW152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="215" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="79" priority="215" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EW152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS12:EL161 ER12:FK161">
-    <cfRule type="containsText" dxfId="79" priority="195" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="78" priority="195" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",DS12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:DC151 DI12:DM151">
-    <cfRule type="containsText" dxfId="78" priority="102" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="77" priority="102" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="103" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="76" priority="103" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="104" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="75" priority="104" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CJ12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="105" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="74" priority="105" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CJ12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ152:DC161 DI152:DM161">
-    <cfRule type="containsText" dxfId="74" priority="98" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="73" priority="98" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="99" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="72" priority="99" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="100" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="71" priority="100" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CJ152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="101" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="70" priority="101" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CJ152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN12:DR151">
-    <cfRule type="containsText" dxfId="70" priority="94" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="69" priority="94" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="68" priority="95" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="96" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="67" priority="96" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DN12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="97" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="66" priority="97" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DN12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DN152:DR161">
-    <cfRule type="containsText" dxfId="66" priority="90" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="65" priority="90" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="91" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="64" priority="91" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="92" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="63" priority="92" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DN152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="93" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="62" priority="93" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DN152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ12:DC161 DI12:DR161">
-    <cfRule type="containsText" dxfId="62" priority="89" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="61" priority="89" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",CJ12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BT151 BZ12:CD151">
-    <cfRule type="containsText" dxfId="61" priority="85" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="59" priority="86" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="87" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="58" priority="87" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BA12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="88" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="57" priority="88" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA152:BT161 BZ152:CD161">
-    <cfRule type="containsText" dxfId="57" priority="81" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="56" priority="81" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="82" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="55" priority="82" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="83" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="54" priority="83" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BA152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="84" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="53" priority="84" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BA152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE12:CI151">
-    <cfRule type="containsText" dxfId="53" priority="77" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="51" priority="78" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="50" priority="79" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CE12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="49" priority="80" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CE12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE152:CI161">
-    <cfRule type="containsText" dxfId="49" priority="73" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="48" priority="73" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="74" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="47" priority="74" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="75" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",CE152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="76" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="45" priority="76" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",CE152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BT161 BZ12:CI161">
-    <cfRule type="containsText" dxfId="45" priority="72" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="44" priority="72" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",BA12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:AU151">
-    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="69" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="70" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="41" priority="70" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",R12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="71" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R152:AU161">
-    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="39" priority="64" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="38" priority="65" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="66" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="37" priority="66" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",R152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="67" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="36" priority="67" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",R152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12:AZ151">
-    <cfRule type="containsText" dxfId="36" priority="60" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="35" priority="60" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="34" priority="61" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="62" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="33" priority="62" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",AV12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="63" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="32" priority="63" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",AV12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV152:AZ161">
-    <cfRule type="containsText" dxfId="32" priority="56" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="30" priority="57" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="58" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="29" priority="58" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",AV152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="28" priority="59" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",AV152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12:AZ161">
-    <cfRule type="containsText" dxfId="28" priority="55" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="27" priority="55" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",R12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BY151">
-    <cfRule type="containsText" dxfId="27" priority="24" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BU12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BU12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU152:BY161">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",BU152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",BU152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU12:BY161">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",BU12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD12:DH151">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DD12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DD12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD152:DH161">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",DD152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",DD152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DD12:DH161">
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",DD12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM12:EQ151">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="LCG">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="LCG">
       <formula>NOT(ISERROR(SEARCH("LCG",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EM12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EM12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM152:EQ161">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="V">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="L">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="L">
       <formula>NOT(ISERROR(SEARCH("L",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="DM">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="DM">
       <formula>NOT(ISERROR(SEARCH("DM",EM152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="F">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="F">
       <formula>NOT(ISERROR(SEARCH("F",EM152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM12:EQ161">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="LSG">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="LSG">
       <formula>NOT(ISERROR(SEARCH("LSG",EM12)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9579C7-05A3-4553-A4E1-080355D9D7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161DA37-A683-4AAE-AA7A-7661ABF3B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -2311,31 +2311,22 @@
     <xf numFmtId="49" fontId="3" fillId="14" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,23 +2389,32 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3700,10 +3700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3782,25 +3783,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="A1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
       <c r="V1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AF1" s="2"/>
@@ -3985,36 +3986,36 @@
       <c r="FK2" s="2"/>
     </row>
     <row r="3" spans="1:167" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
+      <c r="A3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="105" t="s">
+      <c r="X3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="106"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
       <c r="AA3" s="5">
         <v>30</v>
       </c>
@@ -4183,11 +4184,11 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="105" t="s">
+      <c r="X4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="106"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="77"/>
       <c r="AA4" s="5">
         <v>240</v>
       </c>
@@ -4333,25 +4334,25 @@
       <c r="FK4" s="1"/>
     </row>
     <row r="5" spans="1:167" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -4690,702 +4691,702 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:167" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="92" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="78" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="78" t="s">
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
+      <c r="Y8" s="99"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="99"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="99"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="100"/>
+      <c r="BA8" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="BB8" s="79"/>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
-      <c r="BF8" s="79"/>
-      <c r="BG8" s="79"/>
-      <c r="BH8" s="79"/>
-      <c r="BI8" s="79"/>
-      <c r="BJ8" s="79"/>
-      <c r="BK8" s="79"/>
-      <c r="BL8" s="79"/>
-      <c r="BM8" s="79"/>
-      <c r="BN8" s="79"/>
-      <c r="BO8" s="79"/>
-      <c r="BP8" s="79"/>
-      <c r="BQ8" s="79"/>
-      <c r="BR8" s="79"/>
-      <c r="BS8" s="79"/>
-      <c r="BT8" s="79"/>
-      <c r="BU8" s="79"/>
-      <c r="BV8" s="79"/>
-      <c r="BW8" s="79"/>
-      <c r="BX8" s="79"/>
-      <c r="BY8" s="79"/>
-      <c r="BZ8" s="79"/>
-      <c r="CA8" s="79"/>
-      <c r="CB8" s="79"/>
-      <c r="CC8" s="79"/>
-      <c r="CD8" s="79"/>
-      <c r="CE8" s="79"/>
-      <c r="CF8" s="79"/>
-      <c r="CG8" s="79"/>
-      <c r="CH8" s="79"/>
-      <c r="CI8" s="79"/>
-      <c r="CJ8" s="79"/>
-      <c r="CK8" s="79"/>
-      <c r="CL8" s="79"/>
-      <c r="CM8" s="79"/>
-      <c r="CN8" s="79"/>
-      <c r="CO8" s="79"/>
-      <c r="CP8" s="79"/>
-      <c r="CQ8" s="79"/>
-      <c r="CR8" s="79"/>
-      <c r="CS8" s="79"/>
-      <c r="CT8" s="79"/>
-      <c r="CU8" s="79"/>
-      <c r="CV8" s="79"/>
-      <c r="CW8" s="79"/>
-      <c r="CX8" s="79"/>
-      <c r="CY8" s="79"/>
-      <c r="CZ8" s="79"/>
-      <c r="DA8" s="79"/>
-      <c r="DB8" s="79"/>
-      <c r="DC8" s="79"/>
-      <c r="DD8" s="79"/>
-      <c r="DE8" s="79"/>
-      <c r="DF8" s="79"/>
-      <c r="DG8" s="79"/>
-      <c r="DH8" s="79"/>
-      <c r="DI8" s="79"/>
-      <c r="DJ8" s="79"/>
-      <c r="DK8" s="79"/>
-      <c r="DL8" s="79"/>
-      <c r="DM8" s="79"/>
-      <c r="DN8" s="79"/>
-      <c r="DO8" s="79"/>
-      <c r="DP8" s="79"/>
-      <c r="DQ8" s="79"/>
-      <c r="DR8" s="79"/>
-      <c r="DS8" s="79"/>
-      <c r="DT8" s="79"/>
-      <c r="DU8" s="79"/>
-      <c r="DV8" s="79"/>
-      <c r="DW8" s="79"/>
-      <c r="DX8" s="79"/>
-      <c r="DY8" s="79"/>
-      <c r="DZ8" s="79"/>
-      <c r="EA8" s="79"/>
-      <c r="EB8" s="79"/>
-      <c r="EC8" s="79"/>
-      <c r="ED8" s="79"/>
-      <c r="EE8" s="79"/>
-      <c r="EF8" s="79"/>
-      <c r="EG8" s="79"/>
-      <c r="EH8" s="79"/>
-      <c r="EI8" s="79"/>
-      <c r="EJ8" s="79"/>
-      <c r="EK8" s="79"/>
-      <c r="EL8" s="79"/>
-      <c r="EM8" s="79"/>
-      <c r="EN8" s="79"/>
-      <c r="EO8" s="79"/>
-      <c r="EP8" s="79"/>
-      <c r="EQ8" s="79"/>
-      <c r="ER8" s="79"/>
-      <c r="ES8" s="79"/>
-      <c r="ET8" s="79"/>
-      <c r="EU8" s="79"/>
-      <c r="EV8" s="79"/>
-      <c r="EW8" s="79"/>
-      <c r="EX8" s="79"/>
-      <c r="EY8" s="79"/>
-      <c r="EZ8" s="79"/>
-      <c r="FA8" s="79"/>
-      <c r="FB8" s="79"/>
-      <c r="FC8" s="79"/>
-      <c r="FD8" s="79"/>
-      <c r="FE8" s="79"/>
-      <c r="FF8" s="79"/>
-      <c r="FG8" s="79"/>
-      <c r="FH8" s="79"/>
-      <c r="FI8" s="79"/>
-      <c r="FJ8" s="79"/>
-      <c r="FK8" s="80"/>
+      <c r="BB8" s="99"/>
+      <c r="BC8" s="99"/>
+      <c r="BD8" s="99"/>
+      <c r="BE8" s="99"/>
+      <c r="BF8" s="99"/>
+      <c r="BG8" s="99"/>
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="99"/>
+      <c r="BJ8" s="99"/>
+      <c r="BK8" s="99"/>
+      <c r="BL8" s="99"/>
+      <c r="BM8" s="99"/>
+      <c r="BN8" s="99"/>
+      <c r="BO8" s="99"/>
+      <c r="BP8" s="99"/>
+      <c r="BQ8" s="99"/>
+      <c r="BR8" s="99"/>
+      <c r="BS8" s="99"/>
+      <c r="BT8" s="99"/>
+      <c r="BU8" s="99"/>
+      <c r="BV8" s="99"/>
+      <c r="BW8" s="99"/>
+      <c r="BX8" s="99"/>
+      <c r="BY8" s="99"/>
+      <c r="BZ8" s="99"/>
+      <c r="CA8" s="99"/>
+      <c r="CB8" s="99"/>
+      <c r="CC8" s="99"/>
+      <c r="CD8" s="99"/>
+      <c r="CE8" s="99"/>
+      <c r="CF8" s="99"/>
+      <c r="CG8" s="99"/>
+      <c r="CH8" s="99"/>
+      <c r="CI8" s="99"/>
+      <c r="CJ8" s="99"/>
+      <c r="CK8" s="99"/>
+      <c r="CL8" s="99"/>
+      <c r="CM8" s="99"/>
+      <c r="CN8" s="99"/>
+      <c r="CO8" s="99"/>
+      <c r="CP8" s="99"/>
+      <c r="CQ8" s="99"/>
+      <c r="CR8" s="99"/>
+      <c r="CS8" s="99"/>
+      <c r="CT8" s="99"/>
+      <c r="CU8" s="99"/>
+      <c r="CV8" s="99"/>
+      <c r="CW8" s="99"/>
+      <c r="CX8" s="99"/>
+      <c r="CY8" s="99"/>
+      <c r="CZ8" s="99"/>
+      <c r="DA8" s="99"/>
+      <c r="DB8" s="99"/>
+      <c r="DC8" s="99"/>
+      <c r="DD8" s="99"/>
+      <c r="DE8" s="99"/>
+      <c r="DF8" s="99"/>
+      <c r="DG8" s="99"/>
+      <c r="DH8" s="99"/>
+      <c r="DI8" s="99"/>
+      <c r="DJ8" s="99"/>
+      <c r="DK8" s="99"/>
+      <c r="DL8" s="99"/>
+      <c r="DM8" s="99"/>
+      <c r="DN8" s="99"/>
+      <c r="DO8" s="99"/>
+      <c r="DP8" s="99"/>
+      <c r="DQ8" s="99"/>
+      <c r="DR8" s="99"/>
+      <c r="DS8" s="99"/>
+      <c r="DT8" s="99"/>
+      <c r="DU8" s="99"/>
+      <c r="DV8" s="99"/>
+      <c r="DW8" s="99"/>
+      <c r="DX8" s="99"/>
+      <c r="DY8" s="99"/>
+      <c r="DZ8" s="99"/>
+      <c r="EA8" s="99"/>
+      <c r="EB8" s="99"/>
+      <c r="EC8" s="99"/>
+      <c r="ED8" s="99"/>
+      <c r="EE8" s="99"/>
+      <c r="EF8" s="99"/>
+      <c r="EG8" s="99"/>
+      <c r="EH8" s="99"/>
+      <c r="EI8" s="99"/>
+      <c r="EJ8" s="99"/>
+      <c r="EK8" s="99"/>
+      <c r="EL8" s="99"/>
+      <c r="EM8" s="99"/>
+      <c r="EN8" s="99"/>
+      <c r="EO8" s="99"/>
+      <c r="EP8" s="99"/>
+      <c r="EQ8" s="99"/>
+      <c r="ER8" s="99"/>
+      <c r="ES8" s="99"/>
+      <c r="ET8" s="99"/>
+      <c r="EU8" s="99"/>
+      <c r="EV8" s="99"/>
+      <c r="EW8" s="99"/>
+      <c r="EX8" s="99"/>
+      <c r="EY8" s="99"/>
+      <c r="EZ8" s="99"/>
+      <c r="FA8" s="99"/>
+      <c r="FB8" s="99"/>
+      <c r="FC8" s="99"/>
+      <c r="FD8" s="99"/>
+      <c r="FE8" s="99"/>
+      <c r="FF8" s="99"/>
+      <c r="FG8" s="99"/>
+      <c r="FH8" s="99"/>
+      <c r="FI8" s="99"/>
+      <c r="FJ8" s="99"/>
+      <c r="FK8" s="100"/>
     </row>
     <row r="9" spans="1:167" s="18" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="75" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="75" t="str">
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="104" t="str">
         <f t="shared" ref="W9" si="0">UPPER(TEXT(W10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="75" t="str">
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="104" t="str">
         <f t="shared" ref="AB9" si="1">UPPER(TEXT(AB10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="75" t="str">
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="104" t="str">
         <f t="shared" ref="AG9" si="2">UPPER(TEXT(AG10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="75" t="str">
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="104" t="str">
         <f t="shared" ref="AL9" si="3">UPPER(TEXT(AL10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="75" t="str">
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="104" t="str">
         <f t="shared" ref="AQ9" si="4">UPPER(TEXT(AQ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="75" t="str">
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="104" t="str">
         <f t="shared" ref="AV9" si="5">UPPER(TEXT(AV10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="75" t="str">
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="104" t="str">
         <f t="shared" ref="BA9" si="6">UPPER(TEXT(BA10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="75" t="str">
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="104" t="str">
         <f t="shared" ref="BF9" si="7">UPPER(TEXT(BF10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="BG9" s="76"/>
-      <c r="BH9" s="76"/>
-      <c r="BI9" s="76"/>
-      <c r="BJ9" s="77"/>
-      <c r="BK9" s="75" t="str">
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="106"/>
+      <c r="BK9" s="104" t="str">
         <f t="shared" ref="BK9" si="8">UPPER(TEXT(BK10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="BL9" s="76"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="76"/>
-      <c r="BO9" s="77"/>
-      <c r="BP9" s="75" t="str">
+      <c r="BL9" s="105"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="106"/>
+      <c r="BP9" s="104" t="str">
         <f t="shared" ref="BP9" si="9">UPPER(TEXT(BP10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="BQ9" s="76"/>
-      <c r="BR9" s="76"/>
-      <c r="BS9" s="76"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="75" t="str">
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="106"/>
+      <c r="BU9" s="104" t="str">
         <f t="shared" ref="BU9" si="10">UPPER(TEXT(BU10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="BV9" s="76"/>
-      <c r="BW9" s="76"/>
-      <c r="BX9" s="76"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="75" t="str">
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="105"/>
+      <c r="BY9" s="106"/>
+      <c r="BZ9" s="104" t="str">
         <f t="shared" ref="BZ9" si="11">UPPER(TEXT(BZ10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="CA9" s="76"/>
-      <c r="CB9" s="76"/>
-      <c r="CC9" s="76"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="75" t="str">
+      <c r="CA9" s="105"/>
+      <c r="CB9" s="105"/>
+      <c r="CC9" s="105"/>
+      <c r="CD9" s="106"/>
+      <c r="CE9" s="104" t="str">
         <f t="shared" ref="CE9" si="12">UPPER(TEXT(CE10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="CF9" s="76"/>
-      <c r="CG9" s="76"/>
-      <c r="CH9" s="76"/>
-      <c r="CI9" s="77"/>
-      <c r="CJ9" s="75" t="str">
+      <c r="CF9" s="105"/>
+      <c r="CG9" s="105"/>
+      <c r="CH9" s="105"/>
+      <c r="CI9" s="106"/>
+      <c r="CJ9" s="104" t="str">
         <f t="shared" ref="CJ9" si="13">UPPER(TEXT(CJ10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="CK9" s="76"/>
-      <c r="CL9" s="76"/>
-      <c r="CM9" s="76"/>
-      <c r="CN9" s="77"/>
-      <c r="CO9" s="75" t="str">
+      <c r="CK9" s="105"/>
+      <c r="CL9" s="105"/>
+      <c r="CM9" s="105"/>
+      <c r="CN9" s="106"/>
+      <c r="CO9" s="104" t="str">
         <f t="shared" ref="CO9" si="14">UPPER(TEXT(CO10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="CP9" s="76"/>
-      <c r="CQ9" s="76"/>
-      <c r="CR9" s="76"/>
-      <c r="CS9" s="77"/>
-      <c r="CT9" s="75" t="str">
+      <c r="CP9" s="105"/>
+      <c r="CQ9" s="105"/>
+      <c r="CR9" s="105"/>
+      <c r="CS9" s="106"/>
+      <c r="CT9" s="104" t="str">
         <f t="shared" ref="CT9" si="15">UPPER(TEXT(CT10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="CU9" s="76"/>
-      <c r="CV9" s="76"/>
-      <c r="CW9" s="76"/>
-      <c r="CX9" s="77"/>
-      <c r="CY9" s="75" t="str">
+      <c r="CU9" s="105"/>
+      <c r="CV9" s="105"/>
+      <c r="CW9" s="105"/>
+      <c r="CX9" s="106"/>
+      <c r="CY9" s="104" t="str">
         <f t="shared" ref="CY9" si="16">UPPER(TEXT(CY10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="CZ9" s="76"/>
-      <c r="DA9" s="76"/>
-      <c r="DB9" s="76"/>
-      <c r="DC9" s="77"/>
-      <c r="DD9" s="75" t="str">
+      <c r="CZ9" s="105"/>
+      <c r="DA9" s="105"/>
+      <c r="DB9" s="105"/>
+      <c r="DC9" s="106"/>
+      <c r="DD9" s="104" t="str">
         <f t="shared" ref="DD9" si="17">UPPER(TEXT(DD10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="DE9" s="76"/>
-      <c r="DF9" s="76"/>
-      <c r="DG9" s="76"/>
-      <c r="DH9" s="77"/>
-      <c r="DI9" s="75" t="str">
+      <c r="DE9" s="105"/>
+      <c r="DF9" s="105"/>
+      <c r="DG9" s="105"/>
+      <c r="DH9" s="106"/>
+      <c r="DI9" s="104" t="str">
         <f t="shared" ref="DI9" si="18">UPPER(TEXT(DI10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="DJ9" s="76"/>
-      <c r="DK9" s="76"/>
-      <c r="DL9" s="76"/>
-      <c r="DM9" s="77"/>
-      <c r="DN9" s="75" t="str">
+      <c r="DJ9" s="105"/>
+      <c r="DK9" s="105"/>
+      <c r="DL9" s="105"/>
+      <c r="DM9" s="106"/>
+      <c r="DN9" s="104" t="str">
         <f t="shared" ref="DN9" si="19">UPPER(TEXT(DN10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="DO9" s="76"/>
-      <c r="DP9" s="76"/>
-      <c r="DQ9" s="76"/>
-      <c r="DR9" s="77"/>
-      <c r="DS9" s="75" t="str">
+      <c r="DO9" s="105"/>
+      <c r="DP9" s="105"/>
+      <c r="DQ9" s="105"/>
+      <c r="DR9" s="106"/>
+      <c r="DS9" s="104" t="str">
         <f t="shared" ref="DS9" si="20">UPPER(TEXT(DS10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="DT9" s="76"/>
-      <c r="DU9" s="76"/>
-      <c r="DV9" s="76"/>
-      <c r="DW9" s="77"/>
-      <c r="DX9" s="75" t="str">
+      <c r="DT9" s="105"/>
+      <c r="DU9" s="105"/>
+      <c r="DV9" s="105"/>
+      <c r="DW9" s="106"/>
+      <c r="DX9" s="104" t="str">
         <f t="shared" ref="DX9" si="21">UPPER(TEXT(DX10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="DY9" s="76"/>
-      <c r="DZ9" s="76"/>
-      <c r="EA9" s="76"/>
-      <c r="EB9" s="77"/>
-      <c r="EC9" s="75" t="str">
+      <c r="DY9" s="105"/>
+      <c r="DZ9" s="105"/>
+      <c r="EA9" s="105"/>
+      <c r="EB9" s="106"/>
+      <c r="EC9" s="104" t="str">
         <f t="shared" ref="EC9" si="22">UPPER(TEXT(EC10,"DDDD"))</f>
         <v>DOMINGO</v>
       </c>
-      <c r="ED9" s="76"/>
-      <c r="EE9" s="76"/>
-      <c r="EF9" s="76"/>
-      <c r="EG9" s="77"/>
-      <c r="EH9" s="75" t="str">
+      <c r="ED9" s="105"/>
+      <c r="EE9" s="105"/>
+      <c r="EF9" s="105"/>
+      <c r="EG9" s="106"/>
+      <c r="EH9" s="104" t="str">
         <f t="shared" ref="EH9" si="23">UPPER(TEXT(EH10,"DDDD"))</f>
         <v>LUNES</v>
       </c>
-      <c r="EI9" s="76"/>
-      <c r="EJ9" s="76"/>
-      <c r="EK9" s="76"/>
-      <c r="EL9" s="77"/>
-      <c r="EM9" s="75" t="str">
+      <c r="EI9" s="105"/>
+      <c r="EJ9" s="105"/>
+      <c r="EK9" s="105"/>
+      <c r="EL9" s="106"/>
+      <c r="EM9" s="104" t="str">
         <f t="shared" ref="EM9" si="24">UPPER(TEXT(EM10,"DDDD"))</f>
         <v>MARTES</v>
       </c>
-      <c r="EN9" s="76"/>
-      <c r="EO9" s="76"/>
-      <c r="EP9" s="76"/>
-      <c r="EQ9" s="77"/>
-      <c r="ER9" s="75" t="str">
+      <c r="EN9" s="105"/>
+      <c r="EO9" s="105"/>
+      <c r="EP9" s="105"/>
+      <c r="EQ9" s="106"/>
+      <c r="ER9" s="104" t="str">
         <f t="shared" ref="ER9" si="25">UPPER(TEXT(ER10,"DDDD"))</f>
         <v>MIÉRCOLES</v>
       </c>
-      <c r="ES9" s="76"/>
-      <c r="ET9" s="76"/>
-      <c r="EU9" s="76"/>
-      <c r="EV9" s="77"/>
-      <c r="EW9" s="75" t="str">
+      <c r="ES9" s="105"/>
+      <c r="ET9" s="105"/>
+      <c r="EU9" s="105"/>
+      <c r="EV9" s="106"/>
+      <c r="EW9" s="104" t="str">
         <f t="shared" ref="EW9" si="26">UPPER(TEXT(EW10,"DDDD"))</f>
         <v>JUEVES</v>
       </c>
-      <c r="EX9" s="76"/>
-      <c r="EY9" s="76"/>
-      <c r="EZ9" s="76"/>
-      <c r="FA9" s="77"/>
-      <c r="FB9" s="75" t="str">
+      <c r="EX9" s="105"/>
+      <c r="EY9" s="105"/>
+      <c r="EZ9" s="105"/>
+      <c r="FA9" s="106"/>
+      <c r="FB9" s="104" t="str">
         <f t="shared" ref="FB9" si="27">UPPER(TEXT(FB10,"DDDD"))</f>
         <v>VIERNES</v>
       </c>
-      <c r="FC9" s="76"/>
-      <c r="FD9" s="76"/>
-      <c r="FE9" s="76"/>
-      <c r="FF9" s="77"/>
-      <c r="FG9" s="75" t="str">
+      <c r="FC9" s="105"/>
+      <c r="FD9" s="105"/>
+      <c r="FE9" s="105"/>
+      <c r="FF9" s="106"/>
+      <c r="FG9" s="104" t="str">
         <f t="shared" ref="FG9" si="28">UPPER(TEXT(FG10,"DDDD"))</f>
         <v>SÁBADO</v>
       </c>
-      <c r="FH9" s="76"/>
-      <c r="FI9" s="76"/>
-      <c r="FJ9" s="76"/>
-      <c r="FK9" s="77"/>
+      <c r="FH9" s="105"/>
+      <c r="FI9" s="105"/>
+      <c r="FJ9" s="105"/>
+      <c r="FK9" s="106"/>
     </row>
     <row r="10" spans="1:167" s="12" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="72">
+      <c r="A10" s="82"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="101">
         <v>44736</v>
       </c>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="72">
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="101">
         <f>+R10+1</f>
         <v>44737</v>
       </c>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="72">
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="101">
         <f t="shared" ref="AB10" si="29">+W10+1</f>
         <v>44738</v>
       </c>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="72">
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="101">
         <f t="shared" ref="AG10" si="30">+AB10+1</f>
         <v>44739</v>
       </c>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="72">
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="101">
         <f t="shared" ref="AL10" si="31">+AG10+1</f>
         <v>44740</v>
       </c>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="72">
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="101">
         <f t="shared" ref="AQ10" si="32">+AL10+1</f>
         <v>44741</v>
       </c>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="72">
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="101">
         <f t="shared" ref="AV10" si="33">+AQ10+1</f>
         <v>44742</v>
       </c>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="72">
+      <c r="AW10" s="102"/>
+      <c r="AX10" s="102"/>
+      <c r="AY10" s="102"/>
+      <c r="AZ10" s="103"/>
+      <c r="BA10" s="101">
         <f t="shared" ref="BA10" si="34">+AV10+1</f>
         <v>44743</v>
       </c>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="72">
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="103"/>
+      <c r="BF10" s="101">
         <f t="shared" ref="BF10" si="35">+BA10+1</f>
         <v>44744</v>
       </c>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="72">
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
+      <c r="BJ10" s="103"/>
+      <c r="BK10" s="101">
         <f t="shared" ref="BK10" si="36">+BF10+1</f>
         <v>44745</v>
       </c>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="73"/>
-      <c r="BN10" s="73"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="72">
+      <c r="BL10" s="102"/>
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="103"/>
+      <c r="BP10" s="101">
         <f t="shared" ref="BP10" si="37">+BK10+1</f>
         <v>44746</v>
       </c>
-      <c r="BQ10" s="73"/>
-      <c r="BR10" s="73"/>
-      <c r="BS10" s="73"/>
-      <c r="BT10" s="74"/>
-      <c r="BU10" s="72">
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="102"/>
+      <c r="BS10" s="102"/>
+      <c r="BT10" s="103"/>
+      <c r="BU10" s="101">
         <f t="shared" ref="BU10" si="38">+BP10+1</f>
         <v>44747</v>
       </c>
-      <c r="BV10" s="73"/>
-      <c r="BW10" s="73"/>
-      <c r="BX10" s="73"/>
-      <c r="BY10" s="74"/>
-      <c r="BZ10" s="72">
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="102"/>
+      <c r="BX10" s="102"/>
+      <c r="BY10" s="103"/>
+      <c r="BZ10" s="101">
         <f t="shared" ref="BZ10" si="39">+BU10+1</f>
         <v>44748</v>
       </c>
-      <c r="CA10" s="73"/>
-      <c r="CB10" s="73"/>
-      <c r="CC10" s="73"/>
-      <c r="CD10" s="74"/>
-      <c r="CE10" s="72">
+      <c r="CA10" s="102"/>
+      <c r="CB10" s="102"/>
+      <c r="CC10" s="102"/>
+      <c r="CD10" s="103"/>
+      <c r="CE10" s="101">
         <f t="shared" ref="CE10" si="40">+BZ10+1</f>
         <v>44749</v>
       </c>
-      <c r="CF10" s="73"/>
-      <c r="CG10" s="73"/>
-      <c r="CH10" s="73"/>
-      <c r="CI10" s="74"/>
-      <c r="CJ10" s="72">
+      <c r="CF10" s="102"/>
+      <c r="CG10" s="102"/>
+      <c r="CH10" s="102"/>
+      <c r="CI10" s="103"/>
+      <c r="CJ10" s="101">
         <f t="shared" ref="CJ10" si="41">+CE10+1</f>
         <v>44750</v>
       </c>
-      <c r="CK10" s="73"/>
-      <c r="CL10" s="73"/>
-      <c r="CM10" s="73"/>
-      <c r="CN10" s="74"/>
-      <c r="CO10" s="72">
+      <c r="CK10" s="102"/>
+      <c r="CL10" s="102"/>
+      <c r="CM10" s="102"/>
+      <c r="CN10" s="103"/>
+      <c r="CO10" s="101">
         <f t="shared" ref="CO10" si="42">+CJ10+1</f>
         <v>44751</v>
       </c>
-      <c r="CP10" s="73"/>
-      <c r="CQ10" s="73"/>
-      <c r="CR10" s="73"/>
-      <c r="CS10" s="74"/>
-      <c r="CT10" s="72">
+      <c r="CP10" s="102"/>
+      <c r="CQ10" s="102"/>
+      <c r="CR10" s="102"/>
+      <c r="CS10" s="103"/>
+      <c r="CT10" s="101">
         <f t="shared" ref="CT10" si="43">+CO10+1</f>
         <v>44752</v>
       </c>
-      <c r="CU10" s="73"/>
-      <c r="CV10" s="73"/>
-      <c r="CW10" s="73"/>
-      <c r="CX10" s="74"/>
-      <c r="CY10" s="72">
+      <c r="CU10" s="102"/>
+      <c r="CV10" s="102"/>
+      <c r="CW10" s="102"/>
+      <c r="CX10" s="103"/>
+      <c r="CY10" s="101">
         <f t="shared" ref="CY10" si="44">+CT10+1</f>
         <v>44753</v>
       </c>
-      <c r="CZ10" s="73"/>
-      <c r="DA10" s="73"/>
-      <c r="DB10" s="73"/>
-      <c r="DC10" s="74"/>
-      <c r="DD10" s="72">
+      <c r="CZ10" s="102"/>
+      <c r="DA10" s="102"/>
+      <c r="DB10" s="102"/>
+      <c r="DC10" s="103"/>
+      <c r="DD10" s="101">
         <f t="shared" ref="DD10" si="45">+CY10+1</f>
         <v>44754</v>
       </c>
-      <c r="DE10" s="73"/>
-      <c r="DF10" s="73"/>
-      <c r="DG10" s="73"/>
-      <c r="DH10" s="74"/>
-      <c r="DI10" s="72">
+      <c r="DE10" s="102"/>
+      <c r="DF10" s="102"/>
+      <c r="DG10" s="102"/>
+      <c r="DH10" s="103"/>
+      <c r="DI10" s="101">
         <f t="shared" ref="DI10" si="46">+DD10+1</f>
         <v>44755</v>
       </c>
-      <c r="DJ10" s="73"/>
-      <c r="DK10" s="73"/>
-      <c r="DL10" s="73"/>
-      <c r="DM10" s="74"/>
-      <c r="DN10" s="72">
+      <c r="DJ10" s="102"/>
+      <c r="DK10" s="102"/>
+      <c r="DL10" s="102"/>
+      <c r="DM10" s="103"/>
+      <c r="DN10" s="101">
         <f t="shared" ref="DN10" si="47">+DI10+1</f>
         <v>44756</v>
       </c>
-      <c r="DO10" s="73"/>
-      <c r="DP10" s="73"/>
-      <c r="DQ10" s="73"/>
-      <c r="DR10" s="74"/>
-      <c r="DS10" s="72">
+      <c r="DO10" s="102"/>
+      <c r="DP10" s="102"/>
+      <c r="DQ10" s="102"/>
+      <c r="DR10" s="103"/>
+      <c r="DS10" s="101">
         <f t="shared" ref="DS10" si="48">+DN10+1</f>
         <v>44757</v>
       </c>
-      <c r="DT10" s="73"/>
-      <c r="DU10" s="73"/>
-      <c r="DV10" s="73"/>
-      <c r="DW10" s="74"/>
-      <c r="DX10" s="72">
+      <c r="DT10" s="102"/>
+      <c r="DU10" s="102"/>
+      <c r="DV10" s="102"/>
+      <c r="DW10" s="103"/>
+      <c r="DX10" s="101">
         <f t="shared" ref="DX10" si="49">+DS10+1</f>
         <v>44758</v>
       </c>
-      <c r="DY10" s="73"/>
-      <c r="DZ10" s="73"/>
-      <c r="EA10" s="73"/>
-      <c r="EB10" s="74"/>
-      <c r="EC10" s="72">
+      <c r="DY10" s="102"/>
+      <c r="DZ10" s="102"/>
+      <c r="EA10" s="102"/>
+      <c r="EB10" s="103"/>
+      <c r="EC10" s="101">
         <f t="shared" ref="EC10" si="50">+DX10+1</f>
         <v>44759</v>
       </c>
-      <c r="ED10" s="73"/>
-      <c r="EE10" s="73"/>
-      <c r="EF10" s="73"/>
-      <c r="EG10" s="74"/>
-      <c r="EH10" s="72">
+      <c r="ED10" s="102"/>
+      <c r="EE10" s="102"/>
+      <c r="EF10" s="102"/>
+      <c r="EG10" s="103"/>
+      <c r="EH10" s="101">
         <f t="shared" ref="EH10" si="51">+EC10+1</f>
         <v>44760</v>
       </c>
-      <c r="EI10" s="73"/>
-      <c r="EJ10" s="73"/>
-      <c r="EK10" s="73"/>
-      <c r="EL10" s="74"/>
-      <c r="EM10" s="72">
+      <c r="EI10" s="102"/>
+      <c r="EJ10" s="102"/>
+      <c r="EK10" s="102"/>
+      <c r="EL10" s="103"/>
+      <c r="EM10" s="101">
         <f t="shared" ref="EM10" si="52">+EH10+1</f>
         <v>44761</v>
       </c>
-      <c r="EN10" s="73"/>
-      <c r="EO10" s="73"/>
-      <c r="EP10" s="73"/>
-      <c r="EQ10" s="74"/>
-      <c r="ER10" s="72">
+      <c r="EN10" s="102"/>
+      <c r="EO10" s="102"/>
+      <c r="EP10" s="102"/>
+      <c r="EQ10" s="103"/>
+      <c r="ER10" s="101">
         <f t="shared" ref="ER10" si="53">+EM10+1</f>
         <v>44762</v>
       </c>
-      <c r="ES10" s="73"/>
-      <c r="ET10" s="73"/>
-      <c r="EU10" s="73"/>
-      <c r="EV10" s="74"/>
-      <c r="EW10" s="72">
+      <c r="ES10" s="102"/>
+      <c r="ET10" s="102"/>
+      <c r="EU10" s="102"/>
+      <c r="EV10" s="103"/>
+      <c r="EW10" s="101">
         <f t="shared" ref="EW10" si="54">+ER10+1</f>
         <v>44763</v>
       </c>
-      <c r="EX10" s="73"/>
-      <c r="EY10" s="73"/>
-      <c r="EZ10" s="73"/>
-      <c r="FA10" s="74"/>
-      <c r="FB10" s="72">
+      <c r="EX10" s="102"/>
+      <c r="EY10" s="102"/>
+      <c r="EZ10" s="102"/>
+      <c r="FA10" s="103"/>
+      <c r="FB10" s="101">
         <f t="shared" ref="FB10" si="55">+EW10+1</f>
         <v>44764</v>
       </c>
-      <c r="FC10" s="73"/>
-      <c r="FD10" s="73"/>
-      <c r="FE10" s="73"/>
-      <c r="FF10" s="74"/>
-      <c r="FG10" s="72">
+      <c r="FC10" s="102"/>
+      <c r="FD10" s="102"/>
+      <c r="FE10" s="102"/>
+      <c r="FF10" s="103"/>
+      <c r="FG10" s="101">
         <f t="shared" ref="FG10" si="56">+FB10+1</f>
         <v>44765</v>
       </c>
-      <c r="FH10" s="73"/>
-      <c r="FI10" s="73"/>
-      <c r="FJ10" s="73"/>
-      <c r="FK10" s="74"/>
+      <c r="FH10" s="102"/>
+      <c r="FI10" s="102"/>
+      <c r="FJ10" s="102"/>
+      <c r="FK10" s="103"/>
     </row>
     <row r="11" spans="1:167" s="21" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="42" t="s">
         <v>173</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>130</v>
       </c>
@@ -6121,7 +6122,7 @@
       <c r="FJ12" s="32"/>
       <c r="FK12" s="33"/>
     </row>
-    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -6361,7 +6362,7 @@
       <c r="FJ13" s="32"/>
       <c r="FK13" s="33"/>
     </row>
-    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>17</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="FJ14" s="32"/>
       <c r="FK14" s="33"/>
     </row>
-    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>131</v>
       </c>
@@ -6843,7 +6844,7 @@
       <c r="FJ15" s="32"/>
       <c r="FK15" s="33"/>
     </row>
-    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
@@ -7089,7 +7090,7 @@
       <c r="FJ16" s="32"/>
       <c r="FK16" s="33"/>
     </row>
-    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
@@ -7331,7 +7332,7 @@
       <c r="FJ17" s="32"/>
       <c r="FK17" s="33"/>
     </row>
-    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>20</v>
       </c>
@@ -7579,7 +7580,7 @@
       <c r="FJ18" s="32"/>
       <c r="FK18" s="33"/>
     </row>
-    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
@@ -7819,7 +7820,7 @@
       <c r="FJ19" s="32"/>
       <c r="FK19" s="33"/>
     </row>
-    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>22</v>
       </c>
@@ -8063,7 +8064,7 @@
       <c r="FJ20" s="32"/>
       <c r="FK20" s="33"/>
     </row>
-    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>23</v>
       </c>
@@ -8309,7 +8310,7 @@
       <c r="FJ21" s="32"/>
       <c r="FK21" s="33"/>
     </row>
-    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
@@ -8537,7 +8538,7 @@
       <c r="FJ22" s="32"/>
       <c r="FK22" s="33"/>
     </row>
-    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>25</v>
       </c>
@@ -8781,7 +8782,7 @@
       <c r="FJ23" s="32"/>
       <c r="FK23" s="33"/>
     </row>
-    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>26</v>
       </c>
@@ -9019,7 +9020,7 @@
       <c r="FJ24" s="32"/>
       <c r="FK24" s="33"/>
     </row>
-    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>27</v>
       </c>
@@ -9275,7 +9276,7 @@
       <c r="FJ25" s="32"/>
       <c r="FK25" s="33"/>
     </row>
-    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>28</v>
       </c>
@@ -9525,7 +9526,7 @@
       <c r="FJ26" s="32"/>
       <c r="FK26" s="33"/>
     </row>
-    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>29</v>
       </c>
@@ -9763,7 +9764,7 @@
       <c r="FJ27" s="32"/>
       <c r="FK27" s="33"/>
     </row>
-    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>30</v>
       </c>
@@ -10037,7 +10038,7 @@
       <c r="FJ28" s="32"/>
       <c r="FK28" s="33"/>
     </row>
-    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>31</v>
       </c>
@@ -10569,7 +10570,7 @@
       <c r="FJ30" s="32"/>
       <c r="FK30" s="33"/>
     </row>
-    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>33</v>
       </c>
@@ -10813,7 +10814,7 @@
       <c r="FJ31" s="32"/>
       <c r="FK31" s="33"/>
     </row>
-    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>34</v>
       </c>
@@ -11057,7 +11058,7 @@
       <c r="FJ32" s="32"/>
       <c r="FK32" s="33"/>
     </row>
-    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>35</v>
       </c>
@@ -11333,7 +11334,7 @@
       <c r="FJ33" s="32"/>
       <c r="FK33" s="33"/>
     </row>
-    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>36</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="FJ34" s="32"/>
       <c r="FK34" s="33"/>
     </row>
-    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>37</v>
       </c>
@@ -11817,7 +11818,7 @@
       <c r="FJ35" s="32"/>
       <c r="FK35" s="33"/>
     </row>
-    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>38</v>
       </c>
@@ -12069,7 +12070,7 @@
       <c r="FJ36" s="32"/>
       <c r="FK36" s="33"/>
     </row>
-    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>39</v>
       </c>
@@ -12309,7 +12310,7 @@
       <c r="FJ37" s="32"/>
       <c r="FK37" s="33"/>
     </row>
-    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>40</v>
       </c>
@@ -12555,7 +12556,7 @@
       <c r="FJ38" s="32"/>
       <c r="FK38" s="33"/>
     </row>
-    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>41</v>
       </c>
@@ -12803,7 +12804,7 @@
       <c r="FJ39" s="32"/>
       <c r="FK39" s="33"/>
     </row>
-    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>42</v>
       </c>
@@ -13041,7 +13042,7 @@
       <c r="FJ40" s="32"/>
       <c r="FK40" s="33"/>
     </row>
-    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>43</v>
       </c>
@@ -13281,7 +13282,7 @@
       <c r="FJ41" s="32"/>
       <c r="FK41" s="33"/>
     </row>
-    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>44</v>
       </c>
@@ -13535,7 +13536,7 @@
       <c r="FJ42" s="32"/>
       <c r="FK42" s="33"/>
     </row>
-    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>45</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="FJ43" s="32"/>
       <c r="FK43" s="33"/>
     </row>
-    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>46</v>
       </c>
@@ -14019,7 +14020,7 @@
       <c r="FJ44" s="32"/>
       <c r="FK44" s="33"/>
     </row>
-    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>47</v>
       </c>
@@ -14287,7 +14288,7 @@
       <c r="FJ45" s="32"/>
       <c r="FK45" s="33"/>
     </row>
-    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>48</v>
       </c>
@@ -14517,7 +14518,7 @@
       <c r="FJ46" s="32"/>
       <c r="FK46" s="33"/>
     </row>
-    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>49</v>
       </c>
@@ -14759,7 +14760,7 @@
       <c r="FJ47" s="32"/>
       <c r="FK47" s="33"/>
     </row>
-    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>50</v>
       </c>
@@ -14999,7 +15000,7 @@
       <c r="FJ48" s="32"/>
       <c r="FK48" s="33"/>
     </row>
-    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>51</v>
       </c>
@@ -15239,7 +15240,7 @@
       <c r="FJ49" s="32"/>
       <c r="FK49" s="33"/>
     </row>
-    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>52</v>
       </c>
@@ -15489,7 +15490,7 @@
       <c r="FJ50" s="32"/>
       <c r="FK50" s="33"/>
     </row>
-    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>53</v>
       </c>
@@ -15729,7 +15730,7 @@
       <c r="FJ51" s="32"/>
       <c r="FK51" s="33"/>
     </row>
-    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>54</v>
       </c>
@@ -15971,7 +15972,7 @@
       <c r="FJ52" s="32"/>
       <c r="FK52" s="33"/>
     </row>
-    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>55</v>
       </c>
@@ -16211,7 +16212,7 @@
       <c r="FJ53" s="32"/>
       <c r="FK53" s="33"/>
     </row>
-    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>56</v>
       </c>
@@ -16451,7 +16452,7 @@
       <c r="FJ54" s="32"/>
       <c r="FK54" s="33"/>
     </row>
-    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>57</v>
       </c>
@@ -16689,7 +16690,7 @@
       <c r="FJ55" s="32"/>
       <c r="FK55" s="33"/>
     </row>
-    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>58</v>
       </c>
@@ -16929,7 +16930,7 @@
       <c r="FJ56" s="32"/>
       <c r="FK56" s="33"/>
     </row>
-    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>59</v>
       </c>
@@ -17167,7 +17168,7 @@
       <c r="FJ57" s="32"/>
       <c r="FK57" s="33"/>
     </row>
-    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>60</v>
       </c>
@@ -17413,7 +17414,7 @@
       <c r="FJ58" s="32"/>
       <c r="FK58" s="33"/>
     </row>
-    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>132</v>
       </c>
@@ -17647,7 +17648,7 @@
       <c r="FJ59" s="32"/>
       <c r="FK59" s="33"/>
     </row>
-    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>61</v>
       </c>
@@ -17887,7 +17888,7 @@
       <c r="FJ60" s="32"/>
       <c r="FK60" s="33"/>
     </row>
-    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
         <v>62</v>
       </c>
@@ -18127,7 +18128,7 @@
       <c r="FJ61" s="32"/>
       <c r="FK61" s="33"/>
     </row>
-    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>63</v>
       </c>
@@ -18377,7 +18378,7 @@
       <c r="FJ62" s="32"/>
       <c r="FK62" s="33"/>
     </row>
-    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>64</v>
       </c>
@@ -18625,7 +18626,7 @@
       <c r="FJ63" s="32"/>
       <c r="FK63" s="33"/>
     </row>
-    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>133</v>
       </c>
@@ -18861,7 +18862,7 @@
       <c r="FJ64" s="32"/>
       <c r="FK64" s="33"/>
     </row>
-    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>65</v>
       </c>
@@ -19105,7 +19106,7 @@
       <c r="FJ65" s="32"/>
       <c r="FK65" s="33"/>
     </row>
-    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>66</v>
       </c>
@@ -19355,7 +19356,7 @@
       <c r="FJ66" s="32"/>
       <c r="FK66" s="33"/>
     </row>
-    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>67</v>
       </c>
@@ -19607,7 +19608,7 @@
       <c r="FJ67" s="32"/>
       <c r="FK67" s="33"/>
     </row>
-    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>68</v>
       </c>
@@ -19849,7 +19850,7 @@
       <c r="FJ68" s="32"/>
       <c r="FK68" s="33"/>
     </row>
-    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>69</v>
       </c>
@@ -20065,7 +20066,7 @@
       <c r="FJ69" s="32"/>
       <c r="FK69" s="33"/>
     </row>
-    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>134</v>
       </c>
@@ -20301,7 +20302,7 @@
       <c r="FJ70" s="32"/>
       <c r="FK70" s="33"/>
     </row>
-    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
         <v>70</v>
       </c>
@@ -20545,7 +20546,7 @@
       <c r="FJ71" s="32"/>
       <c r="FK71" s="33"/>
     </row>
-    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
         <v>71</v>
       </c>
@@ -20819,7 +20820,7 @@
       <c r="FJ72" s="32"/>
       <c r="FK72" s="33"/>
     </row>
-    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>135</v>
       </c>
@@ -21055,7 +21056,7 @@
       <c r="FJ73" s="32"/>
       <c r="FK73" s="33"/>
     </row>
-    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
         <v>72</v>
       </c>
@@ -21297,7 +21298,7 @@
       <c r="FJ74" s="32"/>
       <c r="FK74" s="33"/>
     </row>
-    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>73</v>
       </c>
@@ -21537,7 +21538,7 @@
       <c r="FJ75" s="32"/>
       <c r="FK75" s="33"/>
     </row>
-    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>74</v>
       </c>
@@ -21783,7 +21784,7 @@
       <c r="FJ76" s="32"/>
       <c r="FK76" s="33"/>
     </row>
-    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>75</v>
       </c>
@@ -22027,7 +22028,7 @@
       <c r="FJ77" s="32"/>
       <c r="FK77" s="33"/>
     </row>
-    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>76</v>
       </c>
@@ -22291,7 +22292,7 @@
       <c r="FJ78" s="32"/>
       <c r="FK78" s="33"/>
     </row>
-    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>77</v>
       </c>
@@ -22545,7 +22546,7 @@
       <c r="FJ79" s="32"/>
       <c r="FK79" s="33"/>
     </row>
-    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>78</v>
       </c>
@@ -22801,7 +22802,7 @@
       <c r="FJ80" s="32"/>
       <c r="FK80" s="33"/>
     </row>
-    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>79</v>
       </c>
@@ -23049,7 +23050,7 @@
       <c r="FJ81" s="32"/>
       <c r="FK81" s="33"/>
     </row>
-    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>80</v>
       </c>
@@ -23319,7 +23320,7 @@
       <c r="FJ82" s="32"/>
       <c r="FK82" s="33"/>
     </row>
-    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>81</v>
       </c>
@@ -23569,7 +23570,7 @@
       <c r="FJ83" s="32"/>
       <c r="FK83" s="33"/>
     </row>
-    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>82</v>
       </c>
@@ -23807,7 +23808,7 @@
       <c r="FJ84" s="32"/>
       <c r="FK84" s="33"/>
     </row>
-    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>83</v>
       </c>
@@ -24083,7 +24084,7 @@
       <c r="FJ85" s="32"/>
       <c r="FK85" s="33"/>
     </row>
-    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>84</v>
       </c>
@@ -24333,7 +24334,7 @@
       <c r="FJ86" s="32"/>
       <c r="FK86" s="33"/>
     </row>
-    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>85</v>
       </c>
@@ -24571,7 +24572,7 @@
       <c r="FJ87" s="32"/>
       <c r="FK87" s="33"/>
     </row>
-    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>91</v>
       </c>
@@ -24819,7 +24820,7 @@
       <c r="FJ88" s="32"/>
       <c r="FK88" s="33"/>
     </row>
-    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
         <v>92</v>
       </c>
@@ -25065,7 +25066,7 @@
       <c r="FJ89" s="32"/>
       <c r="FK89" s="33"/>
     </row>
-    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
         <v>93</v>
       </c>
@@ -25303,7 +25304,7 @@
       <c r="FJ90" s="32"/>
       <c r="FK90" s="33"/>
     </row>
-    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>94</v>
       </c>
@@ -25547,7 +25548,7 @@
       <c r="FJ91" s="32"/>
       <c r="FK91" s="33"/>
     </row>
-    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>95</v>
       </c>
@@ -25785,7 +25786,7 @@
       <c r="FJ92" s="32"/>
       <c r="FK92" s="33"/>
     </row>
-    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>96</v>
       </c>
@@ -26025,7 +26026,7 @@
       <c r="FJ93" s="32"/>
       <c r="FK93" s="33"/>
     </row>
-    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
         <v>97</v>
       </c>
@@ -26267,7 +26268,7 @@
       <c r="FJ94" s="32"/>
       <c r="FK94" s="33"/>
     </row>
-    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>98</v>
       </c>
@@ -26513,7 +26514,7 @@
       <c r="FJ95" s="32"/>
       <c r="FK95" s="33"/>
     </row>
-    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
         <v>136</v>
       </c>
@@ -26747,7 +26748,7 @@
       <c r="FJ96" s="32"/>
       <c r="FK96" s="33"/>
     </row>
-    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
         <v>99</v>
       </c>
@@ -26993,7 +26994,7 @@
       <c r="FJ97" s="32"/>
       <c r="FK97" s="33"/>
     </row>
-    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
         <v>140</v>
       </c>
@@ -27223,7 +27224,7 @@
       <c r="FJ98" s="32"/>
       <c r="FK98" s="33"/>
     </row>
-    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
         <v>100</v>
       </c>
@@ -27469,7 +27470,7 @@
       <c r="FJ99" s="32"/>
       <c r="FK99" s="33"/>
     </row>
-    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>101</v>
       </c>
@@ -27737,7 +27738,7 @@
       <c r="FJ100" s="32"/>
       <c r="FK100" s="33"/>
     </row>
-    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
         <v>102</v>
       </c>
@@ -27987,7 +27988,7 @@
       <c r="FJ101" s="32"/>
       <c r="FK101" s="33"/>
     </row>
-    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
         <v>103</v>
       </c>
@@ -28251,7 +28252,7 @@
       <c r="FJ102" s="32"/>
       <c r="FK102" s="33"/>
     </row>
-    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
         <v>104</v>
       </c>
@@ -28499,7 +28500,7 @@
       <c r="FJ103" s="32"/>
       <c r="FK103" s="33"/>
     </row>
-    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
         <v>105</v>
       </c>
@@ -28743,7 +28744,7 @@
       <c r="FJ104" s="32"/>
       <c r="FK104" s="33"/>
     </row>
-    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>106</v>
       </c>
@@ -28985,7 +28986,7 @@
       <c r="FJ105" s="32"/>
       <c r="FK105" s="33"/>
     </row>
-    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>107</v>
       </c>
@@ -29231,7 +29232,7 @@
       <c r="FJ106" s="32"/>
       <c r="FK106" s="33"/>
     </row>
-    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
         <v>108</v>
       </c>
@@ -29469,7 +29470,7 @@
       <c r="FJ107" s="32"/>
       <c r="FK107" s="33"/>
     </row>
-    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>109</v>
       </c>
@@ -29711,7 +29712,7 @@
       <c r="FJ108" s="32"/>
       <c r="FK108" s="33"/>
     </row>
-    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
         <v>110</v>
       </c>
@@ -29929,7 +29930,7 @@
       <c r="FJ109" s="32"/>
       <c r="FK109" s="33"/>
     </row>
-    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
         <v>111</v>
       </c>
@@ -30169,7 +30170,7 @@
       <c r="FJ110" s="32"/>
       <c r="FK110" s="33"/>
     </row>
-    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
         <v>112</v>
       </c>
@@ -30417,7 +30418,7 @@
       <c r="FJ111" s="32"/>
       <c r="FK111" s="33"/>
     </row>
-    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>113</v>
       </c>
@@ -30663,7 +30664,7 @@
       <c r="FJ112" s="32"/>
       <c r="FK112" s="33"/>
     </row>
-    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>114</v>
       </c>
@@ -30905,7 +30906,7 @@
       <c r="FJ113" s="32"/>
       <c r="FK113" s="33"/>
     </row>
-    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>115</v>
       </c>
@@ -31153,7 +31154,7 @@
       <c r="FJ114" s="32"/>
       <c r="FK114" s="33"/>
     </row>
-    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
         <v>137</v>
       </c>
@@ -31387,7 +31388,7 @@
       <c r="FJ115" s="32"/>
       <c r="FK115" s="33"/>
     </row>
-    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>116</v>
       </c>
@@ -31635,7 +31636,7 @@
       <c r="FJ116" s="32"/>
       <c r="FK116" s="33"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>117</v>
       </c>
@@ -31881,7 +31882,7 @@
       <c r="FJ117" s="32"/>
       <c r="FK117" s="33"/>
     </row>
-    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
         <v>118</v>
       </c>
@@ -32127,7 +32128,7 @@
       <c r="FJ118" s="32"/>
       <c r="FK118" s="33"/>
     </row>
-    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>119</v>
       </c>
@@ -32369,7 +32370,7 @@
       <c r="FJ119" s="32"/>
       <c r="FK119" s="33"/>
     </row>
-    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>120</v>
       </c>
@@ -32609,7 +32610,7 @@
       <c r="FJ120" s="32"/>
       <c r="FK120" s="33"/>
     </row>
-    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>121</v>
       </c>
@@ -32851,7 +32852,7 @@
       <c r="FJ121" s="32"/>
       <c r="FK121" s="33"/>
     </row>
-    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>122</v>
       </c>
@@ -33099,7 +33100,7 @@
       <c r="FJ122" s="32"/>
       <c r="FK122" s="33"/>
     </row>
-    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>123</v>
       </c>
@@ -33351,7 +33352,7 @@
       <c r="FJ123" s="32"/>
       <c r="FK123" s="33"/>
     </row>
-    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>124</v>
       </c>
@@ -33603,7 +33604,7 @@
       <c r="FJ124" s="32"/>
       <c r="FK124" s="33"/>
     </row>
-    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>125</v>
       </c>
@@ -33845,7 +33846,7 @@
       <c r="FJ125" s="32"/>
       <c r="FK125" s="33"/>
     </row>
-    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>138</v>
       </c>
@@ -34079,7 +34080,7 @@
       <c r="FJ126" s="32"/>
       <c r="FK126" s="33"/>
     </row>
-    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>126</v>
       </c>
@@ -34325,7 +34326,7 @@
       <c r="FJ127" s="32"/>
       <c r="FK127" s="33"/>
     </row>
-    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>127</v>
       </c>
@@ -34605,7 +34606,7 @@
       <c r="FJ128" s="32"/>
       <c r="FK128" s="33"/>
     </row>
-    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>128</v>
       </c>
@@ -34849,7 +34850,7 @@
       <c r="FJ129" s="32"/>
       <c r="FK129" s="33"/>
     </row>
-    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>139</v>
       </c>
@@ -35085,7 +35086,7 @@
       <c r="FJ130" s="32"/>
       <c r="FK130" s="33"/>
     </row>
-    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>129</v>
       </c>
@@ -35331,7 +35332,7 @@
       <c r="FJ131" s="32"/>
       <c r="FK131" s="33"/>
     </row>
-    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>143</v>
       </c>
@@ -35541,7 +35542,7 @@
       <c r="FJ132" s="32"/>
       <c r="FK132" s="33"/>
     </row>
-    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>144</v>
       </c>
@@ -35751,7 +35752,7 @@
       <c r="FJ133" s="32"/>
       <c r="FK133" s="33"/>
     </row>
-    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>145</v>
       </c>
@@ -35961,7 +35962,7 @@
       <c r="FJ134" s="32"/>
       <c r="FK134" s="33"/>
     </row>
-    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>146</v>
       </c>
@@ -36171,7 +36172,7 @@
       <c r="FJ135" s="32"/>
       <c r="FK135" s="33"/>
     </row>
-    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>147</v>
       </c>
@@ -36381,7 +36382,7 @@
       <c r="FJ136" s="32"/>
       <c r="FK136" s="33"/>
     </row>
-    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>148</v>
       </c>
@@ -36591,7 +36592,7 @@
       <c r="FJ137" s="32"/>
       <c r="FK137" s="33"/>
     </row>
-    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>149</v>
       </c>
@@ -36801,7 +36802,7 @@
       <c r="FJ138" s="32"/>
       <c r="FK138" s="33"/>
     </row>
-    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>150</v>
       </c>
@@ -37011,7 +37012,7 @@
       <c r="FJ139" s="32"/>
       <c r="FK139" s="33"/>
     </row>
-    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>151</v>
       </c>
@@ -37221,7 +37222,7 @@
       <c r="FJ140" s="32"/>
       <c r="FK140" s="33"/>
     </row>
-    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>152</v>
       </c>
@@ -37431,7 +37432,7 @@
       <c r="FJ141" s="32"/>
       <c r="FK141" s="33"/>
     </row>
-    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>153</v>
       </c>
@@ -37641,7 +37642,7 @@
       <c r="FJ142" s="32"/>
       <c r="FK142" s="33"/>
     </row>
-    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>154</v>
       </c>
@@ -37851,7 +37852,7 @@
       <c r="FJ143" s="32"/>
       <c r="FK143" s="33"/>
     </row>
-    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>155</v>
       </c>
@@ -38061,7 +38062,7 @@
       <c r="FJ144" s="32"/>
       <c r="FK144" s="33"/>
     </row>
-    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
         <v>156</v>
       </c>
@@ -38271,7 +38272,7 @@
       <c r="FJ145" s="32"/>
       <c r="FK145" s="33"/>
     </row>
-    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
         <v>157</v>
       </c>
@@ -38481,7 +38482,7 @@
       <c r="FJ146" s="32"/>
       <c r="FK146" s="33"/>
     </row>
-    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>158</v>
       </c>
@@ -38691,7 +38692,7 @@
       <c r="FJ147" s="32"/>
       <c r="FK147" s="33"/>
     </row>
-    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
         <v>159</v>
       </c>
@@ -38901,7 +38902,7 @@
       <c r="FJ148" s="32"/>
       <c r="FK148" s="33"/>
     </row>
-    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="s">
         <v>160</v>
       </c>
@@ -39111,7 +39112,7 @@
       <c r="FJ149" s="32"/>
       <c r="FK149" s="33"/>
     </row>
-    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="s">
         <v>161</v>
       </c>
@@ -39321,7 +39322,7 @@
       <c r="FJ150" s="32"/>
       <c r="FK150" s="33"/>
     </row>
-    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="s">
         <v>162</v>
       </c>
@@ -39531,7 +39532,7 @@
       <c r="FJ151" s="32"/>
       <c r="FK151" s="33"/>
     </row>
-    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>163</v>
       </c>
@@ -39741,7 +39742,7 @@
       <c r="FJ152" s="32"/>
       <c r="FK152" s="33"/>
     </row>
-    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>164</v>
       </c>
@@ -39951,7 +39952,7 @@
       <c r="FJ153" s="32"/>
       <c r="FK153" s="33"/>
     </row>
-    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>165</v>
       </c>
@@ -40161,7 +40162,7 @@
       <c r="FJ154" s="32"/>
       <c r="FK154" s="33"/>
     </row>
-    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>166</v>
       </c>
@@ -40371,7 +40372,7 @@
       <c r="FJ155" s="32"/>
       <c r="FK155" s="33"/>
     </row>
-    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>167</v>
       </c>
@@ -40581,7 +40582,7 @@
       <c r="FJ156" s="32"/>
       <c r="FK156" s="33"/>
     </row>
-    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>168</v>
       </c>
@@ -40791,7 +40792,7 @@
       <c r="FJ157" s="32"/>
       <c r="FK157" s="33"/>
     </row>
-    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>169</v>
       </c>
@@ -41001,7 +41002,7 @@
       <c r="FJ158" s="32"/>
       <c r="FK158" s="33"/>
     </row>
-    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>170</v>
       </c>
@@ -41211,7 +41212,7 @@
       <c r="FJ159" s="32"/>
       <c r="FK159" s="33"/>
     </row>
-    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>171</v>
       </c>
@@ -41421,7 +41422,7 @@
       <c r="FJ160" s="32"/>
       <c r="FK160" s="33"/>
     </row>
-    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>172</v>
       </c>
@@ -41631,7 +41632,7 @@
       <c r="FJ161" s="32"/>
       <c r="FK161" s="33"/>
     </row>
-    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:167" s="18" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="48"/>
       <c r="B162" s="46"/>
       <c r="C162" s="47"/>
@@ -42598,26 +42599,52 @@
       <c r="C167" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}"/>
+  <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="CALVAY CASTRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="72">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:AZ8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="DI10:DM10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BO10"/>
+    <mergeCell ref="BP10:BT10"/>
+    <mergeCell ref="BU10:BY10"/>
+    <mergeCell ref="BZ10:CD10"/>
+    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="FG10:FK10"/>
+    <mergeCell ref="DN10:DR10"/>
+    <mergeCell ref="DS10:DW10"/>
+    <mergeCell ref="DX10:EB10"/>
+    <mergeCell ref="EC10:EG10"/>
+    <mergeCell ref="EH10:EL10"/>
+    <mergeCell ref="EM10:EQ10"/>
+    <mergeCell ref="FG9:FK9"/>
+    <mergeCell ref="EC9:EG9"/>
+    <mergeCell ref="EH9:EL9"/>
+    <mergeCell ref="EM9:EQ9"/>
+    <mergeCell ref="ER9:EV9"/>
+    <mergeCell ref="EW9:FA9"/>
+    <mergeCell ref="FB9:FF9"/>
+    <mergeCell ref="BA8:FK8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="CE9:CI9"/>
+    <mergeCell ref="CJ9:CN9"/>
+    <mergeCell ref="CO9:CS9"/>
+    <mergeCell ref="CT9:CX9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BO9"/>
+    <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BU9:BY9"/>
     <mergeCell ref="BZ9:CD9"/>
     <mergeCell ref="ER10:EV10"/>
@@ -42634,44 +42661,24 @@
     <mergeCell ref="CT10:CX10"/>
     <mergeCell ref="CY10:DC10"/>
     <mergeCell ref="DD10:DH10"/>
-    <mergeCell ref="BA8:FK8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="CE9:CI9"/>
-    <mergeCell ref="CJ9:CN9"/>
-    <mergeCell ref="CO9:CS9"/>
-    <mergeCell ref="CT9:CX9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BO9"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="FG9:FK9"/>
-    <mergeCell ref="EC9:EG9"/>
-    <mergeCell ref="EH9:EL9"/>
-    <mergeCell ref="EM9:EQ9"/>
-    <mergeCell ref="ER9:EV9"/>
-    <mergeCell ref="EW9:FA9"/>
-    <mergeCell ref="FB9:FF9"/>
-    <mergeCell ref="FG10:FK10"/>
-    <mergeCell ref="DN10:DR10"/>
-    <mergeCell ref="DS10:DW10"/>
-    <mergeCell ref="DX10:EB10"/>
-    <mergeCell ref="EC10:EG10"/>
-    <mergeCell ref="EH10:EL10"/>
-    <mergeCell ref="EM10:EQ10"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="DI10:DM10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BO10"/>
-    <mergeCell ref="BP10:BT10"/>
-    <mergeCell ref="BU10:BY10"/>
-    <mergeCell ref="BZ10:CD10"/>
-    <mergeCell ref="CE10:CI10"/>
+    <mergeCell ref="R8:AZ8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="DS12:EL151 FB12:FK151 ER12:EV151">

--- a/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
+++ b/1-CONTROL/2-TAREO/TAREO-JULIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\1-CONTROL\2-TAREO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161DA37-A683-4AAE-AA7A-7661ABF3B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1232C4-5AD1-42EA-8BA4-F9A96CEDFF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{100E3196-77E0-4FB0-BD0A-F462B801CA56}"/>
   </bookViews>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:FK167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10306,7 +10306,7 @@
       <c r="FJ29" s="32"/>
       <c r="FK29" s="33"/>
     </row>
-    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>32</v>
       </c>
@@ -24587,11 +24587,11 @@
       </c>
       <c r="E88" s="36">
         <f t="shared" si="83"/>
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="F88" s="36">
         <f t="shared" si="84"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G88" s="36">
         <f t="shared" si="85"/>
@@ -24619,11 +24619,11 @@
       </c>
       <c r="M88" s="23">
         <f t="shared" si="91"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N88" s="23">
         <f t="shared" si="92"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O88" s="23">
         <f t="shared" si="93"/>
@@ -24635,7 +24635,7 @@
       </c>
       <c r="Q88" s="34">
         <f t="shared" si="95"/>
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="R88" s="30">
         <v>1</v>
@@ -24693,7 +24693,7 @@
       <c r="AY88" s="32"/>
       <c r="AZ88" s="33"/>
       <c r="BA88" s="30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BB88" s="31"/>
       <c r="BC88" s="31"/>
@@ -24717,11 +24717,9 @@
         <v>1</v>
       </c>
       <c r="BQ88" s="31">
-        <v>2</v>
-      </c>
-      <c r="BR88" s="31">
         <v>0.5</v>
       </c>
+      <c r="BR88" s="31"/>
       <c r="BS88" s="32"/>
       <c r="BT88" s="33"/>
       <c r="BU88" s="30"/>
@@ -31636,7 +31634,7 @@
       <c r="FJ116" s="32"/>
       <c r="FK116" s="33"/>
     </row>
-    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:167" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>117</v>
       </c>
@@ -31655,11 +31653,11 @@
       </c>
       <c r="F117" s="36">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="36">
         <f t="shared" si="98"/>
-        <v>0.16666666666666699</v>
+        <v>0</v>
       </c>
       <c r="H117" s="23">
         <f t="shared" si="99"/>
@@ -31671,7 +31669,7 @@
       </c>
       <c r="J117" s="23">
         <f t="shared" si="101"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" s="23">
         <f t="shared" si="102"/>
@@ -31780,7 +31778,7 @@
       <c r="BN117" s="66"/>
       <c r="BO117" s="67"/>
       <c r="BP117" s="30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="BQ117" s="31"/>
       <c r="BR117" s="31"/>
@@ -41639,15 +41637,15 @@
       <c r="D162" s="49"/>
       <c r="E162" s="50">
         <f t="shared" ref="E162:AJ162" si="122">SUM(E12:E161)</f>
-        <v>1056.8699999999999</v>
+        <v>1057.1199999999999</v>
       </c>
       <c r="F162" s="50">
         <f t="shared" si="122"/>
-        <v>96.13</v>
+        <v>94.88</v>
       </c>
       <c r="G162" s="50">
         <f t="shared" si="122"/>
-        <v>15.333333333333382</v>
+        <v>15.166666666666714</v>
       </c>
       <c r="H162" s="50">
         <f t="shared" si="122"/>
@@ -41659,7 +41657,7 @@
       </c>
       <c r="J162" s="50">
         <f t="shared" si="122"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162" s="50">
         <f t="shared" si="122"/>
@@ -41671,11 +41669,11 @@
       </c>
       <c r="M162" s="50">
         <f t="shared" si="122"/>
-        <v>326.25</v>
+        <v>324.75</v>
       </c>
       <c r="N162" s="50">
         <f t="shared" si="122"/>
-        <v>56</v>
+        <v>55.5</v>
       </c>
       <c r="O162" s="50">
         <f t="shared" si="122"/>
@@ -41687,7 +41685,7 @@
       </c>
       <c r="Q162" s="50">
         <f t="shared" si="122"/>
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="R162" s="39">
         <f t="shared" si="122"/>
@@ -41831,7 +41829,7 @@
       </c>
       <c r="BA162" s="39">
         <f t="shared" si="123"/>
-        <v>95.12</v>
+        <v>95.37</v>
       </c>
       <c r="BB162" s="41">
         <f t="shared" si="123"/>
@@ -41895,11 +41893,11 @@
       </c>
       <c r="BQ162" s="41">
         <f t="shared" ref="BQ162:CV162" si="124">SUM(BQ12:BQ161)</f>
-        <v>52.25</v>
+        <v>50.75</v>
       </c>
       <c r="BR162" s="41">
         <f t="shared" si="124"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BS162" s="41">
         <f t="shared" si="124"/>
@@ -42602,7 +42600,7 @@
   <autoFilter ref="A11:FK162" xr:uid="{C0760EAB-CC3D-40AE-A29A-AB65FF61DEFD}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CALVAY CASTRO"/>
+        <filter val="TRUJILLO MAITA"/>
       </filters>
     </filterColumn>
   </autoFilter>
